--- a/Jogos_da_Semana_FlashScore_2025-04-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-14.xlsx
@@ -790,10 +790,10 @@
         <v>3.75</v>
       </c>
       <c r="N3" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="O3" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="P3" t="n">
         <v>1.36</v>
@@ -1752,22 +1752,22 @@
         <v>5.5</v>
       </c>
       <c r="J11" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M11" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N11" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P11" t="n">
         <v>1.53</v>
@@ -1999,10 +1999,10 @@
         <v>1.02</v>
       </c>
       <c r="K13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L13" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="M13" t="n">
         <v>5.5</v>
@@ -2240,13 +2240,13 @@
         <v>5.75</v>
       </c>
       <c r="J15" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L15" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M15" t="n">
         <v>3.25</v>
@@ -2356,19 +2356,19 @@
         <v>13</v>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="I16" t="n">
         <v>1.22</v>
       </c>
       <c r="J16" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K16" t="n">
         <v>12</v>
       </c>
       <c r="L16" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M16" t="n">
         <v>4.33</v>
@@ -2386,13 +2386,13 @@
         <v>3.25</v>
       </c>
       <c r="R16" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S16" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="U16" t="n">
         <v>51</v>
@@ -2407,7 +2407,7 @@
         <v>101</v>
       </c>
       <c r="Y16" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="Z16" t="n">
         <v>12</v>
@@ -2431,10 +2431,10 @@
         <v>5.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>12</v>
@@ -2484,22 +2484,22 @@
         <v>3.8</v>
       </c>
       <c r="J17" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K17" t="n">
         <v>11</v>
       </c>
       <c r="L17" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="M17" t="n">
         <v>3.4</v>
       </c>
       <c r="N17" t="n">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="O17" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="P17" t="n">
         <v>1.44</v>
@@ -2731,7 +2731,7 @@
         <v>1.04</v>
       </c>
       <c r="K19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L19" t="n">
         <v>1.22</v>
@@ -2963,13 +2963,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="H21" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -2977,13 +2977,13 @@
         <v>1.36</v>
       </c>
       <c r="M21" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="N21" t="n">
         <v>2.05</v>
       </c>
       <c r="O21" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P21" t="n">
         <v>1.47</v>
@@ -2992,16 +2992,16 @@
         <v>2.32</v>
       </c>
       <c r="R21" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S21" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T21" t="n">
         <v>7.9</v>
       </c>
       <c r="U21" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="V21" t="n">
         <v>10</v>
@@ -3016,10 +3016,10 @@
         <v>35</v>
       </c>
       <c r="Z21" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AA21" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AB21" t="n">
         <v>14</v>
@@ -3031,13 +3031,13 @@
         <v>600</v>
       </c>
       <c r="AE21" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AF21" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG21" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AH21" t="n">
         <v>30</v>
@@ -3812,42 +3812,42 @@
         <v>3.15</v>
       </c>
       <c r="H28" t="n">
-        <v>4.15</v>
+        <v>4.05</v>
       </c>
       <c r="I28" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="M28" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="N28" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="O28" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="P28" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="Q28" t="n">
-        <v>4.55</v>
+        <v>4.35</v>
       </c>
       <c r="R28" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="S28" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="T28" t="n">
         <v>26</v>
       </c>
       <c r="U28" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V28" t="n">
         <v>13</v>
@@ -3859,40 +3859,40 @@
         <v>22</v>
       </c>
       <c r="Y28" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z28" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AA28" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AB28" t="n">
         <v>10.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AD28" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AE28" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AF28" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AG28" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AH28" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI28" t="n">
         <v>13.5</v>
       </c>
       <c r="AJ28" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="29">
@@ -3927,79 +3927,79 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="H29" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="I29" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J29" t="n">
         <v>1.03</v>
       </c>
       <c r="K29" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="L29" t="n">
         <v>1.14</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="N29" t="n">
         <v>1.44</v>
       </c>
       <c r="O29" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="P29" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="R29" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="S29" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="T29" t="n">
         <v>12.5</v>
       </c>
       <c r="U29" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="V29" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W29" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="X29" t="n">
         <v>13</v>
       </c>
       <c r="Y29" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z29" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB29" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AC29" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AD29" t="n">
         <v>150</v>
       </c>
       <c r="AE29" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF29" t="n">
         <v>24</v>
@@ -4011,7 +4011,7 @@
         <v>50</v>
       </c>
       <c r="AI29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ29" t="n">
         <v>24</v>
@@ -4537,7 +4537,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="H34" t="n">
         <v>3.15</v>
@@ -4662,7 +4662,7 @@
         <v>1.34</v>
       </c>
       <c r="H35" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="I35" t="n">
         <v>7.8</v>
@@ -4692,7 +4692,7 @@
         <v>2.9</v>
       </c>
       <c r="R35" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S35" t="n">
         <v>1.65</v>
@@ -5213,7 +5213,7 @@
         <v>1.04</v>
       </c>
       <c r="K40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L40" t="n">
         <v>1.25</v>
@@ -5335,7 +5335,7 @@
         <v>1.04</v>
       </c>
       <c r="K41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L41" t="n">
         <v>1.22</v>
@@ -5445,19 +5445,19 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H42" t="n">
         <v>3.5</v>
       </c>
       <c r="I42" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J42" t="n">
         <v>1.04</v>
       </c>
       <c r="K42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L42" t="n">
         <v>1.22</v>
@@ -5487,7 +5487,7 @@
         <v>8.5</v>
       </c>
       <c r="U42" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V42" t="n">
         <v>8.5</v>
@@ -5502,7 +5502,7 @@
         <v>23</v>
       </c>
       <c r="Z42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA42" t="n">
         <v>7</v>
@@ -5689,13 +5689,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H44" t="n">
         <v>3.1</v>
       </c>
       <c r="I44" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J44" t="n">
         <v>1.11</v>
@@ -5728,7 +5728,7 @@
         <v>1.62</v>
       </c>
       <c r="T44" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U44" t="n">
         <v>8.5</v>
@@ -5932,36 +5932,96 @@
           <t>Tekstilac Odzaci</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="inlineStr"/>
-      <c r="AA46" t="inlineStr"/>
-      <c r="AB46" t="inlineStr"/>
-      <c r="AC46" t="inlineStr"/>
-      <c r="AD46" t="inlineStr"/>
-      <c r="AE46" t="inlineStr"/>
-      <c r="AF46" t="inlineStr"/>
-      <c r="AG46" t="inlineStr"/>
-      <c r="AH46" t="inlineStr"/>
-      <c r="AI46" t="inlineStr"/>
-      <c r="AJ46" t="inlineStr"/>
+      <c r="G46" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I46" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K46" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T46" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="U46" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="V46" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W46" t="n">
+        <v>13</v>
+      </c>
+      <c r="X46" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>700</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>75</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5995,70 +6055,70 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="H47" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I47" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="J47" t="n">
         <v>1.06</v>
       </c>
       <c r="K47" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="L47" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M47" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="N47" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="O47" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="P47" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="R47" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S47" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T47" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="U47" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="V47" t="n">
         <v>8.25</v>
       </c>
       <c r="W47" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="X47" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y47" t="n">
         <v>30</v>
       </c>
       <c r="Z47" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AA47" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="AB47" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AC47" t="n">
         <v>100</v>
@@ -6067,22 +6127,22 @@
         <v>900</v>
       </c>
       <c r="AE47" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF47" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AG47" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AH47" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AI47" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ47" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48">
@@ -6504,10 +6564,10 @@
         <v>3</v>
       </c>
       <c r="N51" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O51" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P51" t="n">
         <v>1.5</v>
@@ -6614,13 +6674,13 @@
         <v>12</v>
       </c>
       <c r="J52" t="n">
-        <v>1.01</v>
+        <v>26</v>
       </c>
       <c r="K52" t="n">
-        <v>26</v>
+        <v>1.02</v>
       </c>
       <c r="L52" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="M52" t="n">
         <v>7</v>
@@ -6854,16 +6914,16 @@
         <v>2.63</v>
       </c>
       <c r="J54" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="K54" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L54" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="M54" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="N54" t="n">
         <v>2.4</v>
@@ -6976,16 +7036,16 @@
         <v>4.75</v>
       </c>
       <c r="J55" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="K55" t="n">
         <v>7</v>
       </c>
       <c r="L55" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="M55" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="N55" t="n">
         <v>2.35</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-14.xlsx
@@ -656,13 +656,13 @@
         <v>3.5</v>
       </c>
       <c r="J2" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K2" t="n">
         <v>13</v>
       </c>
       <c r="L2" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M2" t="n">
         <v>4.33</v>
@@ -889,19 +889,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="I4" t="n">
         <v>21</v>
       </c>
       <c r="J4" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L4" t="n">
         <v>1.14</v>
@@ -922,10 +922,10 @@
         <v>3.75</v>
       </c>
       <c r="R4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T4" t="n">
         <v>8.5</v>
@@ -937,13 +937,13 @@
         <v>11</v>
       </c>
       <c r="W4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X4" t="n">
         <v>12</v>
       </c>
       <c r="Y4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z4" t="n">
         <v>17</v>
@@ -961,7 +961,7 @@
         <v>501</v>
       </c>
       <c r="AE4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF4" t="n">
         <v>81</v>
@@ -1014,16 +1014,16 @@
         <v>3.5</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J5" t="n">
         <v>1.06</v>
       </c>
       <c r="K5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L5" t="n">
         <v>1.33</v>
@@ -1139,13 +1139,13 @@
         <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J6" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L6" t="n">
         <v>1.53</v>
@@ -1190,10 +1190,10 @@
         <v>41</v>
       </c>
       <c r="Z6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB6" t="n">
         <v>21</v>
@@ -1208,7 +1208,7 @@
         <v>6.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG6" t="n">
         <v>12</v>
@@ -1258,7 +1258,7 @@
         <v>2.25</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
         <v>3.4</v>
@@ -1267,7 +1267,7 @@
         <v>1.08</v>
       </c>
       <c r="K7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L7" t="n">
         <v>1.44</v>
@@ -1282,25 +1282,25 @@
         <v>1.57</v>
       </c>
       <c r="P7" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R7" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S7" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U7" t="n">
         <v>9.5</v>
       </c>
       <c r="V7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W7" t="n">
         <v>21</v>
@@ -1309,22 +1309,22 @@
         <v>21</v>
       </c>
       <c r="Y7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA7" t="n">
         <v>6</v>
       </c>
       <c r="AB7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC7" t="n">
         <v>67</v>
       </c>
       <c r="AD7" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AE7" t="n">
         <v>8</v>
@@ -1333,7 +1333,7 @@
         <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
         <v>41</v>
@@ -1380,16 +1380,16 @@
         <v>3.4</v>
       </c>
       <c r="H8" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I8" t="n">
         <v>2.25</v>
       </c>
       <c r="J8" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L8" t="n">
         <v>1.5</v>
@@ -1752,10 +1752,10 @@
         <v>5.5</v>
       </c>
       <c r="J11" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L11" t="n">
         <v>1.44</v>
@@ -1767,7 +1767,7 @@
         <v>2.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P11" t="n">
         <v>1.53</v>
@@ -1809,13 +1809,13 @@
         <v>23</v>
       </c>
       <c r="AC11" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD11" t="n">
         <v>101</v>
       </c>
       <c r="AE11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF11" t="n">
         <v>26</v>
@@ -1865,10 +1865,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H12" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I12" t="n">
         <v>4.33</v>
@@ -1889,7 +1889,7 @@
         <v>3.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P12" t="n">
         <v>1.67</v>
@@ -1993,13 +1993,13 @@
         <v>5</v>
       </c>
       <c r="I13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J13" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L13" t="n">
         <v>1.14</v>
@@ -2020,10 +2020,10 @@
         <v>3.75</v>
       </c>
       <c r="R13" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S13" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T13" t="n">
         <v>9</v>
@@ -2035,7 +2035,7 @@
         <v>9</v>
       </c>
       <c r="W13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X13" t="n">
         <v>11</v>
@@ -2056,7 +2056,7 @@
         <v>51</v>
       </c>
       <c r="AD13" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE13" t="n">
         <v>26</v>
@@ -2112,25 +2112,25 @@
         <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="I14" t="n">
         <v>4.6</v>
       </c>
       <c r="J14" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K14" t="n">
         <v>5.7</v>
       </c>
       <c r="L14" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M14" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="N14" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="O14" t="n">
         <v>1.6</v>
@@ -2142,28 +2142,28 @@
         <v>2.5</v>
       </c>
       <c r="R14" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S14" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="T14" t="n">
         <v>6.1</v>
       </c>
       <c r="U14" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="V14" t="n">
         <v>8.25</v>
       </c>
       <c r="W14" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="X14" t="n">
         <v>17.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z14" t="n">
         <v>5.7</v>
@@ -2172,10 +2172,10 @@
         <v>5.4</v>
       </c>
       <c r="AB14" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC14" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AD14" t="n">
         <v>600</v>
@@ -2496,10 +2496,10 @@
         <v>3.4</v>
       </c>
       <c r="N17" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O17" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P17" t="n">
         <v>1.44</v>
@@ -2841,28 +2841,28 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="H20" t="n">
         <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>2.95</v>
+        <v>2.88</v>
       </c>
       <c r="J20" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="K20" t="n">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="M20" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="N20" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="O20" t="n">
         <v>1.57</v>
@@ -2871,64 +2871,64 @@
         <v>1.53</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="R20" t="n">
         <v>2</v>
       </c>
       <c r="S20" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="T20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U20" t="n">
         <v>11</v>
       </c>
       <c r="V20" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="W20" t="n">
         <v>26</v>
       </c>
       <c r="X20" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y20" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Z20" t="n">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC20" t="n">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="AD20" t="n">
-        <v>101</v>
+        <v>1250</v>
       </c>
       <c r="AE20" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AF20" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AG20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH20" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="AI20" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AJ20" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21">
@@ -3565,19 +3565,19 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H26" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I26" t="n">
         <v>2.7</v>
       </c>
       <c r="J26" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K26" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="L26" t="n">
         <v>1.33</v>
@@ -3646,13 +3646,13 @@
         <v>10</v>
       </c>
       <c r="AH26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI26" t="n">
         <v>21</v>
       </c>
       <c r="AJ26" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
@@ -3699,7 +3699,7 @@
         <v>1.08</v>
       </c>
       <c r="K27" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L27" t="n">
         <v>1.36</v>
@@ -3812,7 +3812,7 @@
         <v>3.15</v>
       </c>
       <c r="H28" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="I28" t="n">
         <v>1.95</v>
@@ -3823,19 +3823,19 @@
         <v>1.08</v>
       </c>
       <c r="M28" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="N28" t="n">
         <v>1.27</v>
       </c>
       <c r="O28" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="P28" t="n">
         <v>1.18</v>
       </c>
       <c r="Q28" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="R28" t="n">
         <v>1.28</v>
@@ -3844,16 +3844,16 @@
         <v>3.35</v>
       </c>
       <c r="T28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U28" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="V28" t="n">
         <v>13</v>
       </c>
       <c r="W28" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="X28" t="n">
         <v>22</v>
@@ -3865,16 +3865,16 @@
         <v>35</v>
       </c>
       <c r="AA28" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AB28" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AC28" t="n">
         <v>22</v>
       </c>
       <c r="AD28" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AE28" t="n">
         <v>18</v>
@@ -4049,94 +4049,94 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="H30" t="n">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="I30" t="n">
-        <v>5.25</v>
+        <v>8</v>
       </c>
       <c r="J30" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K30" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L30" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="M30" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N30" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O30" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="P30" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R30" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S30" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="T30" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U30" t="n">
         <v>6</v>
       </c>
-      <c r="U30" t="n">
-        <v>6.5</v>
-      </c>
       <c r="V30" t="n">
+        <v>9</v>
+      </c>
+      <c r="W30" t="n">
         <v>8.5</v>
-      </c>
-      <c r="W30" t="n">
-        <v>11</v>
       </c>
       <c r="X30" t="n">
         <v>13</v>
       </c>
       <c r="Y30" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z30" t="n">
         <v>9.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC30" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD30" t="n">
         <v>501</v>
       </c>
       <c r="AE30" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AF30" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG30" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AH30" t="n">
+        <v>101</v>
+      </c>
+      <c r="AI30" t="n">
         <v>67</v>
       </c>
-      <c r="AI30" t="n">
-        <v>51</v>
-      </c>
       <c r="AJ30" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31">
@@ -4180,13 +4180,13 @@
         <v>3.1</v>
       </c>
       <c r="J31" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K31" t="n">
         <v>11</v>
       </c>
       <c r="L31" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M31" t="n">
         <v>3.75</v>
@@ -4293,22 +4293,22 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H32" t="n">
         <v>3.6</v>
       </c>
       <c r="I32" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J32" t="n">
         <v>1.03</v>
       </c>
       <c r="K32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L32" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M32" t="n">
         <v>4.33</v>
@@ -4356,7 +4356,7 @@
         <v>7.5</v>
       </c>
       <c r="AB32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC32" t="n">
         <v>41</v>
@@ -4368,7 +4368,7 @@
         <v>13</v>
       </c>
       <c r="AF32" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG32" t="n">
         <v>13</v>
@@ -4415,22 +4415,22 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="H33" t="n">
         <v>3.6</v>
       </c>
       <c r="I33" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J33" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L33" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="M33" t="n">
         <v>5.5</v>
@@ -4448,16 +4448,16 @@
         <v>3.75</v>
       </c>
       <c r="R33" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S33" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T33" t="n">
         <v>11</v>
       </c>
       <c r="U33" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V33" t="n">
         <v>9</v>
@@ -4478,7 +4478,7 @@
         <v>8</v>
       </c>
       <c r="AB33" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC33" t="n">
         <v>34</v>
@@ -4487,22 +4487,22 @@
         <v>101</v>
       </c>
       <c r="AE33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF33" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH33" t="n">
         <v>41</v>
       </c>
       <c r="AI33" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ33" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34">
@@ -4537,7 +4537,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="H34" t="n">
         <v>3.15</v>
@@ -4549,7 +4549,7 @@
         <v>1.08</v>
       </c>
       <c r="K34" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="L34" t="n">
         <v>1.39</v>
@@ -4576,7 +4576,7 @@
         <v>1.78</v>
       </c>
       <c r="T34" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="U34" t="n">
         <v>8.5</v>
@@ -4588,13 +4588,13 @@
         <v>16.5</v>
       </c>
       <c r="X34" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y34" t="n">
         <v>32</v>
       </c>
       <c r="Z34" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AA34" t="n">
         <v>6.3</v>
@@ -4606,13 +4606,13 @@
         <v>90</v>
       </c>
       <c r="AD34" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AE34" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AF34" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AG34" t="n">
         <v>13.5</v>
@@ -4624,7 +4624,7 @@
         <v>40</v>
       </c>
       <c r="AJ34" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35">
@@ -4659,85 +4659,85 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="H35" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="I35" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="J35" t="n">
         <v>1.05</v>
       </c>
       <c r="K35" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="L35" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="M35" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="N35" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="O35" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="P35" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.9</v>
+        <v>2.77</v>
       </c>
       <c r="R35" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="S35" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="T35" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="U35" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="V35" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W35" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="X35" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="Y35" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z35" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AA35" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AB35" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC35" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AD35" t="n">
         <v>1000</v>
       </c>
       <c r="AE35" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF35" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG35" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH35" t="n">
         <v>200</v>
@@ -4746,7 +4746,7 @@
         <v>100</v>
       </c>
       <c r="AJ35" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36">
@@ -4894,36 +4894,96 @@
           <t>IR Tanger</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
-      <c r="AB37" t="inlineStr"/>
-      <c r="AC37" t="inlineStr"/>
-      <c r="AD37" t="inlineStr"/>
-      <c r="AE37" t="inlineStr"/>
-      <c r="AF37" t="inlineStr"/>
-      <c r="AG37" t="inlineStr"/>
-      <c r="AH37" t="inlineStr"/>
-      <c r="AI37" t="inlineStr"/>
-      <c r="AJ37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="K37" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="T37" t="n">
+        <v>9</v>
+      </c>
+      <c r="U37" t="n">
+        <v>15</v>
+      </c>
+      <c r="V37" t="n">
+        <v>11</v>
+      </c>
+      <c r="W37" t="n">
+        <v>34</v>
+      </c>
+      <c r="X37" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>301</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4957,73 +5017,73 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4.4</v>
+        <v>4.33</v>
       </c>
       <c r="H38" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I38" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="J38" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K38" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="L38" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M38" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="N38" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="O38" t="n">
         <v>1.7</v>
       </c>
       <c r="P38" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R38" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="S38" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="T38" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="U38" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="V38" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="W38" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="X38" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="Y38" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="Z38" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA38" t="n">
         <v>7</v>
       </c>
-      <c r="AA38" t="n">
-        <v>6.9</v>
-      </c>
       <c r="AB38" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC38" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="AD38" t="n">
         <v>1000</v>
@@ -5032,19 +5092,19 @@
         <v>6</v>
       </c>
       <c r="AF38" t="n">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="AG38" t="n">
         <v>9</v>
       </c>
       <c r="AH38" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI38" t="n">
         <v>17</v>
       </c>
       <c r="AJ38" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39">
@@ -5567,13 +5627,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="H43" t="n">
         <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J43" t="n">
         <v>1.08</v>
@@ -5609,7 +5669,7 @@
         <v>7.5</v>
       </c>
       <c r="U43" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V43" t="n">
         <v>10</v>
@@ -5642,10 +5702,10 @@
         <v>8.5</v>
       </c>
       <c r="AF43" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG43" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH43" t="n">
         <v>29</v>
@@ -5654,7 +5714,7 @@
         <v>26</v>
       </c>
       <c r="AJ43" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44">
@@ -5689,13 +5749,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H44" t="n">
         <v>3.1</v>
       </c>
       <c r="I44" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J44" t="n">
         <v>1.11</v>
@@ -5728,7 +5788,7 @@
         <v>1.62</v>
       </c>
       <c r="T44" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U44" t="n">
         <v>8.5</v>
@@ -5811,19 +5871,19 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="H45" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="I45" t="n">
-        <v>5.25</v>
+        <v>6.25</v>
       </c>
       <c r="J45" t="n">
         <v>1.06</v>
       </c>
       <c r="K45" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L45" t="n">
         <v>1.3</v>
@@ -5832,37 +5892,37 @@
         <v>3.4</v>
       </c>
       <c r="N45" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O45" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P45" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R45" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S45" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T45" t="n">
+        <v>6</v>
+      </c>
+      <c r="U45" t="n">
         <v>6.5</v>
-      </c>
-      <c r="U45" t="n">
-        <v>7.5</v>
       </c>
       <c r="V45" t="n">
         <v>8.5</v>
       </c>
       <c r="W45" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X45" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y45" t="n">
         <v>29</v>
@@ -5871,34 +5931,34 @@
         <v>9.5</v>
       </c>
       <c r="AA45" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB45" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC45" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD45" t="n">
         <v>351</v>
       </c>
       <c r="AE45" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF45" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG45" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH45" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI45" t="n">
         <v>51</v>
       </c>
-      <c r="AI45" t="n">
-        <v>41</v>
-      </c>
       <c r="AJ45" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46">
@@ -5939,7 +5999,7 @@
         <v>3.5</v>
       </c>
       <c r="I46" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="J46" t="n">
         <v>1.07</v>
@@ -5963,10 +6023,10 @@
         <v>1.44</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="R46" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="S46" t="n">
         <v>1.8</v>
@@ -5999,7 +6059,7 @@
         <v>16.5</v>
       </c>
       <c r="AC46" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD46" t="n">
         <v>700</v>
@@ -6067,7 +6127,7 @@
         <v>1.06</v>
       </c>
       <c r="K47" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="L47" t="n">
         <v>1.3</v>
@@ -6079,7 +6139,7 @@
         <v>1.88</v>
       </c>
       <c r="O47" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="P47" t="n">
         <v>1.4</v>
@@ -6094,7 +6154,7 @@
         <v>1.72</v>
       </c>
       <c r="T47" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="U47" t="n">
         <v>6.7</v>
@@ -6112,7 +6172,7 @@
         <v>30</v>
       </c>
       <c r="Z47" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AA47" t="n">
         <v>7.8</v>
@@ -6299,52 +6359,52 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H49" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I49" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J49" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K49" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L49" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M49" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="N49" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="O49" t="n">
         <v>1.44</v>
       </c>
       <c r="P49" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R49" t="n">
         <v>2.25</v>
       </c>
       <c r="S49" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="T49" t="n">
         <v>5.5</v>
       </c>
       <c r="U49" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V49" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W49" t="n">
         <v>17</v>
@@ -6356,7 +6416,7 @@
         <v>41</v>
       </c>
       <c r="Z49" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA49" t="n">
         <v>6.5</v>
@@ -6380,7 +6440,7 @@
         <v>15</v>
       </c>
       <c r="AH49" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI49" t="n">
         <v>41</v>
@@ -6445,7 +6505,7 @@
         <v>2.05</v>
       </c>
       <c r="O50" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="P50" t="n">
         <v>1.44</v>
@@ -6454,10 +6514,10 @@
         <v>2.63</v>
       </c>
       <c r="R50" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S50" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T50" t="n">
         <v>8.5</v>
@@ -6484,7 +6544,7 @@
         <v>6</v>
       </c>
       <c r="AB50" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC50" t="n">
         <v>51</v>
@@ -6567,7 +6627,7 @@
         <v>2.2</v>
       </c>
       <c r="O51" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P51" t="n">
         <v>1.5</v>
@@ -6576,10 +6636,10 @@
         <v>2.5</v>
       </c>
       <c r="R51" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="S51" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="T51" t="n">
         <v>9</v>
@@ -6674,19 +6734,19 @@
         <v>12</v>
       </c>
       <c r="J52" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K52" t="n">
         <v>26</v>
       </c>
-      <c r="K52" t="n">
-        <v>1.02</v>
-      </c>
       <c r="L52" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="M52" t="n">
         <v>7</v>
       </c>
       <c r="N52" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="O52" t="n">
         <v>3.4</v>
@@ -6914,13 +6974,13 @@
         <v>2.63</v>
       </c>
       <c r="J54" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K54" t="n">
         <v>8</v>
       </c>
       <c r="L54" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="M54" t="n">
         <v>2.62</v>
@@ -6929,7 +6989,7 @@
         <v>2.4</v>
       </c>
       <c r="O54" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P54" t="n">
         <v>1.53</v>
@@ -7036,13 +7096,13 @@
         <v>4.75</v>
       </c>
       <c r="J55" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K55" t="n">
         <v>7</v>
       </c>
       <c r="L55" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="M55" t="n">
         <v>2.62</v>
@@ -7051,7 +7111,7 @@
         <v>2.35</v>
       </c>
       <c r="O55" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="P55" t="n">
         <v>1.5</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-14.xlsx
@@ -656,13 +656,13 @@
         <v>3.5</v>
       </c>
       <c r="J2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K2" t="n">
         <v>13</v>
       </c>
       <c r="L2" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M2" t="n">
         <v>4.33</v>
@@ -898,10 +898,10 @@
         <v>21</v>
       </c>
       <c r="J4" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L4" t="n">
         <v>1.14</v>
@@ -1023,7 +1023,7 @@
         <v>1.06</v>
       </c>
       <c r="K5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L5" t="n">
         <v>1.33</v>
@@ -1032,10 +1032,10 @@
         <v>3.25</v>
       </c>
       <c r="N5" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O5" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P5" t="n">
         <v>1.44</v>
@@ -1139,7 +1139,7 @@
         <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
         <v>1.13</v>
@@ -1267,7 +1267,7 @@
         <v>1.08</v>
       </c>
       <c r="K7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L7" t="n">
         <v>1.44</v>
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H8" t="n">
         <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J8" t="n">
         <v>1.11</v>
@@ -1437,10 +1437,10 @@
         <v>6.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC8" t="n">
         <v>81</v>
@@ -1449,10 +1449,10 @@
         <v>101</v>
       </c>
       <c r="AE8" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
         <v>10</v>
@@ -1461,7 +1461,7 @@
         <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ8" t="n">
         <v>41</v>
@@ -1621,13 +1621,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H10" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I10" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="J10" t="n">
         <v>1.13</v>
@@ -1767,7 +1767,7 @@
         <v>2.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P11" t="n">
         <v>1.53</v>
@@ -1889,7 +1889,7 @@
         <v>3.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P12" t="n">
         <v>1.67</v>
@@ -1996,13 +1996,13 @@
         <v>9</v>
       </c>
       <c r="J13" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K13" t="n">
         <v>17</v>
       </c>
       <c r="L13" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="M13" t="n">
         <v>5.5</v>
@@ -2109,31 +2109,31 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H14" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I14" t="n">
-        <v>4.6</v>
+        <v>4.25</v>
       </c>
       <c r="J14" t="n">
         <v>1.11</v>
       </c>
       <c r="K14" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="L14" t="n">
         <v>1.42</v>
       </c>
       <c r="M14" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="N14" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="O14" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P14" t="n">
         <v>1.47</v>
@@ -2148,52 +2148,52 @@
         <v>1.85</v>
       </c>
       <c r="T14" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="U14" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="V14" t="n">
         <v>8.25</v>
       </c>
       <c r="W14" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="X14" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y14" t="n">
         <v>30</v>
       </c>
       <c r="Z14" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AB14" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AD14" t="n">
         <v>600</v>
       </c>
       <c r="AE14" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AF14" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AG14" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AJ14" t="n">
         <v>50</v>
@@ -2231,31 +2231,31 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H15" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I15" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J15" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K15" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L15" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M15" t="n">
         <v>3.25</v>
       </c>
       <c r="N15" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O15" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P15" t="n">
         <v>1.44</v>
@@ -2273,7 +2273,7 @@
         <v>6</v>
       </c>
       <c r="U15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V15" t="n">
         <v>8.5</v>
@@ -2288,7 +2288,7 @@
         <v>34</v>
       </c>
       <c r="Z15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA15" t="n">
         <v>7.5</v>
@@ -2303,19 +2303,19 @@
         <v>351</v>
       </c>
       <c r="AE15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI15" t="n">
         <v>51</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>41</v>
       </c>
       <c r="AJ15" t="n">
         <v>51</v>
@@ -2496,10 +2496,10 @@
         <v>3.4</v>
       </c>
       <c r="N17" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O17" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P17" t="n">
         <v>1.44</v>
@@ -2841,79 +2841,79 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="H20" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I20" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="J20" t="n">
         <v>1.08</v>
       </c>
       <c r="K20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L20" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M20" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N20" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O20" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P20" t="n">
         <v>1.57</v>
       </c>
-      <c r="P20" t="n">
-        <v>1.53</v>
-      </c>
       <c r="Q20" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R20" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S20" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U20" t="n">
         <v>11</v>
       </c>
       <c r="V20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W20" t="n">
         <v>26</v>
       </c>
       <c r="X20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y20" t="n">
         <v>41</v>
       </c>
       <c r="Z20" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA20" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC20" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD20" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AF20" t="n">
         <v>12</v>
@@ -3220,10 +3220,10 @@
         <v>3.5</v>
       </c>
       <c r="N23" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O23" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P23" t="n">
         <v>1.4</v>
@@ -3696,13 +3696,13 @@
         <v>5.5</v>
       </c>
       <c r="J27" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K27" t="n">
         <v>8</v>
       </c>
       <c r="L27" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
@@ -3812,7 +3812,7 @@
         <v>3.15</v>
       </c>
       <c r="H28" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I28" t="n">
         <v>1.95</v>
@@ -3820,79 +3820,79 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="M28" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="N28" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="O28" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P28" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="Q28" t="n">
-        <v>4.3</v>
+        <v>4.15</v>
       </c>
       <c r="R28" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S28" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T28" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="U28" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="V28" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="W28" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="X28" t="n">
         <v>22</v>
       </c>
       <c r="Y28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Z28" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AA28" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AB28" t="n">
         <v>10.25</v>
       </c>
       <c r="AC28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AD28" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AE28" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF28" t="n">
         <v>18</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>17</v>
       </c>
       <c r="AG28" t="n">
         <v>9.75</v>
       </c>
       <c r="AH28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI28" t="n">
         <v>13.5</v>
       </c>
       <c r="AJ28" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
@@ -4070,10 +4070,10 @@
         <v>3.4</v>
       </c>
       <c r="N30" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="O30" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="P30" t="n">
         <v>1.4</v>
@@ -4180,13 +4180,13 @@
         <v>3.1</v>
       </c>
       <c r="J31" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K31" t="n">
         <v>11</v>
       </c>
       <c r="L31" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M31" t="n">
         <v>3.75</v>
@@ -4210,10 +4210,10 @@
         <v>2.1</v>
       </c>
       <c r="T31" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V31" t="n">
         <v>9.5</v>
@@ -4222,7 +4222,7 @@
         <v>21</v>
       </c>
       <c r="X31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y31" t="n">
         <v>26</v>
@@ -4258,7 +4258,7 @@
         <v>23</v>
       </c>
       <c r="AJ31" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
@@ -4302,13 +4302,13 @@
         <v>3.8</v>
       </c>
       <c r="J32" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K32" t="n">
         <v>13</v>
       </c>
       <c r="L32" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M32" t="n">
         <v>4.33</v>
@@ -4424,13 +4424,13 @@
         <v>3.9</v>
       </c>
       <c r="J33" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K33" t="n">
         <v>19</v>
       </c>
       <c r="L33" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="M33" t="n">
         <v>5.5</v>
@@ -4576,19 +4576,19 @@
         <v>1.78</v>
       </c>
       <c r="T34" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="U34" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="V34" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W34" t="n">
         <v>16.5</v>
       </c>
       <c r="X34" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y34" t="n">
         <v>32</v>
@@ -4609,13 +4609,13 @@
         <v>800</v>
       </c>
       <c r="AE34" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AF34" t="n">
         <v>20</v>
       </c>
       <c r="AG34" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH34" t="n">
         <v>60</v>
@@ -4659,49 +4659,49 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="H35" t="n">
-        <v>4.3</v>
+        <v>4.15</v>
       </c>
       <c r="I35" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="J35" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K35" t="n">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="L35" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="M35" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="N35" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="O35" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="P35" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.77</v>
+        <v>2.65</v>
       </c>
       <c r="R35" t="n">
-        <v>2.18</v>
+        <v>2.27</v>
       </c>
       <c r="S35" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T35" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="U35" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="V35" t="n">
         <v>8.75</v>
@@ -4710,19 +4710,19 @@
         <v>8.25</v>
       </c>
       <c r="X35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y35" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z35" t="n">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="AA35" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB35" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AC35" t="n">
         <v>150</v>
@@ -4731,22 +4731,22 @@
         <v>1000</v>
       </c>
       <c r="AE35" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AF35" t="n">
         <v>50</v>
       </c>
       <c r="AG35" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH35" t="n">
         <v>200</v>
       </c>
       <c r="AI35" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AJ35" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36">
@@ -4895,10 +4895,10 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H37" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I37" t="n">
         <v>2.2</v>
@@ -4916,10 +4916,10 @@
         <v>2.8</v>
       </c>
       <c r="N37" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="O37" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="P37" t="n">
         <v>1.45</v>
@@ -4934,7 +4934,7 @@
         <v>1.87</v>
       </c>
       <c r="T37" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U37" t="n">
         <v>15</v>
@@ -4946,13 +4946,13 @@
         <v>34</v>
       </c>
       <c r="X37" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y37" t="n">
         <v>34</v>
       </c>
       <c r="Z37" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA37" t="n">
         <v>6.5</v>
@@ -4964,10 +4964,10 @@
         <v>51</v>
       </c>
       <c r="AD37" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AE37" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF37" t="n">
         <v>11</v>
@@ -5023,13 +5023,13 @@
         <v>3.5</v>
       </c>
       <c r="I38" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="J38" t="n">
         <v>1.07</v>
       </c>
       <c r="K38" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L38" t="n">
         <v>1.36</v>
@@ -5074,25 +5074,25 @@
         <v>41</v>
       </c>
       <c r="Z38" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA38" t="n">
         <v>7</v>
       </c>
       <c r="AB38" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC38" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD38" t="n">
         <v>1000</v>
       </c>
       <c r="AE38" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF38" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG38" t="n">
         <v>9</v>
@@ -5139,13 +5139,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H39" t="n">
         <v>2.9</v>
       </c>
       <c r="I39" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J39" t="n">
         <v>1.05</v>
@@ -5181,22 +5181,22 @@
         <v>9.5</v>
       </c>
       <c r="U39" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V39" t="n">
         <v>9.5</v>
       </c>
       <c r="W39" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X39" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y39" t="n">
         <v>26</v>
       </c>
       <c r="Z39" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA39" t="n">
         <v>6</v>
@@ -5627,7 +5627,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H43" t="n">
         <v>3</v>
@@ -5669,7 +5669,7 @@
         <v>7.5</v>
       </c>
       <c r="U43" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V43" t="n">
         <v>10</v>
@@ -5758,10 +5758,10 @@
         <v>3.8</v>
       </c>
       <c r="J44" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K44" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L44" t="n">
         <v>1.5</v>
@@ -5871,13 +5871,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="H45" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I45" t="n">
-        <v>6.25</v>
+        <v>5.5</v>
       </c>
       <c r="J45" t="n">
         <v>1.06</v>
@@ -5904,16 +5904,16 @@
         <v>2.75</v>
       </c>
       <c r="R45" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S45" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T45" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U45" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V45" t="n">
         <v>8.5</v>
@@ -5934,7 +5934,7 @@
         <v>7.5</v>
       </c>
       <c r="AB45" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC45" t="n">
         <v>67</v>
@@ -5943,19 +5943,19 @@
         <v>351</v>
       </c>
       <c r="AE45" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF45" t="n">
         <v>29</v>
       </c>
       <c r="AG45" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH45" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI45" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ45" t="n">
         <v>51</v>
@@ -5993,19 +5993,19 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="H46" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I46" t="n">
-        <v>4.45</v>
+        <v>4.05</v>
       </c>
       <c r="J46" t="n">
         <v>1.07</v>
       </c>
       <c r="K46" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="L46" t="n">
         <v>1.32</v>
@@ -6026,22 +6026,22 @@
         <v>2.6</v>
       </c>
       <c r="R46" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="S46" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T46" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="U46" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="V46" t="n">
         <v>8.25</v>
       </c>
       <c r="W46" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="X46" t="n">
         <v>14.5</v>
@@ -6050,13 +6050,13 @@
         <v>29</v>
       </c>
       <c r="Z46" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AA46" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AB46" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC46" t="n">
         <v>80</v>
@@ -6065,19 +6065,19 @@
         <v>700</v>
       </c>
       <c r="AE46" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AF46" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AG46" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH46" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AI46" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ46" t="n">
         <v>50</v>
@@ -6115,37 +6115,37 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="H47" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I47" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="J47" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K47" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="L47" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M47" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="N47" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O47" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P47" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="R47" t="n">
         <v>2</v>
@@ -6157,25 +6157,25 @@
         <v>6.3</v>
       </c>
       <c r="U47" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="V47" t="n">
         <v>8.25</v>
       </c>
       <c r="W47" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="X47" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y47" t="n">
         <v>30</v>
       </c>
       <c r="Z47" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AA47" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AB47" t="n">
         <v>19.5</v>
@@ -6187,19 +6187,19 @@
         <v>900</v>
       </c>
       <c r="AE47" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF47" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AG47" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH47" t="n">
         <v>110</v>
       </c>
       <c r="AI47" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ47" t="n">
         <v>65</v>
@@ -6368,19 +6368,19 @@
         <v>4.1</v>
       </c>
       <c r="J49" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K49" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L49" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M49" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="N49" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O49" t="n">
         <v>1.44</v>
@@ -6493,19 +6493,19 @@
         <v>1.06</v>
       </c>
       <c r="K50" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L50" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M50" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N50" t="n">
         <v>2.05</v>
       </c>
       <c r="O50" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P50" t="n">
         <v>1.44</v>
@@ -6627,7 +6627,7 @@
         <v>2.2</v>
       </c>
       <c r="O51" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P51" t="n">
         <v>1.5</v>
@@ -6740,13 +6740,13 @@
         <v>26</v>
       </c>
       <c r="L52" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="M52" t="n">
         <v>7</v>
       </c>
       <c r="N52" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="O52" t="n">
         <v>3.4</v>
@@ -6758,10 +6758,10 @@
         <v>4.33</v>
       </c>
       <c r="R52" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S52" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="T52" t="n">
         <v>11</v>
@@ -6974,22 +6974,22 @@
         <v>2.63</v>
       </c>
       <c r="J54" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K54" t="n">
         <v>8</v>
       </c>
       <c r="L54" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M54" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="N54" t="n">
         <v>2.4</v>
       </c>
       <c r="O54" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P54" t="n">
         <v>1.53</v>
@@ -7096,22 +7096,22 @@
         <v>4.75</v>
       </c>
       <c r="J55" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K55" t="n">
         <v>7</v>
       </c>
       <c r="L55" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M55" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="N55" t="n">
         <v>2.35</v>
       </c>
       <c r="O55" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="P55" t="n">
         <v>1.5</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-14.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J2" t="n">
         <v>1.04</v>
@@ -689,10 +689,10 @@
         <v>10</v>
       </c>
       <c r="U2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W2" t="n">
         <v>21</v>
@@ -719,7 +719,7 @@
         <v>151</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
         <v>21</v>
@@ -731,7 +731,7 @@
         <v>41</v>
       </c>
       <c r="AI2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ2" t="n">
         <v>34</v>
@@ -790,10 +790,10 @@
         <v>3.75</v>
       </c>
       <c r="N3" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="O3" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="P3" t="n">
         <v>1.36</v>
@@ -1026,16 +1026,16 @@
         <v>10</v>
       </c>
       <c r="L5" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M5" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N5" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P5" t="n">
         <v>1.44</v>
@@ -1068,13 +1068,13 @@
         <v>41</v>
       </c>
       <c r="Z5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA5" t="n">
         <v>6.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC5" t="n">
         <v>51</v>
@@ -1086,13 +1086,13 @@
         <v>7</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG5" t="n">
         <v>9</v>
       </c>
       <c r="AH5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI5" t="n">
         <v>17</v>
@@ -1255,13 +1255,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H7" t="n">
         <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J7" t="n">
         <v>1.08</v>
@@ -1288,16 +1288,16 @@
         <v>2.38</v>
       </c>
       <c r="R7" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T7" t="n">
         <v>6.5</v>
       </c>
       <c r="U7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V7" t="n">
         <v>9.5</v>
@@ -1312,7 +1312,7 @@
         <v>34</v>
       </c>
       <c r="Z7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA7" t="n">
         <v>6</v>
@@ -1336,10 +1336,10 @@
         <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ7" t="n">
         <v>41</v>
@@ -1630,10 +1630,10 @@
         <v>2.9</v>
       </c>
       <c r="J10" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L10" t="n">
         <v>1.62</v>
@@ -1705,7 +1705,7 @@
         <v>29</v>
       </c>
       <c r="AI10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ10" t="n">
         <v>51</v>
@@ -1996,13 +1996,13 @@
         <v>9</v>
       </c>
       <c r="J13" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K13" t="n">
         <v>17</v>
       </c>
       <c r="L13" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="M13" t="n">
         <v>5.5</v>
@@ -2231,22 +2231,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H15" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I15" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J15" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K15" t="n">
         <v>8.5</v>
       </c>
       <c r="L15" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M15" t="n">
         <v>3.25</v>
@@ -2273,7 +2273,7 @@
         <v>6</v>
       </c>
       <c r="U15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V15" t="n">
         <v>8.5</v>
@@ -2291,7 +2291,7 @@
         <v>8.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB15" t="n">
         <v>21</v>
@@ -2315,7 +2315,7 @@
         <v>67</v>
       </c>
       <c r="AI15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ15" t="n">
         <v>51</v>
@@ -2362,10 +2362,10 @@
         <v>1.22</v>
       </c>
       <c r="J16" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K16" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L16" t="n">
         <v>1.2</v>
@@ -3223,7 +3223,7 @@
         <v>1.95</v>
       </c>
       <c r="O23" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="P23" t="n">
         <v>1.4</v>
@@ -3586,7 +3586,7 @@
         <v>3.4</v>
       </c>
       <c r="N26" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O26" t="n">
         <v>1.8</v>
@@ -3598,13 +3598,13 @@
         <v>2.63</v>
       </c>
       <c r="R26" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S26" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T26" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U26" t="n">
         <v>13</v>
@@ -3631,13 +3631,13 @@
         <v>13</v>
       </c>
       <c r="AC26" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD26" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE26" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF26" t="n">
         <v>13</v>
@@ -3687,22 +3687,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H27" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I27" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J27" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K27" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L27" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
@@ -3735,7 +3735,7 @@
         <v>9</v>
       </c>
       <c r="W27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X27" t="n">
         <v>15</v>
@@ -3771,7 +3771,7 @@
         <v>51</v>
       </c>
       <c r="AI27" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ27" t="n">
         <v>51</v>
@@ -4049,31 +4049,31 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H30" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I30" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="J30" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K30" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="L30" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="M30" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N30" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="O30" t="n">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="P30" t="n">
         <v>1.4</v>
@@ -4088,16 +4088,16 @@
         <v>1.57</v>
       </c>
       <c r="T30" t="n">
+        <v>6</v>
+      </c>
+      <c r="U30" t="n">
         <v>5.5</v>
       </c>
-      <c r="U30" t="n">
-        <v>6</v>
-      </c>
       <c r="V30" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W30" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X30" t="n">
         <v>13</v>
@@ -4106,10 +4106,10 @@
         <v>34</v>
       </c>
       <c r="Z30" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA30" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB30" t="n">
         <v>23</v>
@@ -4121,19 +4121,19 @@
         <v>501</v>
       </c>
       <c r="AE30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF30" t="n">
         <v>41</v>
       </c>
       <c r="AG30" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH30" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AI30" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AJ30" t="n">
         <v>67</v>
@@ -4424,10 +4424,10 @@
         <v>3.9</v>
       </c>
       <c r="J33" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K33" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L33" t="n">
         <v>1.14</v>
@@ -4910,28 +4910,28 @@
         <v>5.8</v>
       </c>
       <c r="L37" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="M37" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N37" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S37" t="n">
         <v>1.98</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S37" t="n">
-        <v>1.87</v>
       </c>
       <c r="T37" t="n">
         <v>9.5</v>
@@ -5276,16 +5276,16 @@
         <v>13</v>
       </c>
       <c r="L40" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M40" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N40" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O40" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P40" t="n">
         <v>1.36</v>
@@ -5627,19 +5627,19 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H43" t="n">
         <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J43" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K43" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L43" t="n">
         <v>1.36</v>
@@ -5702,10 +5702,10 @@
         <v>8.5</v>
       </c>
       <c r="AF43" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG43" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH43" t="n">
         <v>29</v>
@@ -5714,7 +5714,7 @@
         <v>26</v>
       </c>
       <c r="AJ43" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44">
@@ -5758,10 +5758,10 @@
         <v>3.8</v>
       </c>
       <c r="J44" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K44" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L44" t="n">
         <v>1.5</v>
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H45" t="n">
         <v>3.8</v>
@@ -5919,10 +5919,10 @@
         <v>8.5</v>
       </c>
       <c r="W45" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X45" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y45" t="n">
         <v>29</v>
@@ -5937,7 +5937,7 @@
         <v>19</v>
       </c>
       <c r="AC45" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD45" t="n">
         <v>351</v>
@@ -5946,7 +5946,7 @@
         <v>13</v>
       </c>
       <c r="AF45" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG45" t="n">
         <v>17</v>
@@ -5993,13 +5993,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="H46" t="n">
         <v>3.45</v>
       </c>
       <c r="I46" t="n">
-        <v>4.05</v>
+        <v>3.95</v>
       </c>
       <c r="J46" t="n">
         <v>1.07</v>
@@ -6008,10 +6008,10 @@
         <v>7</v>
       </c>
       <c r="L46" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M46" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="N46" t="n">
         <v>1.95</v>
@@ -6029,13 +6029,13 @@
         <v>1.87</v>
       </c>
       <c r="S46" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T46" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="U46" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="V46" t="n">
         <v>8.25</v>
@@ -6044,16 +6044,16 @@
         <v>14.5</v>
       </c>
       <c r="X46" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y46" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z46" t="n">
         <v>7</v>
       </c>
       <c r="AA46" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AB46" t="n">
         <v>16</v>
@@ -6065,13 +6065,13 @@
         <v>700</v>
       </c>
       <c r="AE46" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AF46" t="n">
         <v>22</v>
       </c>
       <c r="AG46" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH46" t="n">
         <v>65</v>
@@ -6237,19 +6237,19 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="H48" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I48" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="J48" t="n">
         <v>1.06</v>
       </c>
       <c r="K48" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="L48" t="n">
         <v>1.28</v>
@@ -6258,10 +6258,10 @@
         <v>3.35</v>
       </c>
       <c r="N48" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="O48" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="P48" t="n">
         <v>1.4</v>
@@ -6273,49 +6273,49 @@
         <v>1.65</v>
       </c>
       <c r="S48" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T48" t="n">
         <v>8.75</v>
       </c>
       <c r="U48" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="V48" t="n">
         <v>9.25</v>
       </c>
       <c r="W48" t="n">
+        <v>27</v>
+      </c>
+      <c r="X48" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y48" t="n">
         <v>26</v>
       </c>
-      <c r="X48" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>27</v>
-      </c>
       <c r="Z48" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AA48" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AB48" t="n">
         <v>12.5</v>
       </c>
       <c r="AC48" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD48" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AE48" t="n">
         <v>9.5</v>
       </c>
       <c r="AF48" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG48" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AH48" t="n">
         <v>32</v>
@@ -6395,7 +6395,7 @@
         <v>2.25</v>
       </c>
       <c r="S49" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="T49" t="n">
         <v>5.5</v>
@@ -6514,10 +6514,10 @@
         <v>2.63</v>
       </c>
       <c r="R50" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S50" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="T50" t="n">
         <v>8.5</v>
@@ -6636,10 +6636,10 @@
         <v>2.5</v>
       </c>
       <c r="R51" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="S51" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T51" t="n">
         <v>9</v>
@@ -6737,7 +6737,7 @@
         <v>1.01</v>
       </c>
       <c r="K52" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L52" t="n">
         <v>1.1</v>
@@ -6758,28 +6758,28 @@
         <v>4.33</v>
       </c>
       <c r="R52" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="S52" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="T52" t="n">
         <v>11</v>
       </c>
       <c r="U52" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V52" t="n">
         <v>10</v>
       </c>
       <c r="W52" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X52" t="n">
         <v>10</v>
       </c>
       <c r="Y52" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z52" t="n">
         <v>23</v>
@@ -6788,10 +6788,10 @@
         <v>15</v>
       </c>
       <c r="AB52" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC52" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD52" t="n">
         <v>251</v>
@@ -7096,10 +7096,10 @@
         <v>4.75</v>
       </c>
       <c r="J55" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K55" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L55" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-14.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H2" t="n">
         <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J2" t="n">
         <v>1.04</v>
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
         <v>1.05</v>
@@ -790,10 +790,10 @@
         <v>3.75</v>
       </c>
       <c r="N3" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="P3" t="n">
         <v>1.36</v>
@@ -817,7 +817,7 @@
         <v>9</v>
       </c>
       <c r="W3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X3" t="n">
         <v>13</v>
@@ -829,32 +829,32 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC3" t="n">
         <v>101</v>
       </c>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AI3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AJ3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="H4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="I4" t="n">
         <v>21</v>
@@ -916,10 +916,10 @@
         <v>2.75</v>
       </c>
       <c r="P4" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R4" t="n">
         <v>2.38</v>
@@ -928,13 +928,13 @@
         <v>1.53</v>
       </c>
       <c r="T4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U4" t="n">
         <v>6</v>
       </c>
       <c r="V4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W4" t="n">
         <v>6.5</v>
@@ -961,7 +961,7 @@
         <v>501</v>
       </c>
       <c r="AE4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AF4" t="n">
         <v>81</v>
@@ -970,10 +970,10 @@
         <v>41</v>
       </c>
       <c r="AH4" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AI4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AJ4" t="n">
         <v>101</v>
@@ -1011,31 +1011,31 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="H5" t="n">
         <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="J5" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N5" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O5" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P5" t="n">
         <v>1.44</v>
@@ -1044,25 +1044,25 @@
         <v>2.63</v>
       </c>
       <c r="R5" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S5" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W5" t="n">
         <v>41</v>
       </c>
       <c r="X5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y5" t="n">
         <v>41</v>
@@ -1080,13 +1080,13 @@
         <v>51</v>
       </c>
       <c r="AD5" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG5" t="n">
         <v>9</v>
@@ -1133,31 +1133,31 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
         <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M6" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="N6" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="P6" t="n">
         <v>1.62</v>
@@ -1190,7 +1190,7 @@
         <v>41</v>
       </c>
       <c r="Z6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA6" t="n">
         <v>6</v>
@@ -1258,49 +1258,49 @@
         <v>2.3</v>
       </c>
       <c r="H7" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J7" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="K7" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N7" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="O7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P7" t="n">
         <v>1.57</v>
       </c>
-      <c r="P7" t="n">
-        <v>1.53</v>
-      </c>
       <c r="Q7" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R7" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S7" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="T7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V7" t="n">
         <v>10</v>
-      </c>
-      <c r="V7" t="n">
-        <v>9.5</v>
       </c>
       <c r="W7" t="n">
         <v>21</v>
@@ -1309,22 +1309,22 @@
         <v>21</v>
       </c>
       <c r="Y7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA7" t="n">
         <v>6</v>
       </c>
       <c r="AB7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC7" t="n">
         <v>67</v>
       </c>
       <c r="AD7" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE7" t="n">
         <v>8</v>
@@ -1333,13 +1333,13 @@
         <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI7" t="n">
         <v>34</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>29</v>
       </c>
       <c r="AJ7" t="n">
         <v>41</v>
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H8" t="n">
         <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J8" t="n">
         <v>1.11</v>
@@ -1437,7 +1437,7 @@
         <v>6.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB8" t="n">
         <v>21</v>
@@ -1449,7 +1449,7 @@
         <v>101</v>
       </c>
       <c r="AE8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AF8" t="n">
         <v>9</v>
@@ -1461,7 +1461,7 @@
         <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ8" t="n">
         <v>41</v>
@@ -1621,13 +1621,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H10" t="n">
         <v>2.8</v>
       </c>
       <c r="I10" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
         <v>1.14</v>
@@ -1642,10 +1642,10 @@
         <v>2.2</v>
       </c>
       <c r="N10" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P10" t="n">
         <v>1.67</v>
@@ -1654,10 +1654,10 @@
         <v>2.1</v>
       </c>
       <c r="R10" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S10" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T10" t="n">
         <v>6</v>
@@ -1675,7 +1675,7 @@
         <v>29</v>
       </c>
       <c r="Y10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z10" t="n">
         <v>5.5</v>
@@ -1699,13 +1699,13 @@
         <v>12</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ10" t="n">
         <v>51</v>
@@ -2231,13 +2231,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H15" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I15" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J15" t="n">
         <v>1.07</v>
@@ -2273,10 +2273,10 @@
         <v>6</v>
       </c>
       <c r="U15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W15" t="n">
         <v>11</v>
@@ -2291,7 +2291,7 @@
         <v>8.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB15" t="n">
         <v>21</v>
@@ -2315,7 +2315,7 @@
         <v>67</v>
       </c>
       <c r="AI15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ15" t="n">
         <v>51</v>
@@ -2353,13 +2353,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H16" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="I16" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="J16" t="n">
         <v>1.03</v>
@@ -2380,22 +2380,22 @@
         <v>2.15</v>
       </c>
       <c r="P16" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R16" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S16" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="U16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="V16" t="n">
         <v>41</v>
@@ -2407,16 +2407,16 @@
         <v>101</v>
       </c>
       <c r="Y16" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="Z16" t="n">
         <v>12</v>
       </c>
       <c r="AA16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC16" t="n">
         <v>101</v>
@@ -2431,10 +2431,10 @@
         <v>5.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH16" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI16" t="n">
         <v>12</v>
@@ -2484,10 +2484,10 @@
         <v>3.8</v>
       </c>
       <c r="J17" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L17" t="n">
         <v>1.3</v>
@@ -2496,10 +2496,10 @@
         <v>3.4</v>
       </c>
       <c r="N17" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O17" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P17" t="n">
         <v>1.44</v>
@@ -2606,10 +2606,10 @@
         <v>3.4</v>
       </c>
       <c r="J18" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L18" t="n">
         <v>1.22</v>
@@ -2639,7 +2639,7 @@
         <v>9</v>
       </c>
       <c r="U18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V18" t="n">
         <v>9</v>
@@ -2654,7 +2654,7 @@
         <v>23</v>
       </c>
       <c r="Z18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA18" t="n">
         <v>6.5</v>
@@ -2910,7 +2910,7 @@
         <v>81</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AE20" t="n">
         <v>6.5</v>
@@ -3199,19 +3199,19 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="H23" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I23" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="J23" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L23" t="n">
         <v>1.29</v>
@@ -3220,10 +3220,10 @@
         <v>3.5</v>
       </c>
       <c r="N23" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O23" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P23" t="n">
         <v>1.4</v>
@@ -3232,28 +3232,28 @@
         <v>2.75</v>
       </c>
       <c r="R23" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S23" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U23" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="V23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X23" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y23" t="n">
         <v>34</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>41</v>
       </c>
       <c r="Z23" t="n">
         <v>10</v>
@@ -3268,22 +3268,22 @@
         <v>51</v>
       </c>
       <c r="AD23" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE23" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG23" t="n">
         <v>9</v>
       </c>
       <c r="AH23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI23" t="n">
         <v>17</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>15</v>
       </c>
       <c r="AJ23" t="n">
         <v>26</v>
@@ -3321,19 +3321,19 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="H24" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="J24" t="n">
         <v>1.07</v>
       </c>
       <c r="K24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L24" t="n">
         <v>1.36</v>
@@ -3354,25 +3354,25 @@
         <v>2.63</v>
       </c>
       <c r="R24" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S24" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T24" t="n">
         <v>10</v>
       </c>
       <c r="U24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W24" t="n">
         <v>41</v>
       </c>
       <c r="X24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y24" t="n">
         <v>41</v>
@@ -3396,13 +3396,13 @@
         <v>6.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG24" t="n">
         <v>9</v>
       </c>
       <c r="AH24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI24" t="n">
         <v>17</v>
@@ -3443,19 +3443,19 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H25" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I25" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="J25" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L25" t="n">
         <v>1.33</v>
@@ -3464,10 +3464,10 @@
         <v>3.25</v>
       </c>
       <c r="N25" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O25" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P25" t="n">
         <v>1.44</v>
@@ -3482,10 +3482,10 @@
         <v>1.83</v>
       </c>
       <c r="T25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V25" t="n">
         <v>12</v>
@@ -3494,16 +3494,16 @@
         <v>34</v>
       </c>
       <c r="X25" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y25" t="n">
         <v>41</v>
       </c>
       <c r="Z25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB25" t="n">
         <v>15</v>
@@ -3515,7 +3515,7 @@
         <v>301</v>
       </c>
       <c r="AE25" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF25" t="n">
         <v>10</v>
@@ -3524,7 +3524,7 @@
         <v>9.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI25" t="n">
         <v>19</v>
@@ -3565,37 +3565,37 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H26" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I26" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="J26" t="n">
         <v>1.06</v>
       </c>
       <c r="K26" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L26" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="M26" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N26" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="O26" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="P26" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R26" t="n">
         <v>1.73</v>
@@ -3604,16 +3604,16 @@
         <v>2</v>
       </c>
       <c r="T26" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X26" t="n">
         <v>21</v>
@@ -3622,7 +3622,7 @@
         <v>29</v>
       </c>
       <c r="Z26" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA26" t="n">
         <v>6</v>
@@ -3687,25 +3687,25 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H27" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I27" t="n">
-        <v>5.25</v>
+        <v>4.33</v>
       </c>
       <c r="J27" t="n">
         <v>1.08</v>
       </c>
       <c r="K27" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L27" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N27" t="n">
         <v>2.25</v>
@@ -3729,7 +3729,7 @@
         <v>6</v>
       </c>
       <c r="U27" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V27" t="n">
         <v>9</v>
@@ -3738,16 +3738,16 @@
         <v>13</v>
       </c>
       <c r="X27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y27" t="n">
         <v>34</v>
       </c>
       <c r="Z27" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA27" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB27" t="n">
         <v>19</v>
@@ -3759,13 +3759,13 @@
         <v>101</v>
       </c>
       <c r="AE27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF27" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH27" t="n">
         <v>51</v>
@@ -3809,13 +3809,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H28" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I28" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -3832,10 +3832,10 @@
         <v>3.25</v>
       </c>
       <c r="P28" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>4.15</v>
+        <v>4</v>
       </c>
       <c r="R28" t="n">
         <v>1.29</v>
@@ -3844,13 +3844,13 @@
         <v>3.3</v>
       </c>
       <c r="T28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U28" t="n">
         <v>27</v>
       </c>
       <c r="V28" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="W28" t="n">
         <v>50</v>
@@ -3859,7 +3859,7 @@
         <v>22</v>
       </c>
       <c r="Y28" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Z28" t="n">
         <v>32</v>
@@ -3874,25 +3874,25 @@
         <v>23</v>
       </c>
       <c r="AD28" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AE28" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF28" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG28" t="n">
         <v>9.75</v>
       </c>
       <c r="AH28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI28" t="n">
         <v>13.5</v>
       </c>
       <c r="AJ28" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="29">
@@ -4049,19 +4049,19 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H30" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I30" t="n">
+        <v>13</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K30" t="n">
         <v>9.5</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K30" t="n">
-        <v>11</v>
       </c>
       <c r="L30" t="n">
         <v>1.29</v>
@@ -4070,10 +4070,10 @@
         <v>3.5</v>
       </c>
       <c r="N30" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="O30" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="P30" t="n">
         <v>1.4</v>
@@ -4082,19 +4082,19 @@
         <v>2.75</v>
       </c>
       <c r="R30" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S30" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T30" t="n">
         <v>6</v>
       </c>
       <c r="U30" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="V30" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W30" t="n">
         <v>8</v>
@@ -4106,7 +4106,7 @@
         <v>34</v>
       </c>
       <c r="Z30" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA30" t="n">
         <v>8.5</v>
@@ -4121,10 +4121,10 @@
         <v>501</v>
       </c>
       <c r="AE30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF30" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG30" t="n">
         <v>29</v>
@@ -4136,7 +4136,7 @@
         <v>81</v>
       </c>
       <c r="AJ30" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31">
@@ -4192,10 +4192,10 @@
         <v>3.75</v>
       </c>
       <c r="N31" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="O31" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="P31" t="n">
         <v>1.4</v>
@@ -4299,7 +4299,7 @@
         <v>3.6</v>
       </c>
       <c r="I32" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="J32" t="n">
         <v>1.04</v>
@@ -4356,7 +4356,7 @@
         <v>7.5</v>
       </c>
       <c r="AB32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC32" t="n">
         <v>41</v>
@@ -4365,19 +4365,19 @@
         <v>151</v>
       </c>
       <c r="AE32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF32" t="n">
         <v>23</v>
       </c>
       <c r="AG32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH32" t="n">
         <v>41</v>
       </c>
       <c r="AI32" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ32" t="n">
         <v>34</v>
@@ -4415,10 +4415,10 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H33" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I33" t="n">
         <v>3.9</v>
@@ -4916,10 +4916,10 @@
         <v>3</v>
       </c>
       <c r="N37" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O37" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P37" t="n">
         <v>1.42</v>
@@ -5026,16 +5026,16 @@
         <v>1.8</v>
       </c>
       <c r="J38" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="K38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L38" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="M38" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N38" t="n">
         <v>2.1</v>
@@ -5148,13 +5148,13 @@
         <v>3.2</v>
       </c>
       <c r="J39" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K39" t="n">
         <v>11</v>
       </c>
       <c r="L39" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
@@ -5270,13 +5270,13 @@
         <v>3.3</v>
       </c>
       <c r="J40" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K40" t="n">
         <v>13</v>
       </c>
       <c r="L40" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
@@ -5392,13 +5392,13 @@
         <v>3.9</v>
       </c>
       <c r="J41" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K41" t="n">
         <v>13</v>
       </c>
       <c r="L41" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
@@ -5996,10 +5996,10 @@
         <v>1.8</v>
       </c>
       <c r="H46" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I46" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J46" t="n">
         <v>1.07</v>
@@ -6026,7 +6026,7 @@
         <v>2.6</v>
       </c>
       <c r="R46" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="S46" t="n">
         <v>1.85</v>
@@ -6044,7 +6044,7 @@
         <v>14.5</v>
       </c>
       <c r="X46" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y46" t="n">
         <v>28</v>
@@ -6115,13 +6115,13 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="H47" t="n">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="I47" t="n">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="J47" t="n">
         <v>1.05</v>
@@ -6130,79 +6130,79 @@
         <v>7.6</v>
       </c>
       <c r="L47" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M47" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="N47" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O47" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="P47" t="n">
         <v>1.39</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="R47" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S47" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="T47" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="U47" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="V47" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W47" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X47" t="n">
         <v>12.5</v>
       </c>
       <c r="Y47" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z47" t="n">
         <v>7.6</v>
       </c>
       <c r="AA47" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AB47" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AC47" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AD47" t="n">
         <v>900</v>
       </c>
       <c r="AE47" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF47" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AG47" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH47" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AI47" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AJ47" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48">
@@ -6368,22 +6368,22 @@
         <v>4.1</v>
       </c>
       <c r="J49" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K49" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L49" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M49" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="N49" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="O49" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="P49" t="n">
         <v>1.62</v>
@@ -6481,19 +6481,19 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H50" t="n">
         <v>3.25</v>
       </c>
       <c r="I50" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="J50" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K50" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L50" t="n">
         <v>1.33</v>
@@ -6520,10 +6520,10 @@
         <v>1.95</v>
       </c>
       <c r="T50" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U50" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V50" t="n">
         <v>10</v>
@@ -6538,7 +6538,7 @@
         <v>29</v>
       </c>
       <c r="Z50" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA50" t="n">
         <v>6</v>
@@ -6559,16 +6559,16 @@
         <v>13</v>
       </c>
       <c r="AG50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH50" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI50" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ50" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51">
@@ -6737,7 +6737,7 @@
         <v>1.01</v>
       </c>
       <c r="K52" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L52" t="n">
         <v>1.1</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ55"/>
+  <dimension ref="A1:AJ52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,19 +647,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
         <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="J2" t="n">
         <v>1.04</v>
       </c>
       <c r="K2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L2" t="n">
         <v>1.22</v>
@@ -686,13 +686,13 @@
         <v>2.2</v>
       </c>
       <c r="T2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="V2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W2" t="n">
         <v>21</v>
@@ -704,10 +704,10 @@
         <v>26</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB2" t="n">
         <v>13</v>
@@ -716,22 +716,22 @@
         <v>41</v>
       </c>
       <c r="AD2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH2" t="n">
         <v>41</v>
       </c>
       <c r="AI2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ2" t="n">
         <v>34</v>
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H3" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="J3" t="n">
         <v>1.05</v>
@@ -784,16 +784,16 @@
         <v>11</v>
       </c>
       <c r="L3" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M3" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N3" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="P3" t="n">
         <v>1.36</v>
@@ -802,10 +802,10 @@
         <v>3</v>
       </c>
       <c r="R3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T3" t="n">
         <v>6</v>
@@ -817,7 +817,7 @@
         <v>9</v>
       </c>
       <c r="W3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X3" t="n">
         <v>13</v>
@@ -829,32 +829,32 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AI3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AJ3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
@@ -1020,10 +1020,10 @@
         <v>1.95</v>
       </c>
       <c r="J5" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L5" t="n">
         <v>1.33</v>
@@ -1032,10 +1032,10 @@
         <v>3.25</v>
       </c>
       <c r="N5" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O5" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P5" t="n">
         <v>1.44</v>
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
@@ -1160,19 +1160,19 @@
         <v>1.48</v>
       </c>
       <c r="P6" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S6" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U6" t="n">
         <v>11</v>
@@ -1196,16 +1196,16 @@
         <v>6</v>
       </c>
       <c r="AB6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD6" t="n">
         <v>501</v>
       </c>
       <c r="AE6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF6" t="n">
         <v>13</v>
@@ -1264,10 +1264,10 @@
         <v>3.4</v>
       </c>
       <c r="J7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L7" t="n">
         <v>1.5</v>
@@ -1386,10 +1386,10 @@
         <v>2.25</v>
       </c>
       <c r="J8" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L8" t="n">
         <v>1.5</v>
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H10" t="n">
         <v>2.8</v>
@@ -1669,13 +1669,13 @@
         <v>12</v>
       </c>
       <c r="W10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X10" t="n">
         <v>29</v>
       </c>
       <c r="Y10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Z10" t="n">
         <v>5.5</v>
@@ -1696,7 +1696,7 @@
         <v>6.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG10" t="n">
         <v>13</v>
@@ -1758,16 +1758,16 @@
         <v>7</v>
       </c>
       <c r="L11" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M11" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N11" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P11" t="n">
         <v>1.53</v>
@@ -1874,10 +1874,10 @@
         <v>4.33</v>
       </c>
       <c r="J12" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="K12" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L12" t="n">
         <v>1.67</v>
@@ -1996,10 +1996,10 @@
         <v>9</v>
       </c>
       <c r="J13" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L13" t="n">
         <v>1.14</v>
@@ -2035,7 +2035,7 @@
         <v>9</v>
       </c>
       <c r="W13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X13" t="n">
         <v>11</v>
@@ -2056,7 +2056,7 @@
         <v>51</v>
       </c>
       <c r="AD13" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE13" t="n">
         <v>26</v>
@@ -2080,7 +2080,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>hrTf2F2b</t>
+          <t>zDZtznHb</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2090,119 +2090,119 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE C</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Slavia Sofia</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ypiranga FC</t>
+          <t>Botev Vratsa</t>
         </is>
       </c>
       <c r="G14" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N14" t="n">
         <v>2.1</v>
       </c>
-      <c r="H14" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="K14" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M14" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="N14" t="n">
-        <v>2.25</v>
-      </c>
       <c r="O14" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="P14" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R14" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S14" t="n">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="T14" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="U14" t="n">
-        <v>9.75</v>
+        <v>6.5</v>
       </c>
       <c r="V14" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W14" t="n">
+        <v>11</v>
+      </c>
+      <c r="X14" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB14" t="n">
         <v>21</v>
       </c>
-      <c r="X14" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AC14" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AD14" t="n">
-        <v>600</v>
+        <v>351</v>
       </c>
       <c r="AE14" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AF14" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AG14" t="n">
-        <v>13.5</v>
+        <v>19</v>
       </c>
       <c r="AH14" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AI14" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AJ14" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>zDZtznHb</t>
+          <t>MT5ODe0d</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2212,7 +2212,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2222,109 +2222,109 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Slavia Sofia</t>
+          <t>Hebar</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Botev Vratsa</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.6</v>
+        <v>15</v>
       </c>
       <c r="H15" t="n">
-        <v>3.8</v>
+        <v>6.25</v>
       </c>
       <c r="I15" t="n">
-        <v>6</v>
+        <v>1.2</v>
       </c>
       <c r="J15" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="K15" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="L15" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="M15" t="n">
-        <v>3.25</v>
+        <v>4.33</v>
       </c>
       <c r="N15" t="n">
-        <v>2.1</v>
+        <v>1.67</v>
       </c>
       <c r="O15" t="n">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="P15" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="R15" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="S15" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="T15" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="U15" t="n">
+        <v>67</v>
+      </c>
+      <c r="V15" t="n">
+        <v>41</v>
+      </c>
+      <c r="W15" t="n">
+        <v>201</v>
+      </c>
+      <c r="X15" t="n">
+        <v>101</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>101</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>101</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AE15" t="n">
         <v>6.5</v>
       </c>
-      <c r="V15" t="n">
-        <v>9</v>
-      </c>
-      <c r="W15" t="n">
-        <v>11</v>
-      </c>
-      <c r="X15" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y15" t="n">
+      <c r="AF15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>34</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>351</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MT5ODe0d</t>
+          <t>6RUTEYCc</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2334,119 +2334,119 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>CHILE - LIGA DE PRIMERA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Hebar</t>
+          <t>Palestino</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Union La Calera</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>15</v>
+        <v>1.91</v>
       </c>
       <c r="H16" t="n">
-        <v>6.25</v>
+        <v>3.5</v>
       </c>
       <c r="I16" t="n">
-        <v>1.2</v>
+        <v>3.7</v>
       </c>
       <c r="J16" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="K16" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L16" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="M16" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="N16" t="n">
-        <v>1.67</v>
+        <v>2.05</v>
       </c>
       <c r="O16" t="n">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="P16" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="R16" t="n">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="S16" t="n">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="T16" t="n">
+        <v>7</v>
+      </c>
+      <c r="U16" t="n">
+        <v>9</v>
+      </c>
+      <c r="V16" t="n">
+        <v>9</v>
+      </c>
+      <c r="W16" t="n">
+        <v>17</v>
+      </c>
+      <c r="X16" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y16" t="n">
         <v>29</v>
       </c>
-      <c r="U16" t="n">
-        <v>67</v>
-      </c>
-      <c r="V16" t="n">
+      <c r="Z16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>301</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH16" t="n">
         <v>41</v>
       </c>
-      <c r="W16" t="n">
-        <v>201</v>
-      </c>
-      <c r="X16" t="n">
-        <v>101</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>101</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB16" t="n">
+      <c r="AI16" t="n">
         <v>34</v>
       </c>
-      <c r="AC16" t="n">
-        <v>101</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>12</v>
-      </c>
       <c r="AJ16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6RUTEYCc</t>
+          <t>vwlIhrde</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2466,109 +2466,109 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Palestino</t>
+          <t>U. Espanola</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Union La Calera</t>
+          <t>Nublense</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="H17" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="J17" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L17" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="M17" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N17" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="O17" t="n">
-        <v>1.8</v>
+        <v>2.03</v>
       </c>
       <c r="P17" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="R17" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="S17" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="T17" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U17" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="V17" t="n">
         <v>9</v>
       </c>
       <c r="W17" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="X17" t="n">
         <v>17</v>
       </c>
       <c r="Y17" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Z17" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AA17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AC17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD17" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="AE17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF17" t="n">
         <v>19</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI17" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AJ17" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>vwlIhrde</t>
+          <t>jJnsiVKj</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2588,28 +2588,28 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>U. Espanola</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Nublense</t>
+          <t>Deportes Iquique</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="H18" t="n">
         <v>3.2</v>
       </c>
       <c r="I18" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="J18" t="n">
         <v>1.04</v>
       </c>
       <c r="K18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L18" t="n">
         <v>1.22</v>
@@ -2618,10 +2618,10 @@
         <v>4</v>
       </c>
       <c r="N18" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O18" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P18" t="n">
         <v>1.36</v>
@@ -2630,28 +2630,28 @@
         <v>3</v>
       </c>
       <c r="R18" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S18" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U18" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="V18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z18" t="n">
         <v>12</v>
@@ -2669,28 +2669,28 @@
         <v>151</v>
       </c>
       <c r="AE18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF18" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>26</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>jJnsiVKj</t>
+          <t>nB3VcRbT</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2700,26 +2700,26 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>CHILE - LIGA DE PRIMERA</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Deportes Iquique</t>
+          <t>Ind. Medellin</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H19" t="n">
         <v>3.2</v>
@@ -2728,73 +2728,73 @@
         <v>2.75</v>
       </c>
       <c r="J19" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="K19" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L19" t="n">
-        <v>1.22</v>
+        <v>1.44</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>2.63</v>
       </c>
       <c r="N19" t="n">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="O19" t="n">
-        <v>2.05</v>
+        <v>1.53</v>
       </c>
       <c r="P19" t="n">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="Q19" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="R19" t="n">
-        <v>1.57</v>
+        <v>2.1</v>
       </c>
       <c r="S19" t="n">
-        <v>2.25</v>
+        <v>1.67</v>
       </c>
       <c r="T19" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="U19" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="V19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W19" t="n">
+        <v>26</v>
+      </c>
+      <c r="X19" t="n">
         <v>23</v>
       </c>
-      <c r="X19" t="n">
-        <v>19</v>
-      </c>
       <c r="Y19" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="Z19" t="n">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="AA19" t="n">
         <v>6.5</v>
       </c>
       <c r="AB19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF19" t="n">
         <v>12</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>15</v>
       </c>
       <c r="AG19" t="n">
         <v>11</v>
@@ -2803,16 +2803,16 @@
         <v>29</v>
       </c>
       <c r="AI19" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AJ19" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>nB3VcRbT</t>
+          <t>zTP9kFJN</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2822,119 +2822,119 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Mushuc Runa</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Ind. Medellin</t>
+          <t>LDU Quito</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="H20" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I20" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="J20" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K20" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L20" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="M20" t="n">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="N20" t="n">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="O20" t="n">
-        <v>1.53</v>
+        <v>1.85</v>
       </c>
       <c r="P20" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="R20" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="S20" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="T20" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="U20" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="V20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W20" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="X20" t="n">
         <v>26</v>
       </c>
       <c r="Y20" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z20" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AA20" t="n">
         <v>6.5</v>
       </c>
       <c r="AB20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH20" t="n">
         <v>19</v>
       </c>
-      <c r="AC20" t="n">
-        <v>81</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>29</v>
-      </c>
       <c r="AI20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>26</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>nmaFB5Db</t>
+          <t>AsGK7dZi</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2944,115 +2944,119 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA B</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Atletico F.C.</t>
+          <t>EL Nacional</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Real Santander</t>
+          <t>Ind. del Valle</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.67</v>
+        <v>4.2</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1.85</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K21" t="n">
+        <v>10</v>
+      </c>
       <c r="L21" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M21" t="n">
-        <v>2.67</v>
+        <v>3.25</v>
       </c>
       <c r="N21" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O21" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="P21" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.32</v>
+        <v>2.63</v>
       </c>
       <c r="R21" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S21" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="T21" t="n">
-        <v>7.9</v>
+        <v>10</v>
       </c>
       <c r="U21" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="V21" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="W21" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="X21" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="Y21" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="Z21" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AC21" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AD21" t="n">
-        <v>600</v>
+        <v>351</v>
       </c>
       <c r="AE21" t="n">
-        <v>7.6</v>
+        <v>6.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AG21" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AH21" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AI21" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AJ21" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>lCeW7NCN</t>
+          <t>v1W0iykB</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3062,115 +3066,119 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA B</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Tigres</t>
+          <t>Orense</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Barcelona SC</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.78</v>
+        <v>3.2</v>
       </c>
       <c r="H22" t="n">
         <v>3.2</v>
       </c>
       <c r="I22" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>2.25</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K22" t="n">
+        <v>9</v>
+      </c>
       <c r="L22" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P22" t="n">
         <v>1.44</v>
       </c>
-      <c r="M22" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="N22" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.52</v>
-      </c>
       <c r="Q22" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="R22" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="S22" t="n">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="T22" t="n">
-        <v>5.2</v>
+        <v>9</v>
       </c>
       <c r="U22" t="n">
-        <v>7.1</v>
+        <v>15</v>
       </c>
       <c r="V22" t="n">
-        <v>8.75</v>
+        <v>12</v>
       </c>
       <c r="W22" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="X22" t="n">
-        <v>17.5</v>
+        <v>26</v>
       </c>
       <c r="Y22" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z22" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AB22" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AC22" t="n">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="AD22" t="n">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="AE22" t="n">
-        <v>9.75</v>
+        <v>7.5</v>
       </c>
       <c r="AF22" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="AG22" t="n">
-        <v>16</v>
+        <v>9.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="AI22" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="AJ22" t="n">
-        <v>70</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>zTP9kFJN</t>
+          <t>xWS0tFJt</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3185,27 +3193,27 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Mushuc Runa</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>LDU Quito</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="H23" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I23" t="n">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="J23" t="n">
         <v>1.06</v>
@@ -3217,13 +3225,13 @@
         <v>1.29</v>
       </c>
       <c r="M23" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N23" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O23" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="P23" t="n">
         <v>1.4</v>
@@ -3238,61 +3246,61 @@
         <v>2</v>
       </c>
       <c r="T23" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W23" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X23" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Y23" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z23" t="n">
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC23" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD23" t="n">
         <v>201</v>
       </c>
       <c r="AE23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG23" t="n">
         <v>10</v>
       </c>
-      <c r="AG23" t="n">
-        <v>9</v>
-      </c>
       <c r="AH23" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AI23" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AJ23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>AsGK7dZi</t>
+          <t>044rf6sB</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3302,119 +3310,119 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>EL Nacional</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Ind. del Valle</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4.2</v>
+        <v>1.75</v>
       </c>
       <c r="H24" t="n">
         <v>3.4</v>
       </c>
       <c r="I24" t="n">
-        <v>1.85</v>
+        <v>4.33</v>
       </c>
       <c r="J24" t="n">
         <v>1.07</v>
       </c>
       <c r="K24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L24" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N24" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O24" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S24" t="n">
         <v>1.67</v>
       </c>
-      <c r="P24" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.73</v>
-      </c>
       <c r="T24" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U24" t="n">
-        <v>21</v>
+        <v>7.5</v>
       </c>
       <c r="V24" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="W24" t="n">
+        <v>13</v>
+      </c>
+      <c r="X24" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI24" t="n">
         <v>41</v>
       </c>
-      <c r="X24" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC24" t="n">
+      <c r="AJ24" t="n">
         <v>51</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>351</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>v1W0iykB</t>
+          <t>bgDgUXCl</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3424,119 +3432,115 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>ICELAND - BESTA DEILD KARLA</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Orense</t>
+          <t>KR Reykjavik</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Barcelona SC</t>
+          <t>Valur</t>
         </is>
       </c>
       <c r="G25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="M25" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="O25" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S25" t="n">
         <v>3.2</v>
       </c>
-      <c r="H25" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K25" t="n">
-        <v>9</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M25" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="N25" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.83</v>
-      </c>
       <c r="T25" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="U25" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="V25" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="W25" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="X25" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y25" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="Z25" t="n">
-        <v>8.5</v>
+        <v>30</v>
       </c>
       <c r="AA25" t="n">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>15</v>
+        <v>10.25</v>
       </c>
       <c r="AC25" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="AD25" t="n">
-        <v>301</v>
+        <v>90</v>
       </c>
       <c r="AE25" t="n">
-        <v>7.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF25" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AG25" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AH25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI25" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AJ25" t="n">
-        <v>29</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>xWS0tFJt</t>
+          <t>K812SBs1</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3546,119 +3550,119 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>ICELAND - BESTA DEILD KARLA</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Stjarnan</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Akranes</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.8</v>
+        <v>1.91</v>
       </c>
       <c r="H26" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="I26" t="n">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="J26" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="K26" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L26" t="n">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="M26" t="n">
-        <v>3.75</v>
+        <v>4.9</v>
       </c>
       <c r="N26" t="n">
-        <v>1.93</v>
+        <v>1.44</v>
       </c>
       <c r="O26" t="n">
-        <v>1.93</v>
+        <v>2.6</v>
       </c>
       <c r="P26" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R26" t="n">
         <v>1.4</v>
       </c>
-      <c r="Q26" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.73</v>
-      </c>
       <c r="S26" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="T26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="U26" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W26" t="n">
+        <v>20</v>
+      </c>
+      <c r="X26" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z26" t="n">
         <v>9.5</v>
       </c>
-      <c r="U26" t="n">
-        <v>15</v>
-      </c>
-      <c r="V26" t="n">
-        <v>11</v>
-      </c>
-      <c r="W26" t="n">
-        <v>29</v>
-      </c>
-      <c r="X26" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>10</v>
-      </c>
       <c r="AA26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB26" t="n">
-        <v>13</v>
+        <v>10.75</v>
       </c>
       <c r="AC26" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="AD26" t="n">
-        <v>201</v>
+        <v>150</v>
       </c>
       <c r="AE26" t="n">
-        <v>9</v>
+        <v>16.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="AG26" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AH26" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI26" t="n">
         <v>26</v>
       </c>
-      <c r="AI26" t="n">
-        <v>21</v>
-      </c>
       <c r="AJ26" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>044rf6sB</t>
+          <t>8bFYtsbn</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3668,119 +3672,119 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 2</t>
+          <t>IRELAND - PREMIER DIVISION</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>Cork City</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="H27" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="I27" t="n">
-        <v>4.33</v>
+        <v>13</v>
       </c>
       <c r="J27" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K27" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L27" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="P27" t="n">
         <v>1.4</v>
       </c>
-      <c r="M27" t="n">
+      <c r="Q27" t="n">
         <v>2.75</v>
       </c>
-      <c r="N27" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="O27" t="n">
+      <c r="R27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S27" t="n">
         <v>1.62</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R27" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.67</v>
       </c>
       <c r="T27" t="n">
         <v>6</v>
       </c>
       <c r="U27" t="n">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="V27" t="n">
         <v>9</v>
       </c>
       <c r="W27" t="n">
+        <v>8</v>
+      </c>
+      <c r="X27" t="n">
         <v>13</v>
-      </c>
-      <c r="X27" t="n">
-        <v>17</v>
       </c>
       <c r="Y27" t="n">
         <v>34</v>
       </c>
       <c r="Z27" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AC27" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD27" t="n">
-        <v>101</v>
+        <v>501</v>
       </c>
       <c r="AE27" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AF27" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AG27" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AH27" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AI27" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ27" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>bgDgUXCl</t>
+          <t>fT68f4np</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3790,115 +3794,119 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>ICELAND - BESTA DEILD KARLA</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>KR Reykjavik</t>
+          <t>Netanya</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Valur</t>
+          <t>Hapoel Haifa</t>
         </is>
       </c>
       <c r="G28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H28" t="n">
         <v>3.1</v>
       </c>
-      <c r="H28" t="n">
-        <v>3.9</v>
-      </c>
       <c r="I28" t="n">
-        <v>2</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>3.1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K28" t="n">
+        <v>11</v>
+      </c>
       <c r="L28" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="M28" t="n">
-        <v>6.2</v>
+        <v>3.75</v>
       </c>
       <c r="N28" t="n">
-        <v>1.29</v>
+        <v>1.9</v>
       </c>
       <c r="O28" t="n">
-        <v>3.25</v>
+        <v>1.95</v>
       </c>
       <c r="P28" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="R28" t="n">
-        <v>1.29</v>
+        <v>1.67</v>
       </c>
       <c r="S28" t="n">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="T28" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="U28" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="V28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W28" t="n">
+        <v>21</v>
+      </c>
+      <c r="X28" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB28" t="n">
         <v>12</v>
       </c>
-      <c r="W28" t="n">
-        <v>50</v>
-      </c>
-      <c r="X28" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>10.25</v>
-      </c>
       <c r="AC28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI28" t="n">
         <v>23</v>
       </c>
-      <c r="AD28" t="n">
-        <v>80</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AJ28" t="n">
-        <v>14.5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>K812SBs1</t>
+          <t>St5GhrHd</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3908,119 +3916,119 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ICELAND - BESTA DEILD KARLA</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Stjarnan</t>
+          <t>H. Beer Sheva</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Akranes</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="H29" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I29" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="J29" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K29" t="n">
+        <v>13</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U29" t="n">
         <v>9.5</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="M29" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="N29" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="O29" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S29" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="T29" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="U29" t="n">
-        <v>13.5</v>
       </c>
       <c r="V29" t="n">
         <v>8.5</v>
       </c>
       <c r="W29" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="X29" t="n">
         <v>13</v>
       </c>
       <c r="Y29" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="Z29" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AA29" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>10.75</v>
+        <v>13</v>
       </c>
       <c r="AC29" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="AD29" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AE29" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AF29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG29" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AH29" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AI29" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AJ29" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>8bFYtsbn</t>
+          <t>pIZ00fz3</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4030,119 +4038,119 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>IRELAND - PREMIER DIVISION</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Cork City</t>
+          <t>Maccabi Haifa</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="I30" t="n">
-        <v>13</v>
+        <v>3.9</v>
       </c>
       <c r="J30" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="K30" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="L30" t="n">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="M30" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="N30" t="n">
-        <v>1.87</v>
+        <v>1.5</v>
       </c>
       <c r="O30" t="n">
-        <v>1.87</v>
+        <v>2.5</v>
       </c>
       <c r="P30" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="R30" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="S30" t="n">
-        <v>1.62</v>
+        <v>2.5</v>
       </c>
       <c r="T30" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="U30" t="n">
-        <v>4.75</v>
+        <v>11</v>
       </c>
       <c r="V30" t="n">
         <v>9</v>
       </c>
       <c r="W30" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="X30" t="n">
         <v>13</v>
       </c>
       <c r="Y30" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC30" t="n">
         <v>34</v>
       </c>
-      <c r="Z30" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>81</v>
-      </c>
       <c r="AD30" t="n">
-        <v>501</v>
+        <v>101</v>
       </c>
       <c r="AE30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF30" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="AG30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI30" t="n">
         <v>29</v>
       </c>
-      <c r="AH30" t="n">
-        <v>126</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>81</v>
-      </c>
       <c r="AJ30" t="n">
-        <v>81</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>fT68f4np</t>
+          <t>GjBJtz7t</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4152,119 +4160,119 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>ITALY - SERIE C</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Netanya</t>
+          <t>Carpi</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>Legnago Salus</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.2</v>
+        <v>1.93</v>
       </c>
       <c r="H31" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I31" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="J31" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K31" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="L31" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="M31" t="n">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N31" t="n">
-        <v>1.84</v>
+        <v>2.12</v>
       </c>
       <c r="O31" t="n">
-        <v>1.89</v>
+        <v>1.65</v>
       </c>
       <c r="P31" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.75</v>
+        <v>2.42</v>
       </c>
       <c r="R31" t="n">
-        <v>1.67</v>
+        <v>1.93</v>
       </c>
       <c r="S31" t="n">
-        <v>2.1</v>
+        <v>1.78</v>
       </c>
       <c r="T31" t="n">
-        <v>9</v>
+        <v>6.3</v>
       </c>
       <c r="U31" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="V31" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W31" t="n">
+        <v>17</v>
+      </c>
+      <c r="X31" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>800</v>
+      </c>
+      <c r="AE31" t="n">
         <v>9.5</v>
       </c>
-      <c r="W31" t="n">
-        <v>21</v>
-      </c>
-      <c r="X31" t="n">
+      <c r="AF31" t="n">
         <v>19</v>
       </c>
-      <c r="Y31" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>17</v>
-      </c>
       <c r="AG31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH31" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AI31" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="AJ31" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>St5GhrHd</t>
+          <t>0nyABANi</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4274,119 +4282,119 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>ITALY - SERIE C</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>H. Beer Sheva</t>
+          <t>Crotone</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Foggia</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.73</v>
+        <v>1.38</v>
       </c>
       <c r="H32" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="I32" t="n">
-        <v>4.2</v>
+        <v>7.6</v>
       </c>
       <c r="J32" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K32" t="n">
-        <v>13</v>
+        <v>7.2</v>
       </c>
       <c r="L32" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="M32" t="n">
-        <v>4.33</v>
+        <v>3.15</v>
       </c>
       <c r="N32" t="n">
-        <v>1.7</v>
+        <v>1.93</v>
       </c>
       <c r="O32" t="n">
-        <v>2.1</v>
+        <v>1.78</v>
       </c>
       <c r="P32" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="Q32" t="n">
-        <v>3.25</v>
+        <v>2.65</v>
       </c>
       <c r="R32" t="n">
-        <v>1.67</v>
+        <v>2.25</v>
       </c>
       <c r="S32" t="n">
-        <v>2.1</v>
+        <v>1.57</v>
       </c>
       <c r="T32" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="U32" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="V32" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W32" t="n">
         <v>8.5</v>
       </c>
-      <c r="U32" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="V32" t="n">
+      <c r="X32" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AA32" t="n">
         <v>8.5</v>
       </c>
-      <c r="W32" t="n">
-        <v>15</v>
-      </c>
-      <c r="X32" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AB32" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="AC32" t="n">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="AD32" t="n">
-        <v>151</v>
+        <v>1000</v>
       </c>
       <c r="AE32" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AF32" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="AG32" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AH32" t="n">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="AI32" t="n">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="AJ32" t="n">
-        <v>34</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>pIZ00fz3</t>
+          <t>xlKdN6ht</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4396,119 +4404,111 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>FK Liepaja</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>Jelgava</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="H33" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I33" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M33" t="n">
         <v>3.7</v>
       </c>
-      <c r="I33" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K33" t="n">
-        <v>17</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="M33" t="n">
-        <v>5.5</v>
-      </c>
       <c r="N33" t="n">
-        <v>1.5</v>
+        <v>1.72</v>
       </c>
       <c r="O33" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>3.75</v>
-      </c>
+        <v>1.9</v>
+      </c>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
       <c r="R33" t="n">
-        <v>1.5</v>
+        <v>1.77</v>
       </c>
       <c r="S33" t="n">
-        <v>2.5</v>
+        <v>1.94</v>
       </c>
       <c r="T33" t="n">
-        <v>11</v>
+        <v>6.3</v>
       </c>
       <c r="U33" t="n">
-        <v>11</v>
+        <v>6.7</v>
       </c>
       <c r="V33" t="n">
-        <v>9</v>
+        <v>6.9</v>
       </c>
       <c r="W33" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="X33" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB33" t="n">
         <v>13</v>
       </c>
-      <c r="Y33" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>12</v>
-      </c>
       <c r="AC33" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AD33" t="n">
-        <v>101</v>
+        <v>350</v>
       </c>
       <c r="AE33" t="n">
-        <v>19</v>
+        <v>11.25</v>
       </c>
       <c r="AF33" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AG33" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="AI33" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AJ33" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>GjBJtz7t</t>
+          <t>t05oIAqd</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4518,119 +4518,119 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>ITALY - SERIE C</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Carpi</t>
+          <t>Moghreb Tetouan</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Legnago Salus</t>
+          <t>IR Tanger</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.93</v>
+        <v>2.88</v>
       </c>
       <c r="H34" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I34" t="n">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="J34" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="K34" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="L34" t="n">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
       <c r="M34" t="n">
-        <v>2.77</v>
+        <v>2.92</v>
       </c>
       <c r="N34" t="n">
-        <v>2.15</v>
+        <v>2.03</v>
       </c>
       <c r="O34" t="n">
-        <v>1.62</v>
+        <v>1.78</v>
       </c>
       <c r="P34" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q34" t="n">
         <v>2.42</v>
       </c>
       <c r="R34" t="n">
-        <v>1.93</v>
+        <v>1.7</v>
       </c>
       <c r="S34" t="n">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="T34" t="n">
-        <v>6.1</v>
+        <v>9.5</v>
       </c>
       <c r="U34" t="n">
-        <v>8.25</v>
+        <v>15</v>
       </c>
       <c r="V34" t="n">
-        <v>8.75</v>
+        <v>11</v>
       </c>
       <c r="W34" t="n">
-        <v>16.5</v>
+        <v>34</v>
       </c>
       <c r="X34" t="n">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="Y34" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Z34" t="n">
-        <v>6.4</v>
+        <v>10</v>
       </c>
       <c r="AA34" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AC34" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AD34" t="n">
-        <v>800</v>
+        <v>201</v>
       </c>
       <c r="AE34" t="n">
-        <v>9.75</v>
+        <v>8</v>
       </c>
       <c r="AF34" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AG34" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="AI34" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="AJ34" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>0nyABANi</t>
+          <t>67QxdaqA</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4640,119 +4640,119 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>ITALY - SERIE C</t>
+          <t>PARAGUAY - COPA DE PRIMERA</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Crotone</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Foggia</t>
+          <t>Libertad Asuncion</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.38</v>
+        <v>4.33</v>
       </c>
       <c r="H35" t="n">
-        <v>4.15</v>
+        <v>3.5</v>
       </c>
       <c r="I35" t="n">
-        <v>7.5</v>
+        <v>1.8</v>
       </c>
       <c r="J35" t="n">
         <v>1.06</v>
       </c>
       <c r="K35" t="n">
-        <v>7.2</v>
+        <v>10</v>
       </c>
       <c r="L35" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="M35" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N35" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="O35" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="P35" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="R35" t="n">
-        <v>2.27</v>
+        <v>2</v>
       </c>
       <c r="S35" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="T35" t="n">
-        <v>5.6</v>
+        <v>11</v>
       </c>
       <c r="U35" t="n">
-        <v>5.7</v>
+        <v>21</v>
       </c>
       <c r="V35" t="n">
-        <v>8.75</v>
+        <v>15</v>
       </c>
       <c r="W35" t="n">
-        <v>8.25</v>
+        <v>51</v>
       </c>
       <c r="X35" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="Y35" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="Z35" t="n">
-        <v>7.2</v>
+        <v>9</v>
       </c>
       <c r="AA35" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AB35" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AC35" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="AD35" t="n">
         <v>1000</v>
       </c>
       <c r="AE35" t="n">
-        <v>16</v>
+        <v>6.5</v>
       </c>
       <c r="AF35" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="AG35" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="AH35" t="n">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="AI35" t="n">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="AJ35" t="n">
-        <v>110</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>xlKdN6ht</t>
+          <t>AJejQd23</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4762,111 +4762,119 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>FK Liepaja</t>
+          <t>Deportivo Garcilaso</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Jelgava</t>
+          <t>Alianza Lima</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.5</v>
+        <v>2.45</v>
       </c>
       <c r="H36" t="n">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="I36" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+        <v>3.2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K36" t="n">
+        <v>10</v>
+      </c>
       <c r="L36" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="M36" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="N36" t="n">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="O36" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
+        <v>1.85</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.75</v>
+      </c>
       <c r="R36" t="n">
-        <v>1.84</v>
+        <v>1.67</v>
       </c>
       <c r="S36" t="n">
-        <v>1.86</v>
+        <v>2.1</v>
       </c>
       <c r="T36" t="n">
-        <v>6.2</v>
+        <v>9</v>
       </c>
       <c r="U36" t="n">
-        <v>6.3</v>
+        <v>12</v>
       </c>
       <c r="V36" t="n">
-        <v>6.9</v>
+        <v>10</v>
       </c>
       <c r="W36" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="X36" t="n">
-        <v>9.75</v>
+        <v>19</v>
       </c>
       <c r="Y36" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="Z36" t="n">
-        <v>11.75</v>
+        <v>9.5</v>
       </c>
       <c r="AA36" t="n">
-        <v>6.8</v>
+        <v>5.5</v>
       </c>
       <c r="AB36" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AC36" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AD36" t="n">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="AE36" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AF36" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="AG36" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH36" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AI36" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AJ36" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>t05oIAqd</t>
+          <t>6Tii3lXh</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4881,105 +4889,105 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Moghreb Tetouan</t>
+          <t>Lechia Gdansk</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>IR Tanger</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.88</v>
+        <v>2.15</v>
       </c>
       <c r="H37" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I37" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="J37" t="n">
-        <v>1.12</v>
+        <v>1.04</v>
       </c>
       <c r="K37" t="n">
-        <v>5.8</v>
+        <v>13</v>
       </c>
       <c r="L37" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O37" t="n">
+        <v>2</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q37" t="n">
         <v>3</v>
       </c>
-      <c r="N37" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2.45</v>
-      </c>
       <c r="R37" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S37" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="T37" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U37" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="V37" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="W37" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="X37" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y37" t="n">
         <v>23</v>
       </c>
-      <c r="Y37" t="n">
-        <v>34</v>
-      </c>
       <c r="Z37" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AA37" t="n">
         <v>6.5</v>
       </c>
       <c r="AB37" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC37" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD37" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE37" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AF37" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AG37" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AH37" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AI37" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AJ37" t="n">
         <v>29</v>
@@ -4988,7 +4996,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>67QxdaqA</t>
+          <t>Q3FiWB2m</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4998,119 +5006,119 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>PARAGUAY - COPA DE PRIMERA</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Termalica B-B.</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Libertad Asuncion</t>
+          <t>Polonia Warszawa</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4.33</v>
+        <v>1.85</v>
       </c>
       <c r="H38" t="n">
         <v>3.5</v>
       </c>
       <c r="I38" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="J38" t="n">
         <v>1.04</v>
       </c>
       <c r="K38" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L38" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="M38" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="N38" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="O38" t="n">
-        <v>1.7</v>
+        <v>2.03</v>
       </c>
       <c r="P38" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="R38" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S38" t="n">
         <v>2</v>
       </c>
-      <c r="S38" t="n">
-        <v>1.73</v>
-      </c>
       <c r="T38" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="U38" t="n">
-        <v>21</v>
+        <v>9.5</v>
       </c>
       <c r="V38" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W38" t="n">
         <v>15</v>
       </c>
-      <c r="W38" t="n">
-        <v>51</v>
-      </c>
       <c r="X38" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="Y38" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="Z38" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AA38" t="n">
         <v>7</v>
       </c>
       <c r="AB38" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AC38" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD38" t="n">
-        <v>1000</v>
+        <v>201</v>
       </c>
       <c r="AE38" t="n">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="AF38" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AG38" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AH38" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AI38" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AJ38" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>AJejQd23</t>
+          <t>fVRZDUnJ</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5120,89 +5128,89 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Deportivo Garcilaso</t>
+          <t>Tychy</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Alianza Lima</t>
+          <t>S. Rzeszow</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="H39" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="I39" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="J39" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K39" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L39" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="O39" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="P39" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q39" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R39" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S39" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T39" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="U39" t="n">
+        <v>9</v>
+      </c>
+      <c r="V39" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W39" t="n">
+        <v>15</v>
+      </c>
+      <c r="X39" t="n">
         <v>13</v>
       </c>
-      <c r="V39" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W39" t="n">
+      <c r="Y39" t="n">
         <v>23</v>
       </c>
-      <c r="X39" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>26</v>
-      </c>
       <c r="Z39" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA39" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB39" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AC39" t="n">
         <v>41</v>
@@ -5211,28 +5219,28 @@
         <v>151</v>
       </c>
       <c r="AE39" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AF39" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AG39" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AH39" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI39" t="n">
         <v>34</v>
       </c>
-      <c r="AI39" t="n">
-        <v>23</v>
-      </c>
       <c r="AJ39" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>6Tii3lXh</t>
+          <t>bXkwo314</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5242,119 +5250,119 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Lechia Gdansk</t>
+          <t>Mafra</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>Penafiel</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="H40" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="I40" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="J40" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="K40" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L40" t="n">
-        <v>1.19</v>
+        <v>1.36</v>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N40" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="O40" t="n">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="P40" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="Q40" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="R40" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="S40" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="T40" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="U40" t="n">
         <v>11</v>
       </c>
       <c r="V40" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W40" t="n">
+        <v>23</v>
+      </c>
+      <c r="X40" t="n">
         <v>21</v>
       </c>
-      <c r="X40" t="n">
-        <v>17</v>
-      </c>
       <c r="Y40" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="Z40" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AA40" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB40" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC40" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD40" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="AE40" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AF40" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG40" t="n">
         <v>12</v>
       </c>
       <c r="AH40" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI40" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ40" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Q3FiWB2m</t>
+          <t>M1sA2Lk5</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5364,119 +5372,119 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>ROMANIA - SUPERLIGA</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Termalica B-B.</t>
+          <t>FC Botosani</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Polonia Warszawa</t>
+          <t>Otelul</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="H41" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="I41" t="n">
         <v>3.9</v>
       </c>
       <c r="J41" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="K41" t="n">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="L41" t="n">
-        <v>1.19</v>
+        <v>1.5</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N41" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="O41" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="P41" t="n">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="Q41" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="R41" t="n">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="S41" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="T41" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="U41" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V41" t="n">
         <v>9.5</v>
       </c>
-      <c r="V41" t="n">
+      <c r="W41" t="n">
+        <v>19</v>
+      </c>
+      <c r="X41" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>800</v>
+      </c>
+      <c r="AE41" t="n">
         <v>8.5</v>
       </c>
-      <c r="W41" t="n">
+      <c r="AF41" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG41" t="n">
         <v>15</v>
-      </c>
-      <c r="X41" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>13</v>
       </c>
       <c r="AH41" t="n">
         <v>41</v>
       </c>
       <c r="AI41" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AJ41" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>fVRZDUnJ</t>
+          <t>YP8E6pat</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -5486,119 +5494,119 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>ROMANIA - SUPERLIGA</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Tychy</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>S. Rzeszow</t>
+          <t>FC Rapid Bucuresti</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="H42" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="I42" t="n">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="J42" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K42" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="L42" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N42" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R42" t="n">
+        <v>2</v>
+      </c>
+      <c r="S42" t="n">
         <v>1.73</v>
       </c>
-      <c r="O42" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="P42" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S42" t="n">
-        <v>2.1</v>
-      </c>
       <c r="T42" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="U42" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="V42" t="n">
         <v>8.5</v>
       </c>
       <c r="W42" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="X42" t="n">
         <v>13</v>
       </c>
       <c r="Y42" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Z42" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>351</v>
+      </c>
+      <c r="AE42" t="n">
         <v>13</v>
       </c>
-      <c r="AA42" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC42" t="n">
+      <c r="AF42" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI42" t="n">
         <v>41</v>
       </c>
-      <c r="AD42" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>34</v>
-      </c>
       <c r="AJ42" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>bXkwo314</t>
+          <t>CjhNyaBk</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -5608,119 +5616,119 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Mafra</t>
+          <t>Napredak</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Penafiel</t>
+          <t>Tekstilac Odzaci</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.35</v>
+        <v>1.78</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="I43" t="n">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="J43" t="n">
         <v>1.07</v>
       </c>
       <c r="K43" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L43" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="M43" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N43" t="n">
-        <v>2.2</v>
+        <v>1.93</v>
       </c>
       <c r="O43" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="P43" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R43" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S43" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T43" t="n">
-        <v>7.5</v>
+        <v>6.7</v>
       </c>
       <c r="U43" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="V43" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W43" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="X43" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>700</v>
+      </c>
+      <c r="AE43" t="n">
         <v>11</v>
       </c>
-      <c r="V43" t="n">
-        <v>10</v>
-      </c>
-      <c r="W43" t="n">
+      <c r="AF43" t="n">
         <v>23</v>
       </c>
-      <c r="X43" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>301</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>15</v>
-      </c>
       <c r="AG43" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AH43" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="AI43" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="AJ43" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>M1sA2Lk5</t>
+          <t>8IoWZxt2</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -5730,119 +5738,119 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>ROMANIA - SUPERLIGA</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>FC Botosani</t>
+          <t>Zeleznicar Pancevo</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Otelul</t>
+          <t>Jedinstvo U.</t>
         </is>
       </c>
       <c r="G44" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H44" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="I44" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K44" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R44" t="n">
         <v>2.1</v>
       </c>
-      <c r="H44" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="K44" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="L44" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M44" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N44" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P44" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R44" t="n">
-        <v>2.2</v>
-      </c>
       <c r="S44" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T44" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="U44" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="V44" t="n">
         <v>8.5</v>
       </c>
-      <c r="V44" t="n">
-        <v>9.5</v>
-      </c>
       <c r="W44" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="X44" t="n">
-        <v>21</v>
+        <v>12.5</v>
       </c>
       <c r="Y44" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="Z44" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA44" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AB44" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AC44" t="n">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="AD44" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE44" t="n">
-        <v>8.5</v>
+        <v>16</v>
       </c>
       <c r="AF44" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="AG44" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AH44" t="n">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="AI44" t="n">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="AJ44" t="n">
-        <v>51</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>YP8E6pat</t>
+          <t>EBEb8xf2</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -5852,119 +5860,119 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>ROMANIA - SUPERLIGA</t>
+          <t>SLOVENIA - PRVA LIGA</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Domzale</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>FC Rapid Bucuresti</t>
+          <t>Radomlje</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.62</v>
+        <v>2.47</v>
       </c>
       <c r="H45" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="I45" t="n">
-        <v>5.5</v>
+        <v>2.77</v>
       </c>
       <c r="J45" t="n">
         <v>1.06</v>
       </c>
       <c r="K45" t="n">
-        <v>9.5</v>
+        <v>7.3</v>
       </c>
       <c r="L45" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="M45" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="N45" t="n">
-        <v>2.03</v>
+        <v>1.83</v>
       </c>
       <c r="O45" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="P45" t="n">
         <v>1.4</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="R45" t="n">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="S45" t="n">
-        <v>1.73</v>
+        <v>2.12</v>
       </c>
       <c r="T45" t="n">
-        <v>6.5</v>
+        <v>8.75</v>
       </c>
       <c r="U45" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="V45" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="W45" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="X45" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>350</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF45" t="n">
         <v>15</v>
       </c>
-      <c r="Y45" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>351</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>26</v>
-      </c>
       <c r="AG45" t="n">
-        <v>17</v>
+        <v>9.75</v>
       </c>
       <c r="AH45" t="n">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="AI45" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="AJ45" t="n">
-        <v>51</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CjhNyaBk</t>
+          <t>0SUa5CM6</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -5974,119 +5982,119 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Napredak</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Tekstilac Odzaci</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H46" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I46" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J46" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="K46" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L46" t="n">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="M46" t="n">
-        <v>3.05</v>
+        <v>2.38</v>
       </c>
       <c r="N46" t="n">
-        <v>1.95</v>
+        <v>2.7</v>
       </c>
       <c r="O46" t="n">
-        <v>1.75</v>
+        <v>1.44</v>
       </c>
       <c r="P46" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="R46" t="n">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="S46" t="n">
-        <v>1.85</v>
+        <v>1.57</v>
       </c>
       <c r="T46" t="n">
-        <v>6.7</v>
+        <v>5.5</v>
       </c>
       <c r="U46" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="V46" t="n">
-        <v>8.25</v>
+        <v>10</v>
       </c>
       <c r="W46" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="X46" t="n">
-        <v>14.5</v>
+        <v>21</v>
       </c>
       <c r="Y46" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="Z46" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA46" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AB46" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AC46" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD46" t="n">
-        <v>700</v>
+        <v>101</v>
       </c>
       <c r="AE46" t="n">
-        <v>10.75</v>
+        <v>8.5</v>
       </c>
       <c r="AF46" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AG46" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AH46" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AI46" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AJ46" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>8IoWZxt2</t>
+          <t>zqnU8cEM</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6096,119 +6104,119 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Zeleznicar Pancevo</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Jedinstvo U.</t>
+          <t>Oster</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.42</v>
+        <v>2.55</v>
       </c>
       <c r="H47" t="n">
-        <v>4.15</v>
+        <v>3.25</v>
       </c>
       <c r="I47" t="n">
-        <v>6.4</v>
+        <v>2.75</v>
       </c>
       <c r="J47" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K47" t="n">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="L47" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="M47" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="N47" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="O47" t="n">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="P47" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.77</v>
+        <v>2.63</v>
       </c>
       <c r="R47" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="S47" t="n">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="T47" t="n">
-        <v>6.2</v>
+        <v>8</v>
       </c>
       <c r="U47" t="n">
-        <v>6.2</v>
+        <v>12</v>
       </c>
       <c r="V47" t="n">
+        <v>10</v>
+      </c>
+      <c r="W47" t="n">
+        <v>26</v>
+      </c>
+      <c r="X47" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE47" t="n">
         <v>8.5</v>
       </c>
-      <c r="W47" t="n">
-        <v>9</v>
-      </c>
-      <c r="X47" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>120</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>900</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AF47" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="AG47" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AH47" t="n">
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="AI47" t="n">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="AJ47" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>EBEb8xf2</t>
+          <t>CtZwbt04</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6218,119 +6226,119 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>14:10</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>SLOVENIA - PRVA LIGA</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Domzale</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Radomlje</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.47</v>
+        <v>3.4</v>
       </c>
       <c r="H48" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I48" t="n">
-        <v>2.77</v>
+        <v>2.15</v>
       </c>
       <c r="J48" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K48" t="n">
-        <v>7.3</v>
+        <v>9</v>
       </c>
       <c r="L48" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="M48" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="N48" t="n">
-        <v>1.83</v>
+        <v>2.15</v>
       </c>
       <c r="O48" t="n">
-        <v>1.87</v>
+        <v>1.67</v>
       </c>
       <c r="P48" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="R48" t="n">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="S48" t="n">
-        <v>2.12</v>
+        <v>1.8</v>
       </c>
       <c r="T48" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="U48" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="V48" t="n">
-        <v>9.25</v>
+        <v>12</v>
       </c>
       <c r="W48" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="X48" t="n">
-        <v>19.5</v>
+        <v>29</v>
       </c>
       <c r="Y48" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="Z48" t="n">
-        <v>7.3</v>
+        <v>8</v>
       </c>
       <c r="AA48" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AB48" t="n">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="AC48" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AD48" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AE48" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF48" t="n">
         <v>9.5</v>
       </c>
-      <c r="AF48" t="n">
-        <v>15</v>
-      </c>
       <c r="AG48" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AH48" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="AI48" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AJ48" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>0SUa5CM6</t>
+          <t>EyY1bN3N</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -6340,65 +6348,65 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Eyupspor</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H49" t="n">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="I49" t="n">
-        <v>4.1</v>
+        <v>11</v>
       </c>
       <c r="J49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K49" t="n">
+        <v>26</v>
+      </c>
+      <c r="L49" t="n">
         <v>1.1</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>7</v>
       </c>
-      <c r="L49" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M49" t="n">
-        <v>2.5</v>
-      </c>
       <c r="N49" t="n">
-        <v>2.6</v>
+        <v>1.33</v>
       </c>
       <c r="O49" t="n">
-        <v>1.48</v>
+        <v>3.4</v>
       </c>
       <c r="P49" t="n">
-        <v>1.62</v>
+        <v>1.2</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.2</v>
+        <v>4.33</v>
       </c>
       <c r="R49" t="n">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="S49" t="n">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="T49" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="U49" t="n">
         <v>8</v>
@@ -6407,43 +6415,43 @@
         <v>10</v>
       </c>
       <c r="W49" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="X49" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="Y49" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="Z49" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="AA49" t="n">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="AB49" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC49" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AD49" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="AE49" t="n">
-        <v>8.5</v>
+        <v>34</v>
       </c>
       <c r="AF49" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AG49" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AH49" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="AI49" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AJ49" t="n">
         <v>51</v>
@@ -6452,7 +6460,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>zqnU8cEM</t>
+          <t>dI2rm6Mj</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -6462,119 +6470,115 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Inhulets</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Oster</t>
+          <t>Karpaty Lviv</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.55</v>
+        <v>5.7</v>
       </c>
       <c r="H50" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="I50" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K50" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="N50" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R50" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="T50" t="n">
+        <v>11</v>
+      </c>
+      <c r="U50" t="n">
+        <v>32</v>
+      </c>
+      <c r="V50" t="n">
+        <v>21</v>
+      </c>
+      <c r="W50" t="n">
+        <v>120</v>
+      </c>
+      <c r="X50" t="n">
+        <v>80</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>175</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG50" t="n">
         <v>9</v>
       </c>
-      <c r="L50" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M50" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="N50" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="O50" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="P50" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R50" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S50" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T50" t="n">
-        <v>8</v>
-      </c>
-      <c r="U50" t="n">
-        <v>12</v>
-      </c>
-      <c r="V50" t="n">
-        <v>10</v>
-      </c>
-      <c r="W50" t="n">
-        <v>26</v>
-      </c>
-      <c r="X50" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>251</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>11</v>
-      </c>
       <c r="AH50" t="n">
-        <v>29</v>
+        <v>10.5</v>
       </c>
       <c r="AI50" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AJ50" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CtZwbt04</t>
+          <t>n9tFddYj</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -6584,119 +6588,119 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>14:10</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Racing Montevideo</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Liverpool M.</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="H51" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I51" t="n">
-        <v>2.1</v>
+        <v>2.63</v>
       </c>
       <c r="J51" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K51" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L51" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="M51" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="N51" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="O51" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="P51" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R51" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S51" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T51" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U51" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="V51" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W51" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="X51" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y51" t="n">
         <v>41</v>
       </c>
       <c r="Z51" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA51" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB51" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC51" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD51" t="n">
         <v>351</v>
       </c>
       <c r="AE51" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF51" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AG51" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AH51" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AI51" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AJ51" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>EyY1bN3N</t>
+          <t>G4dZGoy3</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -6706,474 +6710,112 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Eyupspor</t>
+          <t>Defensor Sp.</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>CA Cerro</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.18</v>
+        <v>1.75</v>
       </c>
       <c r="H52" t="n">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="I52" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J52" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="K52" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="L52" t="n">
-        <v>1.1</v>
+        <v>1.44</v>
       </c>
       <c r="M52" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="N52" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R52" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T52" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U52" t="n">
         <v>7</v>
       </c>
-      <c r="N52" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="O52" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="P52" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="R52" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S52" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T52" t="n">
-        <v>11</v>
-      </c>
-      <c r="U52" t="n">
-        <v>8</v>
-      </c>
       <c r="V52" t="n">
+        <v>9</v>
+      </c>
+      <c r="W52" t="n">
+        <v>13</v>
+      </c>
+      <c r="X52" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>351</v>
+      </c>
+      <c r="AE52" t="n">
         <v>10</v>
       </c>
-      <c r="W52" t="n">
-        <v>8</v>
-      </c>
-      <c r="X52" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y52" t="n">
+      <c r="AF52" t="n">
         <v>23</v>
       </c>
-      <c r="Z52" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC52" t="n">
+      <c r="AG52" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH52" t="n">
         <v>51</v>
       </c>
-      <c r="AD52" t="n">
-        <v>251</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>34</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>151</v>
-      </c>
       <c r="AI52" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AJ52" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>dI2rm6Mj</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>14/04/2025</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>09:30</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Inhulets</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Karpaty Lviv</t>
-        </is>
-      </c>
-      <c r="G53" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="H53" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M53" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="N53" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="O53" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P53" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="R53" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="S53" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="T53" t="n">
-        <v>12</v>
-      </c>
-      <c r="U53" t="n">
-        <v>35</v>
-      </c>
-      <c r="V53" t="n">
-        <v>23</v>
-      </c>
-      <c r="W53" t="n">
-        <v>150</v>
-      </c>
-      <c r="X53" t="n">
-        <v>100</v>
-      </c>
-      <c r="Y53" t="n">
-        <v>110</v>
-      </c>
-      <c r="Z53" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AA53" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AB53" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>200</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AJ53" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>n9tFddYj</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>14/04/2025</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>URUGUAY - LIGA AUF URUGUAYA</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Racing Montevideo</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Liverpool M.</t>
-        </is>
-      </c>
-      <c r="G54" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="H54" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K54" t="n">
-        <v>8</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M54" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="N54" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O54" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P54" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R54" t="n">
-        <v>2</v>
-      </c>
-      <c r="S54" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="T54" t="n">
-        <v>7</v>
-      </c>
-      <c r="U54" t="n">
-        <v>12</v>
-      </c>
-      <c r="V54" t="n">
-        <v>11</v>
-      </c>
-      <c r="W54" t="n">
-        <v>26</v>
-      </c>
-      <c r="X54" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y54" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB54" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>351</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH54" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ54" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>G4dZGoy3</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>14/04/2025</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>URUGUAY - LIGA AUF URUGUAYA</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Defensor Sp.</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>CA Cerro</t>
-        </is>
-      </c>
-      <c r="G55" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H55" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I55" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K55" t="n">
-        <v>8</v>
-      </c>
-      <c r="L55" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M55" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="N55" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="O55" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P55" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R55" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S55" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T55" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="U55" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="V55" t="n">
-        <v>9</v>
-      </c>
-      <c r="W55" t="n">
-        <v>13</v>
-      </c>
-      <c r="X55" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y55" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z55" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA55" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB55" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>351</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH55" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI55" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ55" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2025-04-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-14.xlsx
@@ -653,37 +653,37 @@
         <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J2" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L2" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N2" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="O2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S2" t="n">
         <v>2.1</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.2</v>
       </c>
       <c r="T2" t="n">
         <v>9.5</v>
@@ -710,7 +710,7 @@
         <v>7</v>
       </c>
       <c r="AB2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC2" t="n">
         <v>41</v>
@@ -722,7 +722,7 @@
         <v>15</v>
       </c>
       <c r="AF2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG2" t="n">
         <v>15</v>
@@ -790,10 +790,10 @@
         <v>3.5</v>
       </c>
       <c r="N3" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="O3" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="P3" t="n">
         <v>1.36</v>
@@ -961,7 +961,7 @@
         <v>501</v>
       </c>
       <c r="AE4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF4" t="n">
         <v>81</v>
@@ -970,10 +970,10 @@
         <v>41</v>
       </c>
       <c r="AH4" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AI4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AJ4" t="n">
         <v>101</v>
@@ -1032,10 +1032,10 @@
         <v>3.25</v>
       </c>
       <c r="N5" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O5" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P5" t="n">
         <v>1.44</v>
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
@@ -1148,16 +1148,16 @@
         <v>6.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M6" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="N6" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P6" t="n">
         <v>1.57</v>
@@ -1255,13 +1255,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H7" t="n">
         <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="J7" t="n">
         <v>1.1</v>
@@ -1288,25 +1288,25 @@
         <v>2.25</v>
       </c>
       <c r="R7" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S7" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V7" t="n">
         <v>10</v>
       </c>
       <c r="W7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y7" t="n">
         <v>41</v>
@@ -1327,19 +1327,19 @@
         <v>501</v>
       </c>
       <c r="AE7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF7" t="n">
         <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ7" t="n">
         <v>41</v>
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H8" t="n">
         <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J8" t="n">
         <v>1.1</v>
@@ -1437,7 +1437,7 @@
         <v>6.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB8" t="n">
         <v>21</v>
@@ -1449,7 +1449,7 @@
         <v>101</v>
       </c>
       <c r="AE8" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF8" t="n">
         <v>9</v>
@@ -1461,7 +1461,7 @@
         <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ8" t="n">
         <v>41</v>
@@ -1499,19 +1499,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="J9" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L9" t="n">
         <v>1.5</v>
@@ -1532,16 +1532,16 @@
         <v>2.25</v>
       </c>
       <c r="R9" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S9" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T9" t="n">
         <v>5</v>
       </c>
       <c r="U9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V9" t="n">
         <v>9.5</v>
@@ -1550,7 +1550,7 @@
         <v>13</v>
       </c>
       <c r="X9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y9" t="n">
         <v>41</v>
@@ -1559,13 +1559,13 @@
         <v>6.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC9" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD9" t="n">
         <v>101</v>
@@ -1574,13 +1574,13 @@
         <v>10</v>
       </c>
       <c r="AF9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG9" t="n">
         <v>19</v>
       </c>
       <c r="AH9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI9" t="n">
         <v>51</v>
@@ -1621,13 +1621,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="H10" t="n">
         <v>2.8</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J10" t="n">
         <v>1.14</v>
@@ -1669,13 +1669,13 @@
         <v>12</v>
       </c>
       <c r="W10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X10" t="n">
         <v>29</v>
       </c>
       <c r="Y10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z10" t="n">
         <v>5.5</v>
@@ -1696,7 +1696,7 @@
         <v>6.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG10" t="n">
         <v>13</v>
@@ -1743,13 +1743,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H11" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J11" t="n">
         <v>1.1</v>
@@ -1800,7 +1800,7 @@
         <v>41</v>
       </c>
       <c r="Z11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA11" t="n">
         <v>7</v>
@@ -1996,10 +1996,10 @@
         <v>9</v>
       </c>
       <c r="J13" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L13" t="n">
         <v>1.14</v>
@@ -2008,10 +2008,10 @@
         <v>5.5</v>
       </c>
       <c r="N13" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O13" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="P13" t="n">
         <v>1.25</v>
@@ -2109,19 +2109,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H14" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I14" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J14" t="n">
         <v>1.07</v>
       </c>
       <c r="K14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L14" t="n">
         <v>1.33</v>
@@ -2130,10 +2130,10 @@
         <v>3.25</v>
       </c>
       <c r="N14" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O14" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P14" t="n">
         <v>1.44</v>
@@ -2151,7 +2151,7 @@
         <v>6</v>
       </c>
       <c r="U14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V14" t="n">
         <v>8.5</v>
@@ -2166,13 +2166,13 @@
         <v>34</v>
       </c>
       <c r="Z14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA14" t="n">
         <v>7.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC14" t="n">
         <v>67</v>
@@ -2190,10 +2190,10 @@
         <v>19</v>
       </c>
       <c r="AH14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ14" t="n">
         <v>51</v>
@@ -2353,13 +2353,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H16" t="n">
         <v>3.5</v>
       </c>
       <c r="I16" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J16" t="n">
         <v>1.06</v>
@@ -2395,13 +2395,13 @@
         <v>7</v>
       </c>
       <c r="U16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V16" t="n">
         <v>9</v>
       </c>
       <c r="W16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X16" t="n">
         <v>17</v>
@@ -2425,7 +2425,7 @@
         <v>301</v>
       </c>
       <c r="AE16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF16" t="n">
         <v>19</v>
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H19" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I19" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="J19" t="n">
         <v>1.08</v>
@@ -2734,34 +2734,34 @@
         <v>8</v>
       </c>
       <c r="L19" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M19" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N19" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="O19" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="P19" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R19" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S19" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T19" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="U19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V19" t="n">
         <v>11</v>
@@ -2776,22 +2776,22 @@
         <v>41</v>
       </c>
       <c r="Z19" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA19" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC19" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD19" t="n">
         <v>1250</v>
       </c>
       <c r="AE19" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF19" t="n">
         <v>12</v>
@@ -2800,10 +2800,10 @@
         <v>11</v>
       </c>
       <c r="AH19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ19" t="n">
         <v>41</v>
@@ -2972,22 +2972,22 @@
         <v>1.85</v>
       </c>
       <c r="J21" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L21" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M21" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N21" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="O21" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P21" t="n">
         <v>1.44</v>
@@ -3085,13 +3085,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H22" t="n">
         <v>3.2</v>
       </c>
       <c r="I22" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J22" t="n">
         <v>1.07</v>
@@ -3136,7 +3136,7 @@
         <v>34</v>
       </c>
       <c r="X22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y22" t="n">
         <v>41</v>
@@ -3157,7 +3157,7 @@
         <v>301</v>
       </c>
       <c r="AE22" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF22" t="n">
         <v>10</v>
@@ -3228,10 +3228,10 @@
         <v>3.75</v>
       </c>
       <c r="N23" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O23" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="P23" t="n">
         <v>1.4</v>
@@ -3834,10 +3834,10 @@
         <v>3.75</v>
       </c>
       <c r="N28" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O28" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P28" t="n">
         <v>1.4</v>
@@ -4057,19 +4057,19 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H30" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I30" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J30" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L30" t="n">
         <v>1.14</v>
@@ -4102,13 +4102,13 @@
         <v>11</v>
       </c>
       <c r="V30" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y30" t="n">
         <v>19</v>
@@ -4185,7 +4185,7 @@
         <v>3.2</v>
       </c>
       <c r="I31" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J31" t="n">
         <v>1.08</v>
@@ -4304,10 +4304,10 @@
         <v>1.38</v>
       </c>
       <c r="H32" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="I32" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="J32" t="n">
         <v>1.06</v>
@@ -4322,16 +4322,16 @@
         <v>3.15</v>
       </c>
       <c r="N32" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="O32" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="P32" t="n">
         <v>1.42</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="R32" t="n">
         <v>2.25</v>
@@ -4340,10 +4340,10 @@
         <v>1.57</v>
       </c>
       <c r="T32" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="U32" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="V32" t="n">
         <v>8.75</v>
@@ -4355,7 +4355,7 @@
         <v>12.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z32" t="n">
         <v>7.2</v>
@@ -4448,10 +4448,10 @@
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="S33" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="T33" t="n">
         <v>6.3</v>
@@ -4537,10 +4537,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H34" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I34" t="n">
         <v>2.2</v>
@@ -4552,31 +4552,31 @@
         <v>5.8</v>
       </c>
       <c r="L34" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="M34" t="n">
-        <v>2.92</v>
+        <v>2.77</v>
       </c>
       <c r="N34" t="n">
-        <v>2.03</v>
+        <v>2.15</v>
       </c>
       <c r="O34" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="R34" t="n">
         <v>1.78</v>
       </c>
-      <c r="P34" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.7</v>
-      </c>
       <c r="S34" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T34" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U34" t="n">
         <v>15</v>
@@ -4588,13 +4588,13 @@
         <v>34</v>
       </c>
       <c r="X34" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y34" t="n">
         <v>34</v>
       </c>
       <c r="Z34" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA34" t="n">
         <v>6.5</v>
@@ -4606,10 +4606,10 @@
         <v>51</v>
       </c>
       <c r="AD34" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE34" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF34" t="n">
         <v>11</v>
@@ -4781,19 +4781,19 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H36" t="n">
         <v>2.8</v>
       </c>
       <c r="I36" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J36" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K36" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L36" t="n">
         <v>1.29</v>
@@ -4838,13 +4838,13 @@
         <v>29</v>
       </c>
       <c r="Z36" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA36" t="n">
         <v>5.5</v>
       </c>
       <c r="AB36" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC36" t="n">
         <v>41</v>
@@ -4865,7 +4865,7 @@
         <v>34</v>
       </c>
       <c r="AI36" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ36" t="n">
         <v>34</v>
@@ -4903,13 +4903,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H37" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I37" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J37" t="n">
         <v>1.04</v>
@@ -4918,16 +4918,16 @@
         <v>13</v>
       </c>
       <c r="L37" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N37" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O37" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P37" t="n">
         <v>1.36</v>
@@ -4966,7 +4966,7 @@
         <v>6.5</v>
       </c>
       <c r="AB37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC37" t="n">
         <v>41</v>
@@ -4975,7 +4975,7 @@
         <v>151</v>
       </c>
       <c r="AE37" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF37" t="n">
         <v>17</v>
@@ -5037,7 +5037,7 @@
         <v>1.04</v>
       </c>
       <c r="K38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L38" t="n">
         <v>1.25</v>
@@ -5147,19 +5147,19 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H39" t="n">
         <v>3.5</v>
       </c>
       <c r="I39" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J39" t="n">
         <v>1.04</v>
       </c>
       <c r="K39" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L39" t="n">
         <v>1.22</v>
@@ -5189,7 +5189,7 @@
         <v>8.5</v>
       </c>
       <c r="U39" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V39" t="n">
         <v>8.5</v>
@@ -5204,7 +5204,7 @@
         <v>23</v>
       </c>
       <c r="Z39" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA39" t="n">
         <v>7</v>
@@ -5269,19 +5269,19 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H40" t="n">
         <v>3</v>
       </c>
       <c r="I40" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J40" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K40" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L40" t="n">
         <v>1.36</v>
@@ -5311,7 +5311,7 @@
         <v>7.5</v>
       </c>
       <c r="U40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V40" t="n">
         <v>10</v>
@@ -5344,10 +5344,10 @@
         <v>8.5</v>
       </c>
       <c r="AF40" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG40" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH40" t="n">
         <v>29</v>
@@ -5356,7 +5356,7 @@
         <v>26</v>
       </c>
       <c r="AJ40" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41">
@@ -5391,13 +5391,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H41" t="n">
         <v>3.1</v>
       </c>
       <c r="I41" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J41" t="n">
         <v>1.11</v>
@@ -5430,7 +5430,7 @@
         <v>1.62</v>
       </c>
       <c r="T41" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U41" t="n">
         <v>8.5</v>
@@ -5635,67 +5635,67 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="H43" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I43" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="J43" t="n">
         <v>1.07</v>
       </c>
       <c r="K43" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="L43" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M43" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="N43" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="O43" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="P43" t="n">
         <v>1.44</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="R43" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="S43" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="T43" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="U43" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="V43" t="n">
         <v>8.25</v>
       </c>
       <c r="W43" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="X43" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y43" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Z43" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AA43" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AB43" t="n">
         <v>16</v>
@@ -5707,10 +5707,10 @@
         <v>700</v>
       </c>
       <c r="AE43" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AF43" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG43" t="n">
         <v>14</v>
@@ -5757,55 +5757,55 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H44" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="I44" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="J44" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K44" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="L44" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M44" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="N44" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O44" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="P44" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="R44" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S44" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="T44" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="U44" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="V44" t="n">
         <v>8.5</v>
       </c>
       <c r="W44" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="X44" t="n">
         <v>12.5</v>
@@ -5814,37 +5814,37 @@
         <v>32</v>
       </c>
       <c r="Z44" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AA44" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AB44" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC44" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AD44" t="n">
         <v>900</v>
       </c>
       <c r="AE44" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF44" t="n">
         <v>40</v>
       </c>
       <c r="AG44" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH44" t="n">
         <v>150</v>
       </c>
       <c r="AI44" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ44" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45">
@@ -5879,37 +5879,37 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="H45" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I45" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="J45" t="n">
         <v>1.06</v>
       </c>
       <c r="K45" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="L45" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M45" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="N45" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="O45" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="P45" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="R45" t="n">
         <v>1.65</v>
@@ -5918,31 +5918,31 @@
         <v>2.12</v>
       </c>
       <c r="T45" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="U45" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V45" t="n">
         <v>9.25</v>
       </c>
       <c r="W45" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="X45" t="n">
         <v>19.5</v>
       </c>
       <c r="Y45" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z45" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AA45" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AB45" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC45" t="n">
         <v>50</v>
@@ -5951,22 +5951,22 @@
         <v>350</v>
       </c>
       <c r="AE45" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF45" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG45" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AH45" t="n">
         <v>32</v>
       </c>
       <c r="AI45" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ45" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
@@ -6132,10 +6132,10 @@
         <v>2.75</v>
       </c>
       <c r="J47" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K47" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L47" t="n">
         <v>1.33</v>
@@ -6370,7 +6370,7 @@
         <v>1.2</v>
       </c>
       <c r="H49" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I49" t="n">
         <v>11</v>
@@ -6379,19 +6379,19 @@
         <v>1.01</v>
       </c>
       <c r="K49" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L49" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="M49" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="N49" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="O49" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="P49" t="n">
         <v>1.2</v>
@@ -6409,7 +6409,7 @@
         <v>11</v>
       </c>
       <c r="U49" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V49" t="n">
         <v>10</v>
@@ -6424,10 +6424,10 @@
         <v>23</v>
       </c>
       <c r="Z49" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA49" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB49" t="n">
         <v>23</v>
@@ -6448,7 +6448,7 @@
         <v>29</v>
       </c>
       <c r="AH49" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AI49" t="n">
         <v>67</v>
@@ -6489,13 +6489,13 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="H50" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I50" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -6503,34 +6503,34 @@
         <v>1.44</v>
       </c>
       <c r="M50" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="N50" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="O50" t="n">
         <v>1.5</v>
       </c>
       <c r="P50" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="R50" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="S50" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T50" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="U50" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="V50" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="W50" t="n">
         <v>120</v>
@@ -6542,13 +6542,13 @@
         <v>100</v>
       </c>
       <c r="Z50" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AA50" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AB50" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC50" t="n">
         <v>175</v>
@@ -6557,19 +6557,19 @@
         <v>101</v>
       </c>
       <c r="AE50" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="AF50" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AG50" t="n">
         <v>9</v>
       </c>
       <c r="AH50" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="AI50" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AJ50" t="n">
         <v>45</v>
@@ -6738,16 +6738,16 @@
         <v>5</v>
       </c>
       <c r="J52" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K52" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L52" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M52" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N52" t="n">
         <v>2.35</v>
@@ -6756,10 +6756,10 @@
         <v>1.57</v>
       </c>
       <c r="P52" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R52" t="n">
         <v>2.2</v>
@@ -6771,7 +6771,7 @@
         <v>5.5</v>
       </c>
       <c r="U52" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V52" t="n">
         <v>9</v>
@@ -6786,22 +6786,22 @@
         <v>34</v>
       </c>
       <c r="Z52" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA52" t="n">
         <v>6.5</v>
       </c>
       <c r="AB52" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC52" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD52" t="n">
         <v>351</v>
       </c>
       <c r="AE52" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF52" t="n">
         <v>23</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-14.xlsx
@@ -656,22 +656,22 @@
         <v>3.7</v>
       </c>
       <c r="J2" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L2" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N2" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="P2" t="n">
         <v>1.36</v>
@@ -790,16 +790,16 @@
         <v>3.5</v>
       </c>
       <c r="N3" t="n">
-        <v>1.99</v>
+        <v>1.89</v>
       </c>
       <c r="O3" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="P3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R3" t="n">
         <v>2.25</v>
@@ -1255,13 +1255,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="H7" t="n">
         <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
         <v>1.1</v>
@@ -1297,13 +1297,13 @@
         <v>6.5</v>
       </c>
       <c r="U7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X7" t="n">
         <v>23</v>
@@ -1318,7 +1318,7 @@
         <v>6</v>
       </c>
       <c r="AB7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC7" t="n">
         <v>67</v>
@@ -1330,7 +1330,7 @@
         <v>7.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG7" t="n">
         <v>12</v>
@@ -1392,16 +1392,16 @@
         <v>7</v>
       </c>
       <c r="L8" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M8" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="N8" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P8" t="n">
         <v>1.57</v>
@@ -1621,13 +1621,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="H10" t="n">
         <v>2.8</v>
       </c>
       <c r="I10" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="J10" t="n">
         <v>1.14</v>
@@ -1660,19 +1660,19 @@
         <v>1.53</v>
       </c>
       <c r="T10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y10" t="n">
         <v>51</v>
@@ -1693,19 +1693,19 @@
         <v>101</v>
       </c>
       <c r="AE10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG10" t="n">
         <v>12</v>
       </c>
-      <c r="AG10" t="n">
-        <v>13</v>
-      </c>
       <c r="AH10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ10" t="n">
         <v>51</v>
@@ -1752,22 +1752,22 @@
         <v>5.25</v>
       </c>
       <c r="J11" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M11" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N11" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P11" t="n">
         <v>1.53</v>
@@ -1996,10 +1996,10 @@
         <v>9</v>
       </c>
       <c r="J13" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L13" t="n">
         <v>1.14</v>
@@ -2008,10 +2008,10 @@
         <v>5.5</v>
       </c>
       <c r="N13" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O13" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="P13" t="n">
         <v>1.25</v>
@@ -2109,19 +2109,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H14" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I14" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J14" t="n">
         <v>1.07</v>
       </c>
       <c r="K14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L14" t="n">
         <v>1.33</v>
@@ -2166,10 +2166,10 @@
         <v>34</v>
       </c>
       <c r="Z14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB14" t="n">
         <v>19</v>
@@ -2190,10 +2190,10 @@
         <v>19</v>
       </c>
       <c r="AH14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI14" t="n">
         <v>51</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>41</v>
       </c>
       <c r="AJ14" t="n">
         <v>51</v>
@@ -2353,7 +2353,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H16" t="n">
         <v>3.5</v>
@@ -2368,16 +2368,16 @@
         <v>10</v>
       </c>
       <c r="L16" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M16" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N16" t="n">
         <v>2.05</v>
       </c>
       <c r="O16" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P16" t="n">
         <v>1.44</v>
@@ -2395,13 +2395,13 @@
         <v>7</v>
       </c>
       <c r="U16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V16" t="n">
         <v>9</v>
       </c>
       <c r="W16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X16" t="n">
         <v>17</v>
@@ -2413,7 +2413,7 @@
         <v>9.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB16" t="n">
         <v>17</v>
@@ -2425,7 +2425,7 @@
         <v>301</v>
       </c>
       <c r="AE16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF16" t="n">
         <v>19</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H17" t="n">
         <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J17" t="n">
         <v>1.05</v>
@@ -2517,7 +2517,7 @@
         <v>9</v>
       </c>
       <c r="U17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V17" t="n">
         <v>9</v>
@@ -2550,7 +2550,7 @@
         <v>12</v>
       </c>
       <c r="AF17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG17" t="n">
         <v>12</v>
@@ -2559,7 +2559,7 @@
         <v>34</v>
       </c>
       <c r="AI17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ17" t="n">
         <v>29</v>
@@ -2597,7 +2597,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H18" t="n">
         <v>3.2</v>
@@ -2606,10 +2606,10 @@
         <v>2.75</v>
       </c>
       <c r="J18" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K18" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L18" t="n">
         <v>1.22</v>
@@ -2618,10 +2618,10 @@
         <v>4</v>
       </c>
       <c r="N18" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O18" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P18" t="n">
         <v>1.36</v>
@@ -2630,10 +2630,10 @@
         <v>3</v>
       </c>
       <c r="R18" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S18" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T18" t="n">
         <v>10</v>
@@ -2657,7 +2657,7 @@
         <v>12</v>
       </c>
       <c r="AA18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB18" t="n">
         <v>12</v>
@@ -2963,31 +2963,31 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="H21" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I21" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="J21" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L21" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N21" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O21" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P21" t="n">
         <v>1.44</v>
@@ -2996,25 +2996,25 @@
         <v>2.63</v>
       </c>
       <c r="R21" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S21" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T21" t="n">
         <v>10</v>
       </c>
       <c r="U21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W21" t="n">
         <v>41</v>
       </c>
       <c r="X21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y21" t="n">
         <v>41</v>
@@ -3038,13 +3038,13 @@
         <v>6.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG21" t="n">
         <v>9</v>
       </c>
       <c r="AH21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI21" t="n">
         <v>17</v>
@@ -3228,10 +3228,10 @@
         <v>3.75</v>
       </c>
       <c r="N23" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O23" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P23" t="n">
         <v>1.4</v>
@@ -3240,10 +3240,10 @@
         <v>2.75</v>
       </c>
       <c r="R23" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S23" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T23" t="n">
         <v>9.5</v>
@@ -3344,16 +3344,16 @@
         <v>9</v>
       </c>
       <c r="L24" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M24" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N24" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O24" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P24" t="n">
         <v>1.5</v>
@@ -3581,82 +3581,82 @@
         <v>1.03</v>
       </c>
       <c r="K26" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="L26" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M26" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="N26" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="O26" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="P26" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="R26" t="n">
         <v>1.4</v>
       </c>
       <c r="S26" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="T26" t="n">
+        <v>12</v>
+      </c>
+      <c r="U26" t="n">
         <v>12.5</v>
-      </c>
-      <c r="U26" t="n">
-        <v>13.5</v>
       </c>
       <c r="V26" t="n">
         <v>8.5</v>
       </c>
       <c r="W26" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="X26" t="n">
         <v>13</v>
       </c>
       <c r="Y26" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AA26" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AB26" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AD26" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AE26" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AG26" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AI26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ26" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27">
@@ -3691,31 +3691,31 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H27" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I27" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="J27" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K27" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="L27" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M27" t="n">
         <v>3.5</v>
       </c>
       <c r="N27" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="O27" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="P27" t="n">
         <v>1.4</v>
@@ -3822,22 +3822,22 @@
         <v>3.1</v>
       </c>
       <c r="J28" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K28" t="n">
         <v>11</v>
       </c>
       <c r="L28" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M28" t="n">
         <v>3.75</v>
       </c>
       <c r="N28" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="O28" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="P28" t="n">
         <v>1.4</v>
@@ -3944,22 +3944,22 @@
         <v>4.2</v>
       </c>
       <c r="J29" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K29" t="n">
         <v>13</v>
       </c>
       <c r="L29" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M29" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N29" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O29" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P29" t="n">
         <v>1.33</v>
@@ -4057,22 +4057,22 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="H30" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I30" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J30" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K30" t="n">
         <v>19</v>
       </c>
       <c r="L30" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="M30" t="n">
         <v>5.5</v>
@@ -4301,55 +4301,55 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="H32" t="n">
-        <v>4.15</v>
+        <v>4</v>
       </c>
       <c r="I32" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="J32" t="n">
         <v>1.06</v>
       </c>
       <c r="K32" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="L32" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M32" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="N32" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="O32" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="P32" t="n">
         <v>1.42</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="R32" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="S32" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T32" t="n">
         <v>5.7</v>
       </c>
       <c r="U32" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="V32" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W32" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X32" t="n">
         <v>12.5</v>
@@ -4358,13 +4358,13 @@
         <v>35</v>
       </c>
       <c r="Z32" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AA32" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AB32" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AC32" t="n">
         <v>150</v>
@@ -4373,22 +4373,22 @@
         <v>1000</v>
       </c>
       <c r="AE32" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF32" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AG32" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AH32" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AI32" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ32" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33">
@@ -4448,10 +4448,10 @@
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S33" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="T33" t="n">
         <v>6.3</v>
@@ -4537,13 +4537,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H34" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I34" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J34" t="n">
         <v>1.12</v>
@@ -4552,79 +4552,79 @@
         <v>5.8</v>
       </c>
       <c r="L34" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="M34" t="n">
-        <v>2.77</v>
+        <v>2.45</v>
       </c>
       <c r="N34" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="O34" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="P34" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.37</v>
+        <v>2.18</v>
       </c>
       <c r="R34" t="n">
-        <v>1.78</v>
+        <v>1.93</v>
       </c>
       <c r="S34" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="T34" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U34" t="n">
         <v>15</v>
       </c>
       <c r="V34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W34" t="n">
         <v>34</v>
       </c>
       <c r="X34" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y34" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z34" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA34" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>351</v>
+      </c>
+      <c r="AE34" t="n">
         <v>6.5</v>
       </c>
-      <c r="AB34" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>251</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AF34" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG34" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH34" t="n">
         <v>21</v>
       </c>
       <c r="AI34" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ34" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35">
@@ -4906,28 +4906,28 @@
         <v>2.2</v>
       </c>
       <c r="H37" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I37" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J37" t="n">
         <v>1.04</v>
       </c>
       <c r="K37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L37" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M37" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N37" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="O37" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="P37" t="n">
         <v>1.36</v>
@@ -4936,16 +4936,16 @@
         <v>3</v>
       </c>
       <c r="R37" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S37" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T37" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U37" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V37" t="n">
         <v>9</v>
@@ -5034,22 +5034,22 @@
         <v>3.8</v>
       </c>
       <c r="J38" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K38" t="n">
         <v>13</v>
       </c>
       <c r="L38" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M38" t="n">
         <v>3.75</v>
       </c>
       <c r="N38" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="O38" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="P38" t="n">
         <v>1.36</v>
@@ -5156,13 +5156,13 @@
         <v>4.1</v>
       </c>
       <c r="J39" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K39" t="n">
         <v>12</v>
       </c>
       <c r="L39" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
@@ -5269,22 +5269,22 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H40" t="n">
         <v>3</v>
       </c>
       <c r="I40" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J40" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K40" t="n">
         <v>8</v>
       </c>
       <c r="L40" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
@@ -5311,7 +5311,7 @@
         <v>7.5</v>
       </c>
       <c r="U40" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V40" t="n">
         <v>10</v>
@@ -5344,10 +5344,10 @@
         <v>8.5</v>
       </c>
       <c r="AF40" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH40" t="n">
         <v>29</v>
@@ -5356,7 +5356,7 @@
         <v>26</v>
       </c>
       <c r="AJ40" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41">
@@ -5400,13 +5400,13 @@
         <v>3.8</v>
       </c>
       <c r="J41" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="K41" t="n">
         <v>6.5</v>
       </c>
       <c r="L41" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="M41" t="n">
         <v>2.5</v>
@@ -5513,31 +5513,31 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="H42" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I42" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J42" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K42" t="n">
         <v>9.5</v>
       </c>
       <c r="L42" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="M42" t="n">
         <v>3.4</v>
       </c>
       <c r="N42" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="O42" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="P42" t="n">
         <v>1.4</v>
@@ -5552,7 +5552,7 @@
         <v>1.73</v>
       </c>
       <c r="T42" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U42" t="n">
         <v>7</v>
@@ -5561,10 +5561,10 @@
         <v>8.5</v>
       </c>
       <c r="W42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X42" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y42" t="n">
         <v>29</v>
@@ -5579,7 +5579,7 @@
         <v>19</v>
       </c>
       <c r="AC42" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD42" t="n">
         <v>351</v>
@@ -5588,13 +5588,13 @@
         <v>13</v>
       </c>
       <c r="AF42" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG42" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH42" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI42" t="n">
         <v>41</v>
@@ -5638,16 +5638,16 @@
         <v>1.75</v>
       </c>
       <c r="H43" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I43" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J43" t="n">
         <v>1.07</v>
       </c>
       <c r="K43" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="L43" t="n">
         <v>1.33</v>
@@ -5674,10 +5674,10 @@
         <v>1.83</v>
       </c>
       <c r="T43" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="U43" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="V43" t="n">
         <v>8.25</v>
@@ -5686,16 +5686,16 @@
         <v>14</v>
       </c>
       <c r="X43" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y43" t="n">
         <v>29</v>
       </c>
       <c r="Z43" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AA43" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AB43" t="n">
         <v>16</v>
@@ -5707,7 +5707,7 @@
         <v>700</v>
       </c>
       <c r="AE43" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AF43" t="n">
         <v>24</v>
@@ -5879,25 +5879,25 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="H45" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="I45" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="J45" t="n">
         <v>1.06</v>
       </c>
       <c r="K45" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="L45" t="n">
         <v>1.29</v>
       </c>
       <c r="M45" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="N45" t="n">
         <v>1.87</v>
@@ -5909,7 +5909,7 @@
         <v>1.42</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="R45" t="n">
         <v>1.65</v>
@@ -5918,7 +5918,7 @@
         <v>2.12</v>
       </c>
       <c r="T45" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="U45" t="n">
         <v>14</v>
@@ -5927,19 +5927,19 @@
         <v>9.25</v>
       </c>
       <c r="W45" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X45" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y45" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z45" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AA45" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AB45" t="n">
         <v>12</v>
@@ -5951,22 +5951,22 @@
         <v>350</v>
       </c>
       <c r="AE45" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AF45" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG45" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AH45" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AI45" t="n">
         <v>23</v>
       </c>
       <c r="AJ45" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46">
@@ -6489,33 +6489,33 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="H50" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I50" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M50" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="N50" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="O50" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P50" t="n">
         <v>1.5</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="R50" t="n">
         <v>2.27</v>
@@ -6524,31 +6524,31 @@
         <v>1.5</v>
       </c>
       <c r="T50" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="U50" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V50" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="W50" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="X50" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Y50" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Z50" t="n">
         <v>7</v>
       </c>
       <c r="AA50" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AB50" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC50" t="n">
         <v>175</v>
@@ -6560,16 +6560,16 @@
         <v>4.9</v>
       </c>
       <c r="AF50" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AG50" t="n">
         <v>9</v>
       </c>
       <c r="AH50" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AI50" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AJ50" t="n">
         <v>45</v>
@@ -6744,10 +6744,10 @@
         <v>8</v>
       </c>
       <c r="L52" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M52" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N52" t="n">
         <v>2.35</v>
@@ -6786,22 +6786,22 @@
         <v>34</v>
       </c>
       <c r="Z52" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA52" t="n">
         <v>6.5</v>
       </c>
       <c r="AB52" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC52" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD52" t="n">
         <v>351</v>
       </c>
       <c r="AE52" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF52" t="n">
         <v>23</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ52"/>
+  <dimension ref="A1:AJ55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,19 +647,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H2" t="n">
         <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J2" t="n">
         <v>1.04</v>
       </c>
       <c r="K2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L2" t="n">
         <v>1.22</v>
@@ -674,22 +674,22 @@
         <v>2.1</v>
       </c>
       <c r="P2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V2" t="n">
         <v>9.5</v>
@@ -710,7 +710,7 @@
         <v>7</v>
       </c>
       <c r="AB2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC2" t="n">
         <v>41</v>
@@ -719,13 +719,13 @@
         <v>201</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
         <v>21</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
         <v>41</v>
@@ -769,55 +769,55 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I3" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L3" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M3" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N3" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="O3" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="P3" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T3" t="n">
         <v>6</v>
       </c>
       <c r="U3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="V3" t="n">
         <v>9</v>
       </c>
       <c r="W3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X3" t="n">
         <v>13</v>
@@ -829,26 +829,26 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC3" t="n">
         <v>81</v>
       </c>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
         <v>41</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH3" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AI3" t="n">
         <v>67</v>
@@ -1011,13 +1011,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H5" t="n">
         <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J5" t="n">
         <v>1.06</v>
@@ -1032,10 +1032,10 @@
         <v>3.25</v>
       </c>
       <c r="N5" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P5" t="n">
         <v>1.44</v>
@@ -1071,7 +1071,7 @@
         <v>9</v>
       </c>
       <c r="AA5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB5" t="n">
         <v>17</v>
@@ -1092,7 +1092,7 @@
         <v>9</v>
       </c>
       <c r="AH5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI5" t="n">
         <v>17</v>
@@ -1133,49 +1133,49 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="J6" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="M6" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="N6" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="O6" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S6" t="n">
         <v>1.57</v>
       </c>
-      <c r="Q6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.67</v>
-      </c>
       <c r="T6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V6" t="n">
         <v>11</v>
@@ -1190,16 +1190,16 @@
         <v>41</v>
       </c>
       <c r="Z6" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AA6" t="n">
         <v>6</v>
       </c>
       <c r="AB6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD6" t="n">
         <v>501</v>
@@ -1211,16 +1211,16 @@
         <v>13</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
         <v>34</v>
       </c>
       <c r="AI6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
@@ -1255,64 +1255,64 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="H7" t="n">
         <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J7" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L7" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M7" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N7" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="O7" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="P7" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R7" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T7" t="n">
         <v>6.5</v>
       </c>
       <c r="U7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA7" t="n">
         <v>6</v>
@@ -1324,13 +1324,13 @@
         <v>67</v>
       </c>
       <c r="AD7" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AE7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
         <v>12</v>
@@ -1377,19 +1377,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H8" t="n">
         <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J8" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L8" t="n">
         <v>1.53</v>
@@ -1404,22 +1404,22 @@
         <v>1.44</v>
       </c>
       <c r="P8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S8" t="n">
         <v>1.57</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.62</v>
       </c>
       <c r="T8" t="n">
         <v>7.5</v>
       </c>
       <c r="U8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V8" t="n">
         <v>13</v>
@@ -1428,10 +1428,10 @@
         <v>41</v>
       </c>
       <c r="X8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z8" t="n">
         <v>6.5</v>
@@ -1452,13 +1452,13 @@
         <v>5.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG8" t="n">
         <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI8" t="n">
         <v>21</v>
@@ -1987,13 +1987,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="I13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J13" t="n">
         <v>1.02</v>
@@ -2008,10 +2008,10 @@
         <v>5.5</v>
       </c>
       <c r="N13" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="O13" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="P13" t="n">
         <v>1.25</v>
@@ -2029,49 +2029,49 @@
         <v>9</v>
       </c>
       <c r="U13" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X13" t="n">
         <v>11</v>
       </c>
       <c r="Y13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z13" t="n">
         <v>17</v>
       </c>
       <c r="AA13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC13" t="n">
         <v>51</v>
       </c>
       <c r="AD13" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE13" t="n">
         <v>26</v>
       </c>
       <c r="AF13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG13" t="n">
         <v>26</v>
       </c>
       <c r="AH13" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AI13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ13" t="n">
         <v>51</v>
@@ -2080,7 +2080,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>zDZtznHb</t>
+          <t>hrTf2F2b</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2090,119 +2090,119 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>BRAZIL - SERIE C</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Slavia Sofia</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Botev Vratsa</t>
+          <t>Ypiranga FC</t>
         </is>
       </c>
       <c r="G14" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K14" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="O14" t="n">
         <v>1.6</v>
       </c>
-      <c r="H14" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I14" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="N14" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.73</v>
-      </c>
       <c r="P14" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R14" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S14" t="n">
-        <v>1.67</v>
+        <v>1.87</v>
       </c>
       <c r="T14" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="U14" t="n">
-        <v>7</v>
+        <v>9.25</v>
       </c>
       <c r="V14" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W14" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="X14" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Y14" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Z14" t="n">
-        <v>8.5</v>
+        <v>5.7</v>
       </c>
       <c r="AA14" t="n">
-        <v>7</v>
+        <v>5.4</v>
       </c>
       <c r="AB14" t="n">
-        <v>19</v>
+        <v>13.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AD14" t="n">
-        <v>351</v>
+        <v>600</v>
       </c>
       <c r="AE14" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG14" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="AI14" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AJ14" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MT5ODe0d</t>
+          <t>zDZtznHb</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2212,7 +2212,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2222,109 +2222,109 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Hebar</t>
+          <t>Slavia Sofia</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Botev Vratsa</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K15" t="n">
+        <v>10</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T15" t="n">
+        <v>6</v>
+      </c>
+      <c r="U15" t="n">
+        <v>7</v>
+      </c>
+      <c r="V15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W15" t="n">
+        <v>12</v>
+      </c>
+      <c r="X15" t="n">
         <v>15</v>
       </c>
-      <c r="H15" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K15" t="n">
-        <v>15</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M15" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="O15" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T15" t="n">
+      <c r="Y15" t="n">
         <v>29</v>
       </c>
-      <c r="U15" t="n">
+      <c r="Z15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC15" t="n">
         <v>67</v>
       </c>
-      <c r="V15" t="n">
+      <c r="AD15" t="n">
+        <v>351</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI15" t="n">
         <v>41</v>
       </c>
-      <c r="W15" t="n">
-        <v>201</v>
-      </c>
-      <c r="X15" t="n">
-        <v>101</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>101</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>101</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>12</v>
-      </c>
       <c r="AJ15" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6RUTEYCc</t>
+          <t>MT5ODe0d</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2334,119 +2334,119 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CHILE - LIGA DE PRIMERA</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Palestino</t>
+          <t>Hebar</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Union La Calera</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.91</v>
+        <v>15</v>
       </c>
       <c r="H16" t="n">
-        <v>3.5</v>
+        <v>6.25</v>
       </c>
       <c r="I16" t="n">
-        <v>3.8</v>
+        <v>1.2</v>
       </c>
       <c r="J16" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="K16" t="n">
+        <v>15</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T16" t="n">
+        <v>29</v>
+      </c>
+      <c r="U16" t="n">
+        <v>67</v>
+      </c>
+      <c r="V16" t="n">
+        <v>41</v>
+      </c>
+      <c r="W16" t="n">
+        <v>201</v>
+      </c>
+      <c r="X16" t="n">
+        <v>101</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>101</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG16" t="n">
         <v>10</v>
       </c>
-      <c r="L16" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T16" t="n">
-        <v>7</v>
-      </c>
-      <c r="U16" t="n">
-        <v>9</v>
-      </c>
-      <c r="V16" t="n">
-        <v>9</v>
-      </c>
-      <c r="W16" t="n">
-        <v>17</v>
-      </c>
-      <c r="X16" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA16" t="n">
+      <c r="AH16" t="n">
         <v>6.5</v>
       </c>
-      <c r="AB16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>301</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>41</v>
-      </c>
       <c r="AI16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>34</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>vwlIhrde</t>
+          <t>6RUTEYCc</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2466,22 +2466,22 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>U. Espanola</t>
+          <t>Palestino</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Nublense</t>
+          <t>Union La Calera</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H17" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="I17" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="J17" t="n">
         <v>1.05</v>
@@ -2490,85 +2490,85 @@
         <v>11</v>
       </c>
       <c r="L17" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N17" t="n">
+        <v>2</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R17" t="n">
         <v>1.83</v>
       </c>
-      <c r="O17" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.62</v>
-      </c>
       <c r="S17" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="T17" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U17" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="V17" t="n">
         <v>9</v>
       </c>
       <c r="W17" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="X17" t="n">
         <v>17</v>
       </c>
       <c r="Y17" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Z17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>301</v>
+      </c>
+      <c r="AE17" t="n">
         <v>11</v>
       </c>
-      <c r="AA17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC17" t="n">
+      <c r="AF17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH17" t="n">
         <v>41</v>
       </c>
-      <c r="AD17" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH17" t="n">
+      <c r="AI17" t="n">
         <v>34</v>
       </c>
-      <c r="AI17" t="n">
-        <v>23</v>
-      </c>
       <c r="AJ17" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>jJnsiVKj</t>
+          <t>vwlIhrde</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2588,22 +2588,22 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>U. Espanola</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Deportes Iquique</t>
+          <t>Nublense</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="H18" t="n">
         <v>3.2</v>
       </c>
       <c r="I18" t="n">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="J18" t="n">
         <v>1.05</v>
@@ -2618,10 +2618,10 @@
         <v>4</v>
       </c>
       <c r="N18" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O18" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P18" t="n">
         <v>1.36</v>
@@ -2636,28 +2636,28 @@
         <v>2.2</v>
       </c>
       <c r="T18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W18" t="n">
+        <v>21</v>
+      </c>
+      <c r="X18" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y18" t="n">
         <v>23</v>
       </c>
-      <c r="X18" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>26</v>
-      </c>
       <c r="Z18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB18" t="n">
         <v>12</v>
@@ -2669,28 +2669,28 @@
         <v>151</v>
       </c>
       <c r="AE18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>29</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>nB3VcRbT</t>
+          <t>jJnsiVKj</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2700,119 +2700,119 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>CHILE - LIGA DE PRIMERA</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Ind. Medellin</t>
+          <t>Deportes Iquique</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H19" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I19" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="J19" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K19" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L19" t="n">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="M19" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N19" t="n">
-        <v>2.3</v>
+        <v>1.83</v>
       </c>
       <c r="O19" t="n">
-        <v>1.6</v>
+        <v>2.03</v>
       </c>
       <c r="P19" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="R19" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="S19" t="n">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="T19" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="U19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W19" t="n">
         <v>26</v>
       </c>
       <c r="X19" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Y19" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="Z19" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AA19" t="n">
         <v>6</v>
       </c>
       <c r="AB19" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AC19" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD19" t="n">
-        <v>1250</v>
+        <v>151</v>
       </c>
       <c r="AE19" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AF19" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AG19" t="n">
         <v>11</v>
       </c>
       <c r="AH19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ19" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>zTP9kFJN</t>
+          <t>nB3VcRbT</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2822,119 +2822,119 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Mushuc Runa</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>LDU Quito</t>
+          <t>Ind. Medellin</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="H20" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="J20" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="K20" t="n">
+        <v>7</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T20" t="n">
+        <v>7</v>
+      </c>
+      <c r="U20" t="n">
+        <v>12</v>
+      </c>
+      <c r="V20" t="n">
         <v>11</v>
       </c>
-      <c r="L20" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2</v>
-      </c>
-      <c r="T20" t="n">
-        <v>10</v>
-      </c>
-      <c r="U20" t="n">
+      <c r="W20" t="n">
+        <v>26</v>
+      </c>
+      <c r="X20" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB20" t="n">
         <v>17</v>
       </c>
-      <c r="V20" t="n">
+      <c r="AC20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF20" t="n">
         <v>12</v>
       </c>
-      <c r="W20" t="n">
-        <v>34</v>
-      </c>
-      <c r="X20" t="n">
+      <c r="AG20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH20" t="n">
         <v>26</v>
       </c>
-      <c r="Y20" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>19</v>
-      </c>
       <c r="AI20" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AJ20" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>AsGK7dZi</t>
+          <t>nmaFB5Db</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2944,110 +2944,106 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>COLOMBIA - PRIMERA B</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>EL Nacional</t>
+          <t>Atletico F.C.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Ind. del Valle</t>
+          <t>Real Santander</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.9</v>
+        <v>2.62</v>
       </c>
       <c r="H21" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I21" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K21" t="n">
-        <v>10</v>
-      </c>
+        <v>2.6</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M21" t="n">
-        <v>3.25</v>
+        <v>2.95</v>
       </c>
       <c r="N21" t="n">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="O21" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="P21" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.63</v>
+        <v>2.47</v>
       </c>
       <c r="R21" t="n">
-        <v>1.91</v>
+        <v>1.65</v>
       </c>
       <c r="S21" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="T21" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="U21" t="n">
-        <v>19</v>
+        <v>13.5</v>
       </c>
       <c r="V21" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="W21" t="n">
+        <v>30</v>
+      </c>
+      <c r="X21" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB21" t="n">
         <v>13</v>
       </c>
-      <c r="W21" t="n">
-        <v>41</v>
-      </c>
-      <c r="X21" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z21" t="n">
+      <c r="AC21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>450</v>
+      </c>
+      <c r="AE21" t="n">
         <v>8.5</v>
       </c>
-      <c r="AA21" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>351</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AF21" t="n">
-        <v>8.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AI21" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AJ21" t="n">
         <v>29</v>
@@ -3056,7 +3052,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>v1W0iykB</t>
+          <t>lCeW7NCN</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3066,119 +3062,115 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>COLOMBIA - PRIMERA B</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Orense</t>
+          <t>Tigres</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Barcelona SC</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="H22" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I22" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K22" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="T22" t="n">
+        <v>5</v>
+      </c>
+      <c r="U22" t="n">
+        <v>7</v>
+      </c>
+      <c r="V22" t="n">
         <v>9</v>
       </c>
-      <c r="L22" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M22" t="n">
-        <v>3</v>
-      </c>
-      <c r="N22" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T22" t="n">
-        <v>9</v>
-      </c>
-      <c r="U22" t="n">
-        <v>15</v>
-      </c>
-      <c r="V22" t="n">
-        <v>12</v>
-      </c>
       <c r="W22" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="X22" t="n">
-        <v>29</v>
+        <v>18.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Z22" t="n">
-        <v>8.5</v>
+        <v>6.6</v>
       </c>
       <c r="AA22" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AB22" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AC22" t="n">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="AD22" t="n">
-        <v>301</v>
+        <v>101</v>
       </c>
       <c r="AE22" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="AF22" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="AG22" t="n">
-        <v>9.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="AI22" t="n">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="AJ22" t="n">
-        <v>29</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>xWS0tFJt</t>
+          <t>zTP9kFJN</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3193,45 +3185,45 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Mushuc Runa</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>LDU Quito</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="H23" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I23" t="n">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="J23" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L23" t="n">
         <v>1.29</v>
       </c>
       <c r="M23" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N23" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O23" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="P23" t="n">
         <v>1.4</v>
@@ -3240,67 +3232,67 @@
         <v>2.75</v>
       </c>
       <c r="R23" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="S23" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="T23" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="U23" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="V23" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W23" t="n">
+        <v>41</v>
+      </c>
+      <c r="X23" t="n">
         <v>29</v>
       </c>
-      <c r="X23" t="n">
-        <v>21</v>
-      </c>
       <c r="Y23" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="Z23" t="n">
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC23" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD23" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG23" t="n">
         <v>9</v>
       </c>
-      <c r="AF23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>10</v>
-      </c>
       <c r="AH23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>26</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>044rf6sB</t>
+          <t>AsGK7dZi</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3310,119 +3302,119 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 2</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>EL Nacional</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>Ind. del Valle</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="H24" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I24" t="n">
-        <v>4.33</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K24" t="n">
+        <v>10</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T24" t="n">
+        <v>10</v>
+      </c>
+      <c r="U24" t="n">
+        <v>19</v>
+      </c>
+      <c r="V24" t="n">
+        <v>13</v>
+      </c>
+      <c r="W24" t="n">
+        <v>41</v>
+      </c>
+      <c r="X24" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>301</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF24" t="n">
         <v>9</v>
       </c>
-      <c r="L24" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M24" t="n">
-        <v>3</v>
-      </c>
-      <c r="N24" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T24" t="n">
-        <v>6</v>
-      </c>
-      <c r="U24" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="V24" t="n">
+      <c r="AG24" t="n">
         <v>9</v>
       </c>
-      <c r="W24" t="n">
-        <v>13</v>
-      </c>
-      <c r="X24" t="n">
+      <c r="AH24" t="n">
         <v>17</v>
       </c>
-      <c r="Y24" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG24" t="n">
+      <c r="AI24" t="n">
         <v>17</v>
       </c>
-      <c r="AH24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>41</v>
-      </c>
       <c r="AJ24" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>bgDgUXCl</t>
+          <t>v1W0iykB</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3432,115 +3424,119 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ICELAND - BESTA DEILD KARLA</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>KR Reykjavik</t>
+          <t>Orense</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Valur</t>
+          <t>Barcelona SC</t>
         </is>
       </c>
       <c r="G25" t="n">
         <v>3.25</v>
       </c>
       <c r="H25" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="I25" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>2.2</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K25" t="n">
+        <v>9</v>
+      </c>
       <c r="L25" t="n">
-        <v>1.09</v>
+        <v>1.36</v>
       </c>
       <c r="M25" t="n">
-        <v>6.1</v>
+        <v>3</v>
       </c>
       <c r="N25" t="n">
-        <v>1.31</v>
+        <v>2.1</v>
       </c>
       <c r="O25" t="n">
-        <v>3.15</v>
+        <v>1.7</v>
       </c>
       <c r="P25" t="n">
-        <v>1.21</v>
+        <v>1.44</v>
       </c>
       <c r="Q25" t="n">
-        <v>4</v>
+        <v>2.63</v>
       </c>
       <c r="R25" t="n">
-        <v>1.31</v>
+        <v>1.83</v>
       </c>
       <c r="S25" t="n">
-        <v>3.2</v>
+        <v>1.83</v>
       </c>
       <c r="T25" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="U25" t="n">
+        <v>15</v>
+      </c>
+      <c r="V25" t="n">
+        <v>12</v>
+      </c>
+      <c r="W25" t="n">
+        <v>34</v>
+      </c>
+      <c r="X25" t="n">
         <v>29</v>
       </c>
-      <c r="V25" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="W25" t="n">
-        <v>55</v>
-      </c>
-      <c r="X25" t="n">
-        <v>23</v>
-      </c>
       <c r="Y25" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>301</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI25" t="n">
         <v>19</v>
       </c>
-      <c r="Z25" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>90</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>13</v>
-      </c>
       <c r="AJ25" t="n">
-        <v>14.5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>K812SBs1</t>
+          <t>xWS0tFJt</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3550,119 +3546,119 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ICELAND - BESTA DEILD KARLA</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Stjarnan</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Akranes</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.91</v>
+        <v>2.8</v>
       </c>
       <c r="H26" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="I26" t="n">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="J26" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="K26" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="L26" t="n">
-        <v>1.13</v>
+        <v>1.29</v>
       </c>
       <c r="M26" t="n">
-        <v>5.1</v>
+        <v>3.75</v>
       </c>
       <c r="N26" t="n">
-        <v>1.42</v>
+        <v>1.98</v>
       </c>
       <c r="O26" t="n">
-        <v>2.65</v>
+        <v>1.88</v>
       </c>
       <c r="P26" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="R26" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="S26" t="n">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="T26" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="U26" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="V26" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="W26" t="n">
-        <v>19.5</v>
+        <v>29</v>
       </c>
       <c r="X26" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB26" t="n">
         <v>13</v>
       </c>
-      <c r="Y26" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AC26" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="AD26" t="n">
-        <v>120</v>
+        <v>201</v>
       </c>
       <c r="AE26" t="n">
-        <v>19.5</v>
+        <v>9</v>
       </c>
       <c r="AF26" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="AG26" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="AH26" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="AI26" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AJ26" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>8bFYtsbn</t>
+          <t>044rf6sB</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3672,119 +3668,119 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>IRELAND - PREMIER DIVISION</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Cork City</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="H27" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="I27" t="n">
-        <v>9.5</v>
+        <v>4.33</v>
       </c>
       <c r="J27" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="K27" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="L27" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="M27" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N27" t="n">
-        <v>1.87</v>
+        <v>2.15</v>
       </c>
       <c r="O27" t="n">
-        <v>1.87</v>
+        <v>1.67</v>
       </c>
       <c r="P27" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="R27" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S27" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T27" t="n">
         <v>6</v>
       </c>
       <c r="U27" t="n">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="V27" t="n">
         <v>9</v>
       </c>
       <c r="W27" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="X27" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Y27" t="n">
         <v>34</v>
       </c>
       <c r="Z27" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AA27" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AB27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF27" t="n">
         <v>23</v>
       </c>
-      <c r="AC27" t="n">
-        <v>81</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>501</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF27" t="n">
+      <c r="AG27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH27" t="n">
         <v>51</v>
       </c>
-      <c r="AG27" t="n">
-        <v>29</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>126</v>
-      </c>
       <c r="AI27" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ27" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>fT68f4np</t>
+          <t>bgDgUXCl</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3794,119 +3790,115 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>ICELAND - BESTA DEILD KARLA</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Netanya</t>
+          <t>KR Reykjavik</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>Valur</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="H28" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="I28" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K28" t="n">
-        <v>11</v>
-      </c>
+        <v>1.95</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="M28" t="n">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="N28" t="n">
-        <v>1.82</v>
+        <v>1.31</v>
       </c>
       <c r="O28" t="n">
-        <v>1.92</v>
+        <v>3.15</v>
       </c>
       <c r="P28" t="n">
-        <v>1.4</v>
+        <v>1.21</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.75</v>
+        <v>3.9</v>
       </c>
       <c r="R28" t="n">
-        <v>1.67</v>
+        <v>1.31</v>
       </c>
       <c r="S28" t="n">
-        <v>2.1</v>
+        <v>3.15</v>
       </c>
       <c r="T28" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="U28" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="V28" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="W28" t="n">
+        <v>50</v>
+      </c>
+      <c r="X28" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA28" t="n">
         <v>9.5</v>
       </c>
-      <c r="W28" t="n">
-        <v>21</v>
-      </c>
-      <c r="X28" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>6</v>
-      </c>
       <c r="AB28" t="n">
-        <v>12</v>
+        <v>10.25</v>
       </c>
       <c r="AC28" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="AD28" t="n">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="AE28" t="n">
-        <v>11</v>
+        <v>16.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AI28" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AJ28" t="n">
-        <v>29</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>St5GhrHd</t>
+          <t>K812SBs1</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3916,119 +3908,119 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>ICELAND - BESTA DEILD KARLA</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>H. Beer Sheva</t>
+          <t>Stjarnan</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Akranes</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.73</v>
+        <v>1.9</v>
       </c>
       <c r="H29" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K29" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q29" t="n">
         <v>3.6</v>
       </c>
-      <c r="I29" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="R29" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T29" t="n">
         <v>13</v>
       </c>
-      <c r="L29" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="M29" t="n">
-        <v>4</v>
-      </c>
-      <c r="N29" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="O29" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S29" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T29" t="n">
-        <v>8.5</v>
-      </c>
       <c r="U29" t="n">
-        <v>9.5</v>
+        <v>13.5</v>
       </c>
       <c r="V29" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W29" t="n">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="X29" t="n">
         <v>13</v>
       </c>
       <c r="Y29" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="Z29" t="n">
-        <v>13</v>
+        <v>9.75</v>
       </c>
       <c r="AA29" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>13</v>
+        <v>10.75</v>
       </c>
       <c r="AC29" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="AD29" t="n">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="AE29" t="n">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="AF29" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AG29" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AI29" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AJ29" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>pIZ00fz3</t>
+          <t>8bFYtsbn</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4038,119 +4030,119 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>IRELAND - PREMIER DIVISION</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>Cork City</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="H30" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="I30" t="n">
-        <v>4.2</v>
+        <v>9.5</v>
       </c>
       <c r="J30" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="K30" t="n">
-        <v>19</v>
+        <v>9.5</v>
       </c>
       <c r="L30" t="n">
-        <v>1.11</v>
+        <v>1.29</v>
       </c>
       <c r="M30" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="N30" t="n">
-        <v>1.5</v>
+        <v>1.93</v>
       </c>
       <c r="O30" t="n">
-        <v>2.5</v>
+        <v>1.93</v>
       </c>
       <c r="P30" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="Q30" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="R30" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="S30" t="n">
-        <v>2.5</v>
+        <v>1.62</v>
       </c>
       <c r="T30" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="U30" t="n">
-        <v>11</v>
+        <v>4.75</v>
       </c>
       <c r="V30" t="n">
+        <v>9</v>
+      </c>
+      <c r="W30" t="n">
+        <v>8</v>
+      </c>
+      <c r="X30" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA30" t="n">
         <v>8.5</v>
       </c>
-      <c r="W30" t="n">
-        <v>15</v>
-      </c>
-      <c r="X30" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>8</v>
-      </c>
       <c r="AB30" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AC30" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="AD30" t="n">
-        <v>101</v>
+        <v>501</v>
       </c>
       <c r="AE30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF30" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AG30" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AH30" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="AI30" t="n">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="AJ30" t="n">
-        <v>29</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>GjBJtz7t</t>
+          <t>fT68f4np</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4160,119 +4152,119 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ITALY - SERIE C</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Carpi</t>
+          <t>Netanya</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Legnago Salus</t>
+          <t>Hapoel Haifa</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.93</v>
+        <v>2.2</v>
       </c>
       <c r="H31" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I31" t="n">
-        <v>3.65</v>
+        <v>3.1</v>
       </c>
       <c r="J31" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K31" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="L31" t="n">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="M31" t="n">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N31" t="n">
-        <v>2.12</v>
+        <v>1.88</v>
       </c>
       <c r="O31" t="n">
-        <v>1.65</v>
+        <v>1.98</v>
       </c>
       <c r="P31" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.42</v>
+        <v>2.75</v>
       </c>
       <c r="R31" t="n">
-        <v>1.93</v>
+        <v>1.67</v>
       </c>
       <c r="S31" t="n">
-        <v>1.78</v>
+        <v>2.1</v>
       </c>
       <c r="T31" t="n">
-        <v>6.3</v>
+        <v>9</v>
       </c>
       <c r="U31" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="V31" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="W31" t="n">
+        <v>21</v>
+      </c>
+      <c r="X31" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF31" t="n">
         <v>17</v>
       </c>
-      <c r="X31" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>90</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>800</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>19</v>
-      </c>
       <c r="AG31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH31" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AI31" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="AJ31" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>0nyABANi</t>
+          <t>St5GhrHd</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4282,119 +4274,119 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>ITALY - SERIE C</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Crotone</t>
+          <t>H. Beer Sheva</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Foggia</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.42</v>
+        <v>1.73</v>
       </c>
       <c r="H32" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I32" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K32" t="n">
+        <v>13</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M32" t="n">
         <v>4</v>
       </c>
-      <c r="I32" t="n">
-        <v>7</v>
-      </c>
-      <c r="J32" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K32" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M32" t="n">
-        <v>3.1</v>
-      </c>
       <c r="N32" t="n">
-        <v>1.93</v>
+        <v>1.7</v>
       </c>
       <c r="O32" t="n">
-        <v>1.78</v>
+        <v>2.1</v>
       </c>
       <c r="P32" t="n">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.65</v>
+        <v>3.25</v>
       </c>
       <c r="R32" t="n">
-        <v>2.18</v>
+        <v>1.67</v>
       </c>
       <c r="S32" t="n">
-        <v>1.62</v>
+        <v>2.1</v>
       </c>
       <c r="T32" t="n">
-        <v>5.7</v>
+        <v>8.5</v>
       </c>
       <c r="U32" t="n">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="V32" t="n">
         <v>8.5</v>
       </c>
       <c r="W32" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="X32" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y32" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="Z32" t="n">
-        <v>7.1</v>
+        <v>13</v>
       </c>
       <c r="AA32" t="n">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="AB32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF32" t="n">
         <v>23</v>
       </c>
-      <c r="AC32" t="n">
-        <v>150</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>45</v>
-      </c>
       <c r="AG32" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AH32" t="n">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="AI32" t="n">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="AJ32" t="n">
-        <v>100</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>xlKdN6ht</t>
+          <t>pIZ00fz3</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4404,111 +4396,119 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>FK Liepaja</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Jelgava</t>
+          <t>Maccabi Haifa</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="H33" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I33" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K33" t="n">
+        <v>19</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="O33" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q33" t="n">
         <v>3.75</v>
       </c>
-      <c r="I33" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M33" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="N33" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
       <c r="R33" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="S33" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="T33" t="n">
-        <v>6.3</v>
+        <v>11</v>
       </c>
       <c r="U33" t="n">
-        <v>6.7</v>
+        <v>10</v>
       </c>
       <c r="V33" t="n">
-        <v>6.9</v>
+        <v>8.5</v>
       </c>
       <c r="W33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="X33" t="n">
-        <v>10.25</v>
+        <v>12</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Z33" t="n">
-        <v>11.25</v>
+        <v>19</v>
       </c>
       <c r="AA33" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AB33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC33" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AD33" t="n">
-        <v>350</v>
+        <v>101</v>
       </c>
       <c r="AE33" t="n">
-        <v>11.25</v>
+        <v>19</v>
       </c>
       <c r="AF33" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AG33" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AH33" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AI33" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AJ33" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>t05oIAqd</t>
+          <t>GjBJtz7t</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4518,119 +4518,119 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>ITALY - SERIE C</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Moghreb Tetouan</t>
+          <t>Carpi</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>IR Tanger</t>
+          <t>Legnago Salus</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>1.93</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2.25</v>
+        <v>3.65</v>
       </c>
       <c r="J34" t="n">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="K34" t="n">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="L34" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="M34" t="n">
-        <v>2.45</v>
+        <v>2.82</v>
       </c>
       <c r="N34" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="O34" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="P34" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.18</v>
+        <v>2.5</v>
       </c>
       <c r="R34" t="n">
         <v>1.93</v>
       </c>
       <c r="S34" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="T34" t="n">
-        <v>8</v>
+        <v>6.3</v>
       </c>
       <c r="U34" t="n">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="V34" t="n">
-        <v>12</v>
+        <v>8.75</v>
       </c>
       <c r="W34" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="X34" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="Y34" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="Z34" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AA34" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="AB34" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC34" t="n">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="AD34" t="n">
-        <v>351</v>
+        <v>800</v>
       </c>
       <c r="AE34" t="n">
-        <v>6.5</v>
+        <v>9.75</v>
       </c>
       <c r="AF34" t="n">
-        <v>10</v>
+        <v>19.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AH34" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="AI34" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="AJ34" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>67QxdaqA</t>
+          <t>0nyABANi</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4640,119 +4640,119 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>PARAGUAY - COPA DE PRIMERA</t>
+          <t>ITALY - SERIE C</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Crotone</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Libertad Asuncion</t>
+          <t>Foggia</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.33</v>
+        <v>1.44</v>
       </c>
       <c r="H35" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="I35" t="n">
-        <v>1.8</v>
+        <v>6.7</v>
       </c>
       <c r="J35" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K35" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L35" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M35" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="N35" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O35" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="P35" t="n">
         <v>1.44</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="R35" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="S35" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="T35" t="n">
-        <v>11</v>
+        <v>5.7</v>
       </c>
       <c r="U35" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="V35" t="n">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="W35" t="n">
-        <v>51</v>
+        <v>9.25</v>
       </c>
       <c r="X35" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="Y35" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="Z35" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AA35" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB35" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AC35" t="n">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="AD35" t="n">
         <v>1000</v>
       </c>
       <c r="AE35" t="n">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="AF35" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="AG35" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="AH35" t="n">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c r="AI35" t="n">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="AJ35" t="n">
-        <v>29</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>AJejQd23</t>
+          <t>xlKdN6ht</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4762,119 +4762,111 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Deportivo Garcilaso</t>
+          <t>FK Liepaja</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Alianza Lima</t>
+          <t>Jelgava</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H36" t="n">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="I36" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K36" t="n">
-        <v>9</v>
-      </c>
+        <v>4.6</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="M36" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="N36" t="n">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="O36" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>2.75</v>
-      </c>
+        <v>1.9</v>
+      </c>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
       <c r="R36" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="S36" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="T36" t="n">
-        <v>9</v>
+        <v>6.3</v>
       </c>
       <c r="U36" t="n">
-        <v>12</v>
+        <v>6.7</v>
       </c>
       <c r="V36" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="W36" t="n">
         <v>10</v>
       </c>
-      <c r="W36" t="n">
-        <v>23</v>
-      </c>
       <c r="X36" t="n">
-        <v>19</v>
+        <v>10.25</v>
       </c>
       <c r="Y36" t="n">
-        <v>29</v>
+        <v>19.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>9</v>
+        <v>11.25</v>
       </c>
       <c r="AA36" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AB36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC36" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AD36" t="n">
-        <v>151</v>
+        <v>350</v>
       </c>
       <c r="AE36" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AF36" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AG36" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AI36" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="AJ36" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6Tii3lXh</t>
+          <t>t05oIAqd</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4889,114 +4881,114 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Lechia Gdansk</t>
+          <t>Moghreb Tetouan</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>IR Tanger</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="H37" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="J37" t="n">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="K37" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T37" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U37" t="n">
+        <v>15</v>
+      </c>
+      <c r="V37" t="n">
         <v>12</v>
       </c>
-      <c r="L37" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M37" t="n">
-        <v>4</v>
-      </c>
-      <c r="N37" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="O37" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>3</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S37" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T37" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="U37" t="n">
-        <v>12</v>
-      </c>
-      <c r="V37" t="n">
-        <v>9</v>
-      </c>
       <c r="W37" t="n">
+        <v>34</v>
+      </c>
+      <c r="X37" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>351</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH37" t="n">
         <v>21</v>
-      </c>
-      <c r="X37" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>34</v>
       </c>
       <c r="AI37" t="n">
         <v>23</v>
       </c>
       <c r="AJ37" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Q3FiWB2m</t>
+          <t>67QxdaqA</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5006,119 +4998,119 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>PARAGUAY - COPA DE PRIMERA</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Termalica B-B.</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Polonia Warszawa</t>
+          <t>Libertad Asuncion</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.85</v>
+        <v>4.33</v>
       </c>
       <c r="H38" t="n">
         <v>3.5</v>
       </c>
       <c r="I38" t="n">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="J38" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="K38" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L38" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="M38" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N38" t="n">
-        <v>1.77</v>
+        <v>2.1</v>
       </c>
       <c r="O38" t="n">
-        <v>1.97</v>
+        <v>1.7</v>
       </c>
       <c r="P38" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="Q38" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="R38" t="n">
+        <v>2</v>
+      </c>
+      <c r="S38" t="n">
         <v>1.73</v>
       </c>
-      <c r="S38" t="n">
-        <v>2</v>
-      </c>
       <c r="T38" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="U38" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="V38" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="W38" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="X38" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="Y38" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="Z38" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AA38" t="n">
         <v>7</v>
       </c>
       <c r="AB38" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AC38" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD38" t="n">
-        <v>201</v>
+        <v>1000</v>
       </c>
       <c r="AE38" t="n">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="AF38" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="AG38" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AH38" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="AI38" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ38" t="n">
         <v>29</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>fVRZDUnJ</t>
+          <t>AJejQd23</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5128,110 +5120,110 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Tychy</t>
+          <t>Deportivo Garcilaso</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>S. Rzeszow</t>
+          <t>Alianza Lima</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="H39" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K39" t="n">
+        <v>10</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M39" t="n">
         <v>3.5</v>
       </c>
-      <c r="I39" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="N39" t="n">
+        <v>2</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2</v>
+      </c>
+      <c r="T39" t="n">
+        <v>8</v>
+      </c>
+      <c r="U39" t="n">
+        <v>11</v>
+      </c>
+      <c r="V39" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W39" t="n">
+        <v>19</v>
+      </c>
+      <c r="X39" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB39" t="n">
         <v>12</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="M39" t="n">
-        <v>4</v>
-      </c>
-      <c r="N39" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="O39" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S39" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T39" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="U39" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="V39" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W39" t="n">
-        <v>15</v>
-      </c>
-      <c r="X39" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>13</v>
       </c>
       <c r="AC39" t="n">
         <v>41</v>
       </c>
       <c r="AD39" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE39" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF39" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AG39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH39" t="n">
         <v>41</v>
       </c>
       <c r="AI39" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ39" t="n">
         <v>34</v>
@@ -5240,7 +5232,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>bXkwo314</t>
+          <t>6Tii3lXh</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5250,119 +5242,119 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Mafra</t>
+          <t>Lechia Gdansk</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Penafiel</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="H40" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K40" t="n">
+        <v>13</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O40" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q40" t="n">
         <v>3</v>
       </c>
-      <c r="I40" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J40" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K40" t="n">
-        <v>8</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M40" t="n">
-        <v>3</v>
-      </c>
-      <c r="N40" t="n">
+      <c r="R40" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S40" t="n">
         <v>2.2</v>
       </c>
-      <c r="O40" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P40" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S40" t="n">
-        <v>1.83</v>
-      </c>
       <c r="T40" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="U40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V40" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W40" t="n">
+        <v>21</v>
+      </c>
+      <c r="X40" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y40" t="n">
         <v>23</v>
       </c>
-      <c r="X40" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>34</v>
-      </c>
       <c r="Z40" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AA40" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AC40" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD40" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="AE40" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AF40" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG40" t="n">
         <v>12</v>
       </c>
       <c r="AH40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ40" t="n">
         <v>29</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>M1sA2Lk5</t>
+          <t>Q3FiWB2m</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5372,119 +5364,119 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>ROMANIA - SUPERLIGA</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>FC Botosani</t>
+          <t>Termalica B-B.</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Otelul</t>
+          <t>Polonia Warszawa</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="H41" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="I41" t="n">
         <v>3.8</v>
       </c>
       <c r="J41" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="K41" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="L41" t="n">
-        <v>1.47</v>
+        <v>1.25</v>
       </c>
       <c r="M41" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N41" t="n">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="O41" t="n">
-        <v>1.5</v>
+        <v>2.03</v>
       </c>
       <c r="P41" t="n">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="R41" t="n">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="S41" t="n">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="T41" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U41" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V41" t="n">
         <v>8.5</v>
       </c>
-      <c r="V41" t="n">
-        <v>9.5</v>
-      </c>
       <c r="W41" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="X41" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF41" t="n">
         <v>21</v>
       </c>
-      <c r="Y41" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>800</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>17</v>
-      </c>
       <c r="AG41" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH41" t="n">
         <v>41</v>
       </c>
       <c r="AI41" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AJ41" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>YP8E6pat</t>
+          <t>fVRZDUnJ</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -5494,119 +5486,119 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>ROMANIA - SUPERLIGA</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Tychy</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>FC Rapid Bucuresti</t>
+          <t>S. Rzeszow</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="H42" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="I42" t="n">
-        <v>5.5</v>
+        <v>4.1</v>
       </c>
       <c r="J42" t="n">
         <v>1.04</v>
       </c>
       <c r="K42" t="n">
+        <v>12</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="O42" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T42" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U42" t="n">
         <v>9.5</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M42" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="N42" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="P42" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R42" t="n">
-        <v>2</v>
-      </c>
-      <c r="S42" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="T42" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="U42" t="n">
-        <v>7</v>
       </c>
       <c r="V42" t="n">
         <v>8.5</v>
       </c>
       <c r="W42" t="n">
+        <v>15</v>
+      </c>
+      <c r="X42" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z42" t="n">
         <v>12</v>
       </c>
-      <c r="X42" t="n">
+      <c r="AA42" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE42" t="n">
         <v>15</v>
       </c>
-      <c r="Y42" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>351</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>13</v>
-      </c>
       <c r="AF42" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG42" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH42" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI42" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ42" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CjhNyaBk</t>
+          <t>bXkwo314</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -5616,119 +5608,119 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Napredak</t>
+          <t>Mafra</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Tekstilac Odzaci</t>
+          <t>Penafiel</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="H43" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="J43" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K43" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L43" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M43" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="N43" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="O43" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="P43" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="R43" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="S43" t="n">
         <v>1.83</v>
       </c>
       <c r="T43" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U43" t="n">
+        <v>11</v>
+      </c>
+      <c r="V43" t="n">
+        <v>10</v>
+      </c>
+      <c r="W43" t="n">
+        <v>23</v>
+      </c>
+      <c r="X43" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z43" t="n">
         <v>8</v>
       </c>
-      <c r="V43" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="W43" t="n">
-        <v>14</v>
-      </c>
-      <c r="X43" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>7</v>
-      </c>
       <c r="AA43" t="n">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="AB43" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC43" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AD43" t="n">
-        <v>700</v>
+        <v>301</v>
       </c>
       <c r="AE43" t="n">
-        <v>11.25</v>
+        <v>8.5</v>
       </c>
       <c r="AF43" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AG43" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH43" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AI43" t="n">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="AJ43" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>8IoWZxt2</t>
+          <t>M1sA2Lk5</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -5738,119 +5730,119 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>ROMANIA - SUPERLIGA</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Zeleznicar Pancevo</t>
+          <t>FC Botosani</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Jedinstvo U.</t>
+          <t>Otelul</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.44</v>
+        <v>2.1</v>
       </c>
       <c r="H44" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="I44" t="n">
-        <v>6.2</v>
+        <v>3.8</v>
       </c>
       <c r="J44" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="K44" t="n">
-        <v>7.6</v>
+        <v>6.5</v>
       </c>
       <c r="L44" t="n">
-        <v>1.28</v>
+        <v>1.5</v>
       </c>
       <c r="M44" t="n">
-        <v>3.35</v>
+        <v>2.5</v>
       </c>
       <c r="N44" t="n">
-        <v>1.83</v>
+        <v>2.5</v>
       </c>
       <c r="O44" t="n">
-        <v>1.87</v>
+        <v>1.5</v>
       </c>
       <c r="P44" t="n">
-        <v>1.39</v>
+        <v>1.57</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.77</v>
+        <v>2.25</v>
       </c>
       <c r="R44" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S44" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="T44" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="U44" t="n">
-        <v>6.3</v>
+        <v>8.5</v>
       </c>
       <c r="V44" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W44" t="n">
+        <v>19</v>
+      </c>
+      <c r="X44" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>800</v>
+      </c>
+      <c r="AE44" t="n">
         <v>8.5</v>
       </c>
-      <c r="W44" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="X44" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>110</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>900</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AF44" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="AG44" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AH44" t="n">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="AI44" t="n">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="AJ44" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>EBEb8xf2</t>
+          <t>YP8E6pat</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -5860,119 +5852,119 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>SLOVENIA - PRVA LIGA</t>
+          <t>ROMANIA - SUPERLIGA</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Domzale</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Radomlje</t>
+          <t>FC Rapid Bucuresti</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.55</v>
+        <v>1.57</v>
       </c>
       <c r="H45" t="n">
-        <v>3.05</v>
+        <v>3.8</v>
       </c>
       <c r="I45" t="n">
-        <v>2.77</v>
+        <v>5.75</v>
       </c>
       <c r="J45" t="n">
         <v>1.06</v>
       </c>
       <c r="K45" t="n">
-        <v>7.1</v>
+        <v>10</v>
       </c>
       <c r="L45" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="M45" t="n">
         <v>3.25</v>
       </c>
       <c r="N45" t="n">
-        <v>1.87</v>
+        <v>2.05</v>
       </c>
       <c r="O45" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="P45" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="R45" t="n">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="S45" t="n">
-        <v>2.12</v>
+        <v>1.67</v>
       </c>
       <c r="T45" t="n">
+        <v>6</v>
+      </c>
+      <c r="U45" t="n">
+        <v>7</v>
+      </c>
+      <c r="V45" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W45" t="n">
+        <v>11</v>
+      </c>
+      <c r="X45" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z45" t="n">
         <v>9</v>
       </c>
-      <c r="U45" t="n">
-        <v>14</v>
-      </c>
-      <c r="V45" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="W45" t="n">
-        <v>30</v>
-      </c>
-      <c r="X45" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>7.1</v>
-      </c>
       <c r="AA45" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AB45" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AC45" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="AD45" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AE45" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AF45" t="n">
-        <v>14.5</v>
+        <v>29</v>
       </c>
       <c r="AG45" t="n">
-        <v>9.75</v>
+        <v>19</v>
       </c>
       <c r="AH45" t="n">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="AI45" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AJ45" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>0SUa5CM6</t>
+          <t>CjhNyaBk</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -5982,119 +5974,119 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Napredak</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Tekstilac Odzaci</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="H46" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="I46" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="J46" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="K46" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="L46" t="n">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="M46" t="n">
-        <v>2.38</v>
+        <v>3.05</v>
       </c>
       <c r="N46" t="n">
-        <v>2.7</v>
+        <v>1.98</v>
       </c>
       <c r="O46" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P46" t="n">
         <v>1.44</v>
       </c>
-      <c r="P46" t="n">
-        <v>1.62</v>
-      </c>
       <c r="Q46" t="n">
-        <v>2.2</v>
+        <v>2.57</v>
       </c>
       <c r="R46" t="n">
-        <v>2.25</v>
+        <v>1.87</v>
       </c>
       <c r="S46" t="n">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="T46" t="n">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="U46" t="n">
         <v>8</v>
       </c>
       <c r="V46" t="n">
-        <v>10</v>
+        <v>8.25</v>
       </c>
       <c r="W46" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="X46" t="n">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="Y46" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="Z46" t="n">
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="AA46" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AB46" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AC46" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AD46" t="n">
-        <v>101</v>
+        <v>700</v>
       </c>
       <c r="AE46" t="n">
-        <v>8.5</v>
+        <v>11.5</v>
       </c>
       <c r="AF46" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AG46" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH46" t="n">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="AI46" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AJ46" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>zqnU8cEM</t>
+          <t>8IoWZxt2</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6104,119 +6096,119 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Zeleznicar Pancevo</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Oster</t>
+          <t>Jedinstvo U.</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.55</v>
+        <v>1.44</v>
       </c>
       <c r="H47" t="n">
-        <v>3.25</v>
+        <v>4.1</v>
       </c>
       <c r="I47" t="n">
-        <v>2.75</v>
+        <v>6.2</v>
       </c>
       <c r="J47" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K47" t="n">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="L47" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="M47" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="N47" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="O47" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S47" t="n">
         <v>1.7</v>
       </c>
-      <c r="P47" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R47" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S47" t="n">
-        <v>1.95</v>
-      </c>
       <c r="T47" t="n">
-        <v>8</v>
+        <v>6.3</v>
       </c>
       <c r="U47" t="n">
-        <v>12</v>
+        <v>6.3</v>
       </c>
       <c r="V47" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="W47" t="n">
-        <v>26</v>
+        <v>9.25</v>
       </c>
       <c r="X47" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB47" t="n">
         <v>21</v>
       </c>
-      <c r="Y47" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>15</v>
-      </c>
       <c r="AC47" t="n">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="AD47" t="n">
-        <v>251</v>
+        <v>900</v>
       </c>
       <c r="AE47" t="n">
-        <v>8.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF47" t="n">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="AG47" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AH47" t="n">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="AI47" t="n">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="AJ47" t="n">
-        <v>34</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CtZwbt04</t>
+          <t>EBEb8xf2</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6226,119 +6218,119 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>14:10</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>SLOVENIA - PRVA LIGA</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Domzale</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Radomlje</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="H48" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I48" t="n">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="J48" t="n">
         <v>1.07</v>
       </c>
       <c r="K48" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L48" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="M48" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N48" t="n">
-        <v>2.15</v>
+        <v>1.88</v>
       </c>
       <c r="O48" t="n">
-        <v>1.67</v>
+        <v>1.82</v>
       </c>
       <c r="P48" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R48" t="n">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="S48" t="n">
-        <v>1.8</v>
+        <v>2.12</v>
       </c>
       <c r="T48" t="n">
         <v>9</v>
       </c>
       <c r="U48" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="V48" t="n">
-        <v>12</v>
+        <v>9.25</v>
       </c>
       <c r="W48" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="X48" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="Y48" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="Z48" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA48" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AB48" t="n">
-        <v>17</v>
+        <v>11.75</v>
       </c>
       <c r="AC48" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AD48" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AE48" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="AF48" t="n">
-        <v>9.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG48" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AH48" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="AI48" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AJ48" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>EyY1bN3N</t>
+          <t>0SUa5CM6</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -6348,110 +6340,110 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Eyupspor</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H49" t="n">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="I49" t="n">
-        <v>11</v>
+        <v>4.1</v>
       </c>
       <c r="J49" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="K49" t="n">
-        <v>23</v>
+        <v>6.5</v>
       </c>
       <c r="L49" t="n">
-        <v>1.11</v>
+        <v>1.53</v>
       </c>
       <c r="M49" t="n">
-        <v>6.5</v>
+        <v>2.38</v>
       </c>
       <c r="N49" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="O49" t="n">
-        <v>2.88</v>
+        <v>1.44</v>
       </c>
       <c r="P49" t="n">
-        <v>1.2</v>
+        <v>1.62</v>
       </c>
       <c r="Q49" t="n">
-        <v>4.33</v>
+        <v>2.2</v>
       </c>
       <c r="R49" t="n">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="S49" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="T49" t="n">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="U49" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V49" t="n">
         <v>10</v>
       </c>
       <c r="W49" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="X49" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="Y49" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="Z49" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="AA49" t="n">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="AB49" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC49" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AD49" t="n">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="AE49" t="n">
-        <v>34</v>
+        <v>8.5</v>
       </c>
       <c r="AF49" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="AG49" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AH49" t="n">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="AI49" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AJ49" t="n">
         <v>51</v>
@@ -6460,7 +6452,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>dI2rm6Mj</t>
+          <t>zqnU8cEM</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -6470,115 +6462,119 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Inhulets</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Karpaty Lviv</t>
+          <t>Oster</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>5.2</v>
+        <v>2.55</v>
       </c>
       <c r="H50" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I50" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>2.75</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K50" t="n">
+        <v>10</v>
+      </c>
       <c r="L50" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="M50" t="n">
-        <v>2.37</v>
+        <v>3.25</v>
       </c>
       <c r="N50" t="n">
-        <v>2.32</v>
+        <v>2.1</v>
       </c>
       <c r="O50" t="n">
-        <v>1.47</v>
+        <v>1.7</v>
       </c>
       <c r="P50" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="R50" t="n">
-        <v>2.27</v>
+        <v>1.8</v>
       </c>
       <c r="S50" t="n">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="T50" t="n">
-        <v>10.25</v>
+        <v>8</v>
       </c>
       <c r="U50" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="V50" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="W50" t="n">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="X50" t="n">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="Y50" t="n">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="Z50" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AA50" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB50" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AC50" t="n">
-        <v>175</v>
+        <v>51</v>
       </c>
       <c r="AD50" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="AE50" t="n">
-        <v>4.9</v>
+        <v>8.5</v>
       </c>
       <c r="AF50" t="n">
-        <v>6.3</v>
+        <v>13</v>
       </c>
       <c r="AG50" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH50" t="n">
-        <v>11.75</v>
+        <v>29</v>
       </c>
       <c r="AI50" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AJ50" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>n9tFddYj</t>
+          <t>CtZwbt04</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -6588,119 +6584,119 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>14:10</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>URUGUAY - LIGA AUF URUGUAYA</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Racing Montevideo</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Liverpool M.</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="H51" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I51" t="n">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="J51" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K51" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L51" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="M51" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="N51" t="n">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="O51" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="P51" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R51" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S51" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T51" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U51" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="V51" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W51" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="X51" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y51" t="n">
         <v>41</v>
       </c>
       <c r="Z51" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA51" t="n">
         <v>6.5</v>
       </c>
       <c r="AB51" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC51" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD51" t="n">
         <v>351</v>
       </c>
       <c r="AE51" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF51" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AG51" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH51" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AI51" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AJ51" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>G4dZGoy3</t>
+          <t>EyY1bN3N</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -6710,112 +6706,474 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>URUGUAY - LIGA AUF URUGUAYA</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Defensor Sp.</t>
+          <t>Eyupspor</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>CA Cerro</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.75</v>
+        <v>1.2</v>
       </c>
       <c r="H52" t="n">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="I52" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J52" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="K52" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="L52" t="n">
-        <v>1.44</v>
+        <v>1.11</v>
       </c>
       <c r="M52" t="n">
-        <v>2.63</v>
+        <v>6.5</v>
       </c>
       <c r="N52" t="n">
-        <v>2.35</v>
+        <v>1.4</v>
       </c>
       <c r="O52" t="n">
-        <v>1.57</v>
+        <v>2.88</v>
       </c>
       <c r="P52" t="n">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="R52" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="S52" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="T52" t="n">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="U52" t="n">
         <v>7.5</v>
       </c>
       <c r="V52" t="n">
+        <v>10</v>
+      </c>
+      <c r="W52" t="n">
+        <v>8</v>
+      </c>
+      <c r="X52" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>126</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>dI2rm6Mj</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>14/04/2025</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Inhulets</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Karpaty Lviv</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H53" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="N53" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R53" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T53" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="U53" t="n">
+        <v>28</v>
+      </c>
+      <c r="V53" t="n">
+        <v>19</v>
+      </c>
+      <c r="W53" t="n">
+        <v>110</v>
+      </c>
+      <c r="X53" t="n">
+        <v>75</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>175</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AG53" t="n">
         <v>9</v>
       </c>
-      <c r="W52" t="n">
+      <c r="AH53" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>n9tFddYj</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>14/04/2025</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Racing Montevideo</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Liverpool M.</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K54" t="n">
+        <v>8</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="N54" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R54" t="n">
+        <v>2</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T54" t="n">
+        <v>7</v>
+      </c>
+      <c r="U54" t="n">
+        <v>12</v>
+      </c>
+      <c r="V54" t="n">
+        <v>11</v>
+      </c>
+      <c r="W54" t="n">
+        <v>26</v>
+      </c>
+      <c r="X54" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>351</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>G4dZGoy3</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>14/04/2025</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Defensor Sp.</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>CA Cerro</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H55" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I55" t="n">
+        <v>5</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K55" t="n">
+        <v>7</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="N55" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R55" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T55" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U55" t="n">
+        <v>7</v>
+      </c>
+      <c r="V55" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W55" t="n">
         <v>13</v>
       </c>
-      <c r="X52" t="n">
+      <c r="X55" t="n">
         <v>17</v>
       </c>
-      <c r="Y52" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA52" t="n">
+      <c r="Y55" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z55" t="n">
         <v>6.5</v>
       </c>
-      <c r="AB52" t="n">
+      <c r="AA55" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB55" t="n">
         <v>21</v>
       </c>
-      <c r="AC52" t="n">
+      <c r="AC55" t="n">
         <v>81</v>
       </c>
-      <c r="AD52" t="n">
+      <c r="AD55" t="n">
         <v>351</v>
       </c>
-      <c r="AE52" t="n">
+      <c r="AE55" t="n">
         <v>10</v>
       </c>
-      <c r="AF52" t="n">
+      <c r="AF55" t="n">
         <v>23</v>
       </c>
-      <c r="AG52" t="n">
+      <c r="AG55" t="n">
         <v>17</v>
       </c>
-      <c r="AH52" t="n">
+      <c r="AH55" t="n">
         <v>51</v>
       </c>
-      <c r="AI52" t="n">
+      <c r="AI55" t="n">
         <v>41</v>
       </c>
-      <c r="AJ52" t="n">
+      <c r="AJ55" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2025-04-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-14.xlsx
@@ -650,16 +650,16 @@
         <v>2.1</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
         <v>3.5</v>
       </c>
       <c r="J2" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L2" t="n">
         <v>1.22</v>
@@ -668,10 +668,10 @@
         <v>4.33</v>
       </c>
       <c r="N2" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="O2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
         <v>1.33</v>
@@ -775,13 +775,13 @@
         <v>4.75</v>
       </c>
       <c r="I3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J3" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L3" t="n">
         <v>1.29</v>
@@ -790,10 +790,10 @@
         <v>3.75</v>
       </c>
       <c r="N3" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="O3" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="P3" t="n">
         <v>1.36</v>
@@ -904,10 +904,10 @@
         <v>19</v>
       </c>
       <c r="L4" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N4" t="n">
         <v>1.44</v>
@@ -1011,31 +1011,31 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="H5" t="n">
         <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="J5" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L5" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N5" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="O5" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="P5" t="n">
         <v>1.44</v>
@@ -1044,10 +1044,10 @@
         <v>2.63</v>
       </c>
       <c r="R5" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S5" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T5" t="n">
         <v>10</v>
@@ -1062,13 +1062,13 @@
         <v>41</v>
       </c>
       <c r="X5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y5" t="n">
         <v>41</v>
       </c>
       <c r="Z5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA5" t="n">
         <v>7</v>
@@ -1080,19 +1080,19 @@
         <v>51</v>
       </c>
       <c r="AD5" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG5" t="n">
         <v>9</v>
       </c>
       <c r="AH5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI5" t="n">
         <v>17</v>
@@ -1148,10 +1148,10 @@
         <v>6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="M6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="N6" t="n">
         <v>2.88</v>
@@ -1261,19 +1261,19 @@
         <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J7" t="n">
         <v>1.08</v>
       </c>
       <c r="K7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M7" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N7" t="n">
         <v>2.35</v>
@@ -1288,16 +1288,16 @@
         <v>2.38</v>
       </c>
       <c r="R7" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S7" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V7" t="n">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>34</v>
       </c>
       <c r="Z7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA7" t="n">
         <v>6</v>
@@ -1321,10 +1321,10 @@
         <v>17</v>
       </c>
       <c r="AC7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD7" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AE7" t="n">
         <v>8</v>
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="H8" t="n">
         <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J8" t="n">
         <v>1.11</v>
@@ -1419,7 +1419,7 @@
         <v>7.5</v>
       </c>
       <c r="U8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V8" t="n">
         <v>13</v>
@@ -1428,7 +1428,7 @@
         <v>41</v>
       </c>
       <c r="X8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y8" t="n">
         <v>51</v>
@@ -1452,16 +1452,16 @@
         <v>5.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
         <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ8" t="n">
         <v>41</v>
@@ -1499,19 +1499,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H9" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="J9" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L9" t="n">
         <v>1.5</v>
@@ -1532,16 +1532,16 @@
         <v>2.25</v>
       </c>
       <c r="R9" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S9" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T9" t="n">
         <v>5</v>
       </c>
       <c r="U9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V9" t="n">
         <v>9.5</v>
@@ -1550,7 +1550,7 @@
         <v>13</v>
       </c>
       <c r="X9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y9" t="n">
         <v>41</v>
@@ -1559,13 +1559,13 @@
         <v>6.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC9" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD9" t="n">
         <v>101</v>
@@ -1574,19 +1574,19 @@
         <v>10</v>
       </c>
       <c r="AF9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG9" t="n">
         <v>19</v>
       </c>
       <c r="AH9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI9" t="n">
         <v>51</v>
       </c>
       <c r="AJ9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
@@ -1630,13 +1630,13 @@
         <v>2.75</v>
       </c>
       <c r="J10" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="K10" t="n">
         <v>5.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="M10" t="n">
         <v>2.2</v>
@@ -1654,10 +1654,10 @@
         <v>2.1</v>
       </c>
       <c r="R10" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="S10" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T10" t="n">
         <v>6.5</v>
@@ -1752,16 +1752,16 @@
         <v>5.25</v>
       </c>
       <c r="J11" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K11" t="n">
         <v>8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M11" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="N11" t="n">
         <v>2.4</v>
@@ -1776,10 +1776,10 @@
         <v>2.38</v>
       </c>
       <c r="R11" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="S11" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T11" t="n">
         <v>5</v>
@@ -1874,13 +1874,13 @@
         <v>4.33</v>
       </c>
       <c r="J12" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="K12" t="n">
         <v>6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="M12" t="n">
         <v>2.1</v>
@@ -1898,10 +1898,10 @@
         <v>2.1</v>
       </c>
       <c r="R12" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="S12" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T12" t="n">
         <v>4.75</v>
@@ -1987,13 +1987,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H13" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J13" t="n">
         <v>1.02</v>
@@ -2002,37 +2002,37 @@
         <v>19</v>
       </c>
       <c r="L13" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M13" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N13" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="O13" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="P13" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R13" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S13" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U13" t="n">
         <v>7</v>
       </c>
       <c r="V13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W13" t="n">
         <v>8</v>
@@ -2044,10 +2044,10 @@
         <v>26</v>
       </c>
       <c r="Z13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB13" t="n">
         <v>21</v>
@@ -2059,13 +2059,13 @@
         <v>251</v>
       </c>
       <c r="AE13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF13" t="n">
         <v>51</v>
       </c>
       <c r="AG13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH13" t="n">
         <v>126</v>
@@ -2231,19 +2231,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="H15" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I15" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J15" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L15" t="n">
         <v>1.33</v>
@@ -2252,10 +2252,10 @@
         <v>3.25</v>
       </c>
       <c r="N15" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O15" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P15" t="n">
         <v>1.44</v>
@@ -2264,10 +2264,10 @@
         <v>2.63</v>
       </c>
       <c r="R15" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S15" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T15" t="n">
         <v>6</v>
@@ -2279,7 +2279,7 @@
         <v>8.5</v>
       </c>
       <c r="W15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X15" t="n">
         <v>15</v>
@@ -2288,7 +2288,7 @@
         <v>29</v>
       </c>
       <c r="Z15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA15" t="n">
         <v>7</v>
@@ -2306,16 +2306,16 @@
         <v>13</v>
       </c>
       <c r="AF15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG15" t="n">
         <v>19</v>
       </c>
       <c r="AH15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI15" t="n">
         <v>51</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>41</v>
       </c>
       <c r="AJ15" t="n">
         <v>51</v>
@@ -2496,10 +2496,10 @@
         <v>3.4</v>
       </c>
       <c r="N17" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O17" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P17" t="n">
         <v>1.44</v>
@@ -2597,13 +2597,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H18" t="n">
         <v>3.2</v>
       </c>
       <c r="I18" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J18" t="n">
         <v>1.05</v>
@@ -2639,7 +2639,7 @@
         <v>9</v>
       </c>
       <c r="U18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V18" t="n">
         <v>9</v>
@@ -2672,7 +2672,7 @@
         <v>12</v>
       </c>
       <c r="AF18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG18" t="n">
         <v>12</v>
@@ -2681,7 +2681,7 @@
         <v>34</v>
       </c>
       <c r="AI18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ18" t="n">
         <v>29</v>
@@ -2841,37 +2841,37 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H20" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I20" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J20" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="K20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L20" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M20" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N20" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="O20" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="P20" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R20" t="n">
         <v>2</v>
@@ -2880,7 +2880,7 @@
         <v>1.73</v>
       </c>
       <c r="T20" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U20" t="n">
         <v>12</v>
@@ -2898,7 +2898,7 @@
         <v>41</v>
       </c>
       <c r="Z20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA20" t="n">
         <v>6</v>
@@ -2907,13 +2907,13 @@
         <v>17</v>
       </c>
       <c r="AC20" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD20" t="n">
-        <v>1250</v>
+        <v>900</v>
       </c>
       <c r="AE20" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF20" t="n">
         <v>12</v>
@@ -3081,90 +3081,90 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="H22" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="I22" t="n">
-        <v>4.65</v>
+        <v>5.3</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O22" t="n">
         <v>1.47</v>
       </c>
-      <c r="M22" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="N22" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.45</v>
-      </c>
       <c r="P22" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R22" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="S22" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="T22" t="n">
         <v>5</v>
       </c>
       <c r="U22" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V22" t="n">
         <v>9</v>
       </c>
       <c r="W22" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="X22" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y22" t="n">
         <v>45</v>
       </c>
       <c r="Z22" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AA22" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AB22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC22" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AD22" t="n">
         <v>101</v>
       </c>
       <c r="AE22" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AF22" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AG22" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH22" t="n">
+        <v>110</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>90</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>75</v>
       </c>
     </row>
     <row r="23">
@@ -3199,10 +3199,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H23" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I23" t="n">
         <v>1.95</v>
@@ -3220,25 +3220,25 @@
         <v>3.5</v>
       </c>
       <c r="N23" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="O23" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="P23" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R23" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S23" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U23" t="n">
         <v>19</v>
@@ -3253,28 +3253,28 @@
         <v>29</v>
       </c>
       <c r="Y23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA23" t="n">
         <v>6.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC23" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD23" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE23" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG23" t="n">
         <v>9</v>
@@ -3283,7 +3283,7 @@
         <v>17</v>
       </c>
       <c r="AI23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ23" t="n">
         <v>26</v>
@@ -3321,10 +3321,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H24" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I24" t="n">
         <v>2</v>
@@ -3333,19 +3333,19 @@
         <v>1.06</v>
       </c>
       <c r="K24" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M24" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N24" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="O24" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P24" t="n">
         <v>1.44</v>
@@ -3372,13 +3372,13 @@
         <v>41</v>
       </c>
       <c r="X24" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y24" t="n">
         <v>41</v>
       </c>
       <c r="Z24" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA24" t="n">
         <v>6.5</v>
@@ -3390,13 +3390,13 @@
         <v>51</v>
       </c>
       <c r="AD24" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE24" t="n">
         <v>7</v>
       </c>
       <c r="AF24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG24" t="n">
         <v>9</v>
@@ -3443,13 +3443,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H25" t="n">
         <v>3.2</v>
       </c>
       <c r="I25" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J25" t="n">
         <v>1.07</v>
@@ -3494,7 +3494,7 @@
         <v>34</v>
       </c>
       <c r="X25" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y25" t="n">
         <v>41</v>
@@ -3515,7 +3515,7 @@
         <v>301</v>
       </c>
       <c r="AE25" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF25" t="n">
         <v>10</v>
@@ -3586,10 +3586,10 @@
         <v>3.75</v>
       </c>
       <c r="N26" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="O26" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="P26" t="n">
         <v>1.4</v>
@@ -3687,13 +3687,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H27" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I27" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J27" t="n">
         <v>1.07</v>
@@ -3708,16 +3708,16 @@
         <v>3</v>
       </c>
       <c r="N27" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O27" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P27" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R27" t="n">
         <v>2.1</v>
@@ -3738,13 +3738,13 @@
         <v>13</v>
       </c>
       <c r="X27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y27" t="n">
         <v>34</v>
       </c>
       <c r="Z27" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA27" t="n">
         <v>7</v>
@@ -3809,10 +3809,10 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="H28" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I28" t="n">
         <v>1.95</v>
@@ -3823,13 +3823,13 @@
         <v>1.1</v>
       </c>
       <c r="M28" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="N28" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="O28" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="P28" t="n">
         <v>1.21</v>
@@ -3838,10 +3838,10 @@
         <v>3.9</v>
       </c>
       <c r="R28" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="S28" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="T28" t="n">
         <v>21</v>
@@ -3856,7 +3856,7 @@
         <v>50</v>
       </c>
       <c r="X28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y28" t="n">
         <v>19.5</v>
@@ -3868,31 +3868,31 @@
         <v>9.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AD28" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AE28" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF28" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AH28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI28" t="n">
         <v>13</v>
       </c>
       <c r="AJ28" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
@@ -3927,43 +3927,43 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H29" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I29" t="n">
         <v>3.45</v>
       </c>
       <c r="J29" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K29" t="n">
         <v>9.75</v>
       </c>
       <c r="L29" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="M29" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="N29" t="n">
         <v>1.4</v>
       </c>
       <c r="O29" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="P29" t="n">
         <v>1.25</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="R29" t="n">
         <v>1.38</v>
       </c>
       <c r="S29" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="T29" t="n">
         <v>13</v>
@@ -3975,7 +3975,7 @@
         <v>8.75</v>
       </c>
       <c r="W29" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="X29" t="n">
         <v>13</v>
@@ -3987,10 +3987,10 @@
         <v>9.75</v>
       </c>
       <c r="AA29" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AB29" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AC29" t="n">
         <v>28</v>
@@ -3999,13 +3999,13 @@
         <v>120</v>
       </c>
       <c r="AE29" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AF29" t="n">
         <v>27</v>
       </c>
       <c r="AG29" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH29" t="n">
         <v>55</v>
@@ -4293,31 +4293,31 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="H32" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I32" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J32" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K32" t="n">
         <v>13</v>
       </c>
       <c r="L32" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N32" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="O32" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P32" t="n">
         <v>1.33</v>
@@ -4335,13 +4335,13 @@
         <v>8.5</v>
       </c>
       <c r="U32" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V32" t="n">
         <v>8.5</v>
       </c>
       <c r="W32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X32" t="n">
         <v>13</v>
@@ -4368,13 +4368,13 @@
         <v>15</v>
       </c>
       <c r="AF32" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG32" t="n">
         <v>15</v>
       </c>
       <c r="AH32" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI32" t="n">
         <v>34</v>
@@ -4415,7 +4415,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="H33" t="n">
         <v>3.8</v>
@@ -4424,19 +4424,19 @@
         <v>4.33</v>
       </c>
       <c r="J33" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K33" t="n">
         <v>19</v>
       </c>
       <c r="L33" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="M33" t="n">
         <v>5.5</v>
       </c>
       <c r="N33" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="O33" t="n">
         <v>2.6</v>
@@ -4558,7 +4558,7 @@
         <v>2.82</v>
       </c>
       <c r="N34" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="O34" t="n">
         <v>1.65</v>
@@ -4600,7 +4600,7 @@
         <v>6.3</v>
       </c>
       <c r="AB34" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC34" t="n">
         <v>90</v>
@@ -4609,7 +4609,7 @@
         <v>800</v>
       </c>
       <c r="AE34" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF34" t="n">
         <v>19.5</v>
@@ -4624,7 +4624,7 @@
         <v>37</v>
       </c>
       <c r="AJ34" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35">
@@ -4665,7 +4665,7 @@
         <v>3.9</v>
       </c>
       <c r="I35" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="J35" t="n">
         <v>1.07</v>
@@ -4680,7 +4680,7 @@
         <v>3.05</v>
       </c>
       <c r="N35" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O35" t="n">
         <v>1.75</v>
@@ -4695,10 +4695,10 @@
         <v>2.18</v>
       </c>
       <c r="S35" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="T35" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="U35" t="n">
         <v>6</v>
@@ -4731,13 +4731,13 @@
         <v>1000</v>
       </c>
       <c r="AE35" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF35" t="n">
         <v>40</v>
       </c>
       <c r="AG35" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH35" t="n">
         <v>175</v>
@@ -4746,7 +4746,7 @@
         <v>90</v>
       </c>
       <c r="AJ35" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36">
@@ -4784,7 +4784,7 @@
         <v>1.6</v>
       </c>
       <c r="H36" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I36" t="n">
         <v>4.6</v>
@@ -4792,60 +4792,60 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M36" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="N36" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="O36" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S36" t="n">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="T36" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="U36" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="V36" t="n">
         <v>6.9</v>
       </c>
       <c r="W36" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="X36" t="n">
         <v>10.25</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AA36" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AB36" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC36" t="n">
         <v>50</v>
       </c>
       <c r="AD36" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AE36" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AF36" t="n">
         <v>22</v>
@@ -4904,16 +4904,16 @@
         <v>2.25</v>
       </c>
       <c r="J37" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="K37" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="L37" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M37" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="N37" t="n">
         <v>2.6</v>
@@ -4925,13 +4925,13 @@
         <v>1.57</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R37" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S37" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="T37" t="n">
         <v>7.5</v>
@@ -5139,13 +5139,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="H39" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I39" t="n">
-        <v>3.8</v>
+        <v>4.33</v>
       </c>
       <c r="J39" t="n">
         <v>1.06</v>
@@ -5154,16 +5154,16 @@
         <v>10</v>
       </c>
       <c r="L39" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M39" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N39" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="O39" t="n">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="P39" t="n">
         <v>1.4</v>
@@ -5178,31 +5178,31 @@
         <v>2</v>
       </c>
       <c r="T39" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U39" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="V39" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W39" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X39" t="n">
         <v>17</v>
       </c>
       <c r="Y39" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z39" t="n">
         <v>9</v>
       </c>
       <c r="AA39" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB39" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC39" t="n">
         <v>41</v>
@@ -5214,19 +5214,19 @@
         <v>12</v>
       </c>
       <c r="AF39" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG39" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH39" t="n">
         <v>41</v>
       </c>
       <c r="AI39" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ39" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40">
@@ -5383,31 +5383,31 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H41" t="n">
         <v>3.5</v>
       </c>
       <c r="I41" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J41" t="n">
         <v>1.04</v>
       </c>
       <c r="K41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L41" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M41" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N41" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O41" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P41" t="n">
         <v>1.36</v>
@@ -5416,22 +5416,22 @@
         <v>3</v>
       </c>
       <c r="R41" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S41" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T41" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U41" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V41" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W41" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X41" t="n">
         <v>15</v>
@@ -5452,7 +5452,7 @@
         <v>41</v>
       </c>
       <c r="AD41" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE41" t="n">
         <v>12</v>
@@ -5505,37 +5505,37 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="H42" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I42" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="J42" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K42" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L42" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N42" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="O42" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="P42" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q42" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R42" t="n">
         <v>1.67</v>
@@ -5547,25 +5547,25 @@
         <v>8.5</v>
       </c>
       <c r="U42" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V42" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W42" t="n">
+        <v>17</v>
+      </c>
+      <c r="X42" t="n">
         <v>15</v>
-      </c>
-      <c r="X42" t="n">
-        <v>13</v>
       </c>
       <c r="Y42" t="n">
         <v>23</v>
       </c>
       <c r="Z42" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA42" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB42" t="n">
         <v>13</v>
@@ -5577,19 +5577,19 @@
         <v>151</v>
       </c>
       <c r="AE42" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF42" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG42" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH42" t="n">
         <v>41</v>
       </c>
       <c r="AI42" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ42" t="n">
         <v>34</v>
@@ -5627,13 +5627,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H43" t="n">
         <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J43" t="n">
         <v>1.08</v>
@@ -5666,7 +5666,7 @@
         <v>1.83</v>
       </c>
       <c r="T43" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U43" t="n">
         <v>11</v>
@@ -5708,7 +5708,7 @@
         <v>12</v>
       </c>
       <c r="AH43" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI43" t="n">
         <v>26</v>
@@ -5749,13 +5749,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H44" t="n">
         <v>3.1</v>
       </c>
       <c r="I44" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J44" t="n">
         <v>1.11</v>
@@ -5782,19 +5782,19 @@
         <v>2.25</v>
       </c>
       <c r="R44" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S44" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T44" t="n">
         <v>6</v>
       </c>
       <c r="U44" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V44" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W44" t="n">
         <v>19</v>
@@ -5821,22 +5821,22 @@
         <v>800</v>
       </c>
       <c r="AE44" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF44" t="n">
         <v>17</v>
       </c>
       <c r="AG44" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH44" t="n">
         <v>41</v>
       </c>
       <c r="AI44" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ44" t="n">
         <v>41</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="45">
@@ -5871,13 +5871,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H45" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I45" t="n">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="J45" t="n">
         <v>1.06</v>
@@ -5913,19 +5913,19 @@
         <v>6</v>
       </c>
       <c r="U45" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V45" t="n">
         <v>8.5</v>
       </c>
       <c r="W45" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X45" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y45" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z45" t="n">
         <v>9</v>
@@ -5934,7 +5934,7 @@
         <v>7.5</v>
       </c>
       <c r="AB45" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC45" t="n">
         <v>67</v>
@@ -5949,13 +5949,13 @@
         <v>29</v>
       </c>
       <c r="AG45" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH45" t="n">
         <v>67</v>
       </c>
       <c r="AI45" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ45" t="n">
         <v>51</v>
@@ -5993,19 +5993,19 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="H46" t="n">
         <v>3.35</v>
       </c>
       <c r="I46" t="n">
-        <v>4.3</v>
+        <v>3.45</v>
       </c>
       <c r="J46" t="n">
         <v>1.07</v>
       </c>
       <c r="K46" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="L46" t="n">
         <v>1.33</v>
@@ -6023,64 +6023,64 @@
         <v>1.44</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="R46" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="S46" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="T46" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="U46" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V46" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W46" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="X46" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="Y46" t="n">
         <v>29</v>
       </c>
       <c r="Z46" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AA46" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AB46" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC46" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AD46" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AE46" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AF46" t="n">
-        <v>24</v>
+        <v>18.5</v>
       </c>
       <c r="AG46" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH46" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AI46" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="AJ46" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47">
@@ -6115,13 +6115,13 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="H47" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I47" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="J47" t="n">
         <v>1.05</v>
@@ -6130,40 +6130,40 @@
         <v>7.6</v>
       </c>
       <c r="L47" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M47" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="N47" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O47" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="P47" t="n">
         <v>1.39</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="R47" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S47" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="T47" t="n">
         <v>6.3</v>
       </c>
       <c r="U47" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="V47" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W47" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="X47" t="n">
         <v>12.5</v>
@@ -6175,34 +6175,34 @@
         <v>7.6</v>
       </c>
       <c r="AA47" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AB47" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC47" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AD47" t="n">
         <v>900</v>
       </c>
       <c r="AE47" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF47" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG47" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH47" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AI47" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AJ47" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48">
@@ -6237,13 +6237,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I48" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="J48" t="n">
         <v>1.07</v>
@@ -6252,7 +6252,7 @@
         <v>7</v>
       </c>
       <c r="L48" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M48" t="n">
         <v>3.25</v>
@@ -6261,19 +6261,19 @@
         <v>1.88</v>
       </c>
       <c r="O48" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="P48" t="n">
         <v>1.44</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="R48" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S48" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="T48" t="n">
         <v>9</v>
@@ -6285,22 +6285,22 @@
         <v>9.25</v>
       </c>
       <c r="W48" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X48" t="n">
         <v>21</v>
       </c>
       <c r="Y48" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z48" t="n">
         <v>7</v>
       </c>
       <c r="AA48" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AB48" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AC48" t="n">
         <v>50</v>
@@ -6309,10 +6309,10 @@
         <v>350</v>
       </c>
       <c r="AE48" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AF48" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG48" t="n">
         <v>9.75</v>
@@ -6321,10 +6321,10 @@
         <v>35</v>
       </c>
       <c r="AI48" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ48" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49">
@@ -6481,25 +6481,25 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="H50" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I50" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J50" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K50" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L50" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M50" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N50" t="n">
         <v>2.1</v>
@@ -6514,16 +6514,16 @@
         <v>2.63</v>
       </c>
       <c r="R50" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S50" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T50" t="n">
         <v>8</v>
       </c>
       <c r="U50" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V50" t="n">
         <v>10</v>
@@ -6532,13 +6532,13 @@
         <v>26</v>
       </c>
       <c r="X50" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y50" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z50" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA50" t="n">
         <v>6</v>
@@ -6550,19 +6550,19 @@
         <v>51</v>
       </c>
       <c r="AD50" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE50" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF50" t="n">
         <v>13</v>
       </c>
       <c r="AG50" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH50" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI50" t="n">
         <v>23</v>
@@ -6606,10 +6606,10 @@
         <v>3.5</v>
       </c>
       <c r="H51" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I51" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J51" t="n">
         <v>1.07</v>
@@ -6728,7 +6728,7 @@
         <v>1.2</v>
       </c>
       <c r="H52" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="I52" t="n">
         <v>11</v>
@@ -6737,25 +6737,25 @@
         <v>1.01</v>
       </c>
       <c r="K52" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L52" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="M52" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="N52" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="O52" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="P52" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="Q52" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="R52" t="n">
         <v>1.83</v>
@@ -6764,10 +6764,10 @@
         <v>1.83</v>
       </c>
       <c r="T52" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U52" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V52" t="n">
         <v>10</v>
@@ -6782,10 +6782,10 @@
         <v>23</v>
       </c>
       <c r="Z52" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AA52" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB52" t="n">
         <v>23</v>
@@ -6797,7 +6797,7 @@
         <v>251</v>
       </c>
       <c r="AE52" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF52" t="n">
         <v>51</v>
@@ -6847,10 +6847,10 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="H53" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I53" t="n">
         <v>1.65</v>
@@ -6858,55 +6858,55 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="M53" t="n">
-        <v>2.37</v>
+        <v>2.47</v>
       </c>
       <c r="N53" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="O53" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P53" t="n">
         <v>1.47</v>
       </c>
-      <c r="P53" t="n">
-        <v>1.5</v>
-      </c>
       <c r="Q53" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="R53" t="n">
-        <v>2.27</v>
+        <v>2.18</v>
       </c>
       <c r="S53" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T53" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="U53" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V53" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="W53" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="X53" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Y53" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Z53" t="n">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="AA53" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AB53" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AC53" t="n">
         <v>175</v>
@@ -6915,22 +6915,22 @@
         <v>101</v>
       </c>
       <c r="AE53" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="AF53" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AG53" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH53" t="n">
         <v>11.5</v>
       </c>
       <c r="AI53" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ53" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54">
@@ -7108,10 +7108,10 @@
         <v>2.63</v>
       </c>
       <c r="N55" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O55" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P55" t="n">
         <v>1.53</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-14.xlsx
@@ -668,10 +668,10 @@
         <v>4.33</v>
       </c>
       <c r="N2" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="P2" t="n">
         <v>1.33</v>
@@ -692,7 +692,7 @@
         <v>12</v>
       </c>
       <c r="V2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W2" t="n">
         <v>21</v>
@@ -716,10 +716,10 @@
         <v>41</v>
       </c>
       <c r="AD2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF2" t="n">
         <v>21</v>
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="H3" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J3" t="n">
         <v>1.05</v>
@@ -790,16 +790,16 @@
         <v>3.75</v>
       </c>
       <c r="N3" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="O3" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="P3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R3" t="n">
         <v>2.2</v>
@@ -928,13 +928,13 @@
         <v>1.53</v>
       </c>
       <c r="T4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U4" t="n">
         <v>6</v>
       </c>
       <c r="V4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W4" t="n">
         <v>6.5</v>
@@ -964,19 +964,19 @@
         <v>41</v>
       </c>
       <c r="AF4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH4" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AI4" t="n">
         <v>151</v>
       </c>
       <c r="AJ4" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
@@ -1011,13 +1011,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I5" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J5" t="n">
         <v>1.05</v>
@@ -1026,31 +1026,31 @@
         <v>11</v>
       </c>
       <c r="L5" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N5" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="O5" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="P5" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R5" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S5" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U5" t="n">
         <v>19</v>
@@ -1062,7 +1062,7 @@
         <v>41</v>
       </c>
       <c r="X5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y5" t="n">
         <v>41</v>
@@ -1074,7 +1074,7 @@
         <v>7</v>
       </c>
       <c r="AB5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC5" t="n">
         <v>51</v>
@@ -1089,16 +1089,16 @@
         <v>9</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH5" t="n">
         <v>17</v>
       </c>
       <c r="AI5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -1133,31 +1133,31 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H6" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I6" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J6" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="M6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N6" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
         <v>1.67</v>
@@ -1166,13 +1166,13 @@
         <v>2.1</v>
       </c>
       <c r="R6" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S6" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U6" t="n">
         <v>10</v>
@@ -1181,7 +1181,7 @@
         <v>11</v>
       </c>
       <c r="W6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X6" t="n">
         <v>26</v>
@@ -1208,16 +1208,16 @@
         <v>7</v>
       </c>
       <c r="AF6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG6" t="n">
         <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ6" t="n">
         <v>51</v>
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H7" t="n">
         <v>3.1</v>
@@ -1294,10 +1294,10 @@
         <v>1.8</v>
       </c>
       <c r="T7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V7" t="n">
         <v>10</v>
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J8" t="n">
         <v>1.11</v>
@@ -1392,10 +1392,10 @@
         <v>6.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="M8" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="N8" t="n">
         <v>2.7</v>
@@ -1410,10 +1410,10 @@
         <v>2.2</v>
       </c>
       <c r="R8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S8" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T8" t="n">
         <v>7.5</v>
@@ -1437,7 +1437,7 @@
         <v>6.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB8" t="n">
         <v>21</v>
@@ -1505,13 +1505,13 @@
         <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L9" t="n">
         <v>1.5</v>
@@ -1547,7 +1547,7 @@
         <v>9.5</v>
       </c>
       <c r="W9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X9" t="n">
         <v>17</v>
@@ -1571,13 +1571,13 @@
         <v>101</v>
       </c>
       <c r="AE9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH9" t="n">
         <v>67</v>
@@ -1630,13 +1630,13 @@
         <v>2.75</v>
       </c>
       <c r="J10" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="K10" t="n">
         <v>5.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="M10" t="n">
         <v>2.2</v>
@@ -1654,10 +1654,10 @@
         <v>2.1</v>
       </c>
       <c r="R10" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="S10" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T10" t="n">
         <v>6.5</v>
@@ -1752,16 +1752,16 @@
         <v>5.25</v>
       </c>
       <c r="J11" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K11" t="n">
         <v>8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M11" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="N11" t="n">
         <v>2.4</v>
@@ -1776,10 +1776,10 @@
         <v>2.38</v>
       </c>
       <c r="R11" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="S11" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T11" t="n">
         <v>5</v>
@@ -1874,13 +1874,13 @@
         <v>4.33</v>
       </c>
       <c r="J12" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="K12" t="n">
         <v>6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="M12" t="n">
         <v>2.1</v>
@@ -1898,10 +1898,10 @@
         <v>2.1</v>
       </c>
       <c r="R12" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="S12" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T12" t="n">
         <v>4.75</v>
@@ -2109,28 +2109,28 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
         <v>2.75</v>
       </c>
       <c r="I14" t="n">
-        <v>4.45</v>
+        <v>4.55</v>
       </c>
       <c r="J14" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K14" t="n">
         <v>5.7</v>
       </c>
       <c r="L14" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M14" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="N14" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="O14" t="n">
         <v>1.6</v>
@@ -2142,13 +2142,13 @@
         <v>2.5</v>
       </c>
       <c r="R14" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S14" t="n">
         <v>1.87</v>
       </c>
       <c r="T14" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="U14" t="n">
         <v>9.25</v>
@@ -2157,13 +2157,13 @@
         <v>8.25</v>
       </c>
       <c r="W14" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="X14" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z14" t="n">
         <v>5.7</v>
@@ -2181,10 +2181,10 @@
         <v>600</v>
       </c>
       <c r="AE14" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AF14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG14" t="n">
         <v>14</v>
@@ -2231,19 +2231,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="H15" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I15" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J15" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L15" t="n">
         <v>1.33</v>
@@ -2252,10 +2252,10 @@
         <v>3.25</v>
       </c>
       <c r="N15" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O15" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P15" t="n">
         <v>1.44</v>
@@ -2273,28 +2273,28 @@
         <v>6</v>
       </c>
       <c r="U15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V15" t="n">
         <v>8.5</v>
       </c>
       <c r="W15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z15" t="n">
         <v>9</v>
       </c>
       <c r="AA15" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC15" t="n">
         <v>67</v>
@@ -2303,13 +2303,13 @@
         <v>351</v>
       </c>
       <c r="AE15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH15" t="n">
         <v>67</v>
@@ -2374,10 +2374,10 @@
         <v>4.33</v>
       </c>
       <c r="N16" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O16" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P16" t="n">
         <v>1.3</v>
@@ -2719,19 +2719,19 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H19" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I19" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J19" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L19" t="n">
         <v>1.22</v>
@@ -2740,10 +2740,10 @@
         <v>4</v>
       </c>
       <c r="N19" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="O19" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="P19" t="n">
         <v>1.36</v>
@@ -2752,10 +2752,10 @@
         <v>3</v>
       </c>
       <c r="R19" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S19" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T19" t="n">
         <v>10</v>
@@ -2767,7 +2767,7 @@
         <v>10</v>
       </c>
       <c r="W19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X19" t="n">
         <v>19</v>
@@ -2776,10 +2776,10 @@
         <v>26</v>
       </c>
       <c r="Z19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA19" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB19" t="n">
         <v>12</v>
@@ -2806,7 +2806,7 @@
         <v>21</v>
       </c>
       <c r="AJ19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
@@ -2841,13 +2841,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H20" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I20" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J20" t="n">
         <v>1.07</v>
@@ -2856,16 +2856,16 @@
         <v>9</v>
       </c>
       <c r="L20" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M20" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N20" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O20" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P20" t="n">
         <v>1.5</v>
@@ -2874,10 +2874,10 @@
         <v>2.5</v>
       </c>
       <c r="R20" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S20" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T20" t="n">
         <v>7.5</v>
@@ -2886,7 +2886,7 @@
         <v>12</v>
       </c>
       <c r="V20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W20" t="n">
         <v>26</v>
@@ -2895,10 +2895,10 @@
         <v>23</v>
       </c>
       <c r="Y20" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA20" t="n">
         <v>6</v>
@@ -2910,10 +2910,10 @@
         <v>51</v>
       </c>
       <c r="AD20" t="n">
-        <v>900</v>
+        <v>351</v>
       </c>
       <c r="AE20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF20" t="n">
         <v>12</v>
@@ -2928,7 +2928,7 @@
         <v>23</v>
       </c>
       <c r="AJ20" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
@@ -3081,66 +3081,70 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="H22" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="I22" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>4.85</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K22" t="n">
+        <v>6</v>
+      </c>
       <c r="L22" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="M22" t="n">
-        <v>2.37</v>
+        <v>2.2</v>
       </c>
       <c r="N22" t="n">
-        <v>2.32</v>
+        <v>2.47</v>
       </c>
       <c r="O22" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="P22" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R22" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="S22" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="T22" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="U22" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="V22" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W22" t="n">
+        <v>14</v>
+      </c>
+      <c r="X22" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AA22" t="n">
         <v>6.5</v>
       </c>
-      <c r="V22" t="n">
-        <v>9</v>
-      </c>
-      <c r="W22" t="n">
-        <v>12</v>
-      </c>
-      <c r="X22" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>6.8</v>
-      </c>
       <c r="AB22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC22" t="n">
         <v>175</v>
@@ -3149,19 +3153,19 @@
         <v>101</v>
       </c>
       <c r="AE22" t="n">
-        <v>10.25</v>
+        <v>9.25</v>
       </c>
       <c r="AF22" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AG22" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AH22" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AI22" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ22" t="n">
         <v>90</v>
@@ -3321,31 +3325,31 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H24" t="n">
         <v>3.4</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J24" t="n">
         <v>1.06</v>
       </c>
       <c r="K24" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L24" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M24" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N24" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="O24" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="P24" t="n">
         <v>1.44</v>
@@ -3372,13 +3376,13 @@
         <v>41</v>
       </c>
       <c r="X24" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y24" t="n">
         <v>41</v>
       </c>
       <c r="Z24" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA24" t="n">
         <v>6.5</v>
@@ -3390,13 +3394,13 @@
         <v>51</v>
       </c>
       <c r="AD24" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE24" t="n">
         <v>7</v>
       </c>
       <c r="AF24" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG24" t="n">
         <v>9</v>
@@ -3443,19 +3447,19 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H25" t="n">
         <v>3.2</v>
       </c>
       <c r="I25" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J25" t="n">
         <v>1.07</v>
       </c>
       <c r="K25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L25" t="n">
         <v>1.36</v>
@@ -3494,7 +3498,7 @@
         <v>34</v>
       </c>
       <c r="X25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y25" t="n">
         <v>41</v>
@@ -3515,7 +3519,7 @@
         <v>301</v>
       </c>
       <c r="AE25" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF25" t="n">
         <v>10</v>
@@ -3565,13 +3569,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H26" t="n">
         <v>3.2</v>
       </c>
       <c r="I26" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="J26" t="n">
         <v>1.06</v>
@@ -3586,10 +3590,10 @@
         <v>3.75</v>
       </c>
       <c r="N26" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="O26" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="P26" t="n">
         <v>1.4</v>
@@ -3598,22 +3602,22 @@
         <v>2.75</v>
       </c>
       <c r="R26" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S26" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T26" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X26" t="n">
         <v>21</v>
@@ -3809,90 +3813,90 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H28" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="I28" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="M28" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="N28" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="O28" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="P28" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="R28" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S28" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T28" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="U28" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="V28" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="W28" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="X28" t="n">
         <v>22</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z28" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA28" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB28" t="n">
         <v>10.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AD28" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AE28" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF28" t="n">
         <v>16</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>15.5</v>
       </c>
       <c r="AG28" t="n">
         <v>9.25</v>
       </c>
       <c r="AH28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI28" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AJ28" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="29">
@@ -3936,34 +3940,34 @@
         <v>3.45</v>
       </c>
       <c r="J29" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K29" t="n">
         <v>9.75</v>
       </c>
       <c r="L29" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="M29" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="N29" t="n">
         <v>1.4</v>
       </c>
       <c r="O29" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="P29" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="R29" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S29" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="T29" t="n">
         <v>13</v>
@@ -3987,25 +3991,25 @@
         <v>9.75</v>
       </c>
       <c r="AA29" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AB29" t="n">
         <v>10.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD29" t="n">
         <v>120</v>
       </c>
       <c r="AE29" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AF29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG29" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH29" t="n">
         <v>55</v>
@@ -4014,7 +4018,7 @@
         <v>25</v>
       </c>
       <c r="AJ29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30">
@@ -4058,10 +4062,10 @@
         <v>9.5</v>
       </c>
       <c r="J30" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K30" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="L30" t="n">
         <v>1.29</v>
@@ -4070,10 +4074,10 @@
         <v>3.5</v>
       </c>
       <c r="N30" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="O30" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="P30" t="n">
         <v>1.4</v>
@@ -4082,10 +4086,10 @@
         <v>2.75</v>
       </c>
       <c r="R30" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S30" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T30" t="n">
         <v>6</v>
@@ -4177,7 +4181,7 @@
         <v>3.1</v>
       </c>
       <c r="I31" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
         <v>1.05</v>
@@ -4192,16 +4196,16 @@
         <v>3.75</v>
       </c>
       <c r="N31" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O31" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P31" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R31" t="n">
         <v>1.67</v>
@@ -4222,7 +4226,7 @@
         <v>21</v>
       </c>
       <c r="X31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y31" t="n">
         <v>26</v>
@@ -4231,7 +4235,7 @@
         <v>11</v>
       </c>
       <c r="AA31" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB31" t="n">
         <v>12</v>
@@ -4293,37 +4297,37 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="H32" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I32" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J32" t="n">
         <v>1.03</v>
       </c>
       <c r="K32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L32" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M32" t="n">
         <v>4.33</v>
       </c>
       <c r="N32" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="O32" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P32" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q32" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R32" t="n">
         <v>1.67</v>
@@ -4332,7 +4336,7 @@
         <v>2.1</v>
       </c>
       <c r="T32" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U32" t="n">
         <v>9</v>
@@ -4350,7 +4354,7 @@
         <v>21</v>
       </c>
       <c r="Z32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA32" t="n">
         <v>7.5</v>
@@ -4415,7 +4419,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="H33" t="n">
         <v>3.8</v>
@@ -4424,19 +4428,19 @@
         <v>4.33</v>
       </c>
       <c r="J33" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K33" t="n">
         <v>19</v>
       </c>
       <c r="L33" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="M33" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N33" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="O33" t="n">
         <v>2.6</v>
@@ -4457,7 +4461,7 @@
         <v>11</v>
       </c>
       <c r="U33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V33" t="n">
         <v>8.5</v>
@@ -4543,7 +4547,7 @@
         <v>3.2</v>
       </c>
       <c r="I34" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J34" t="n">
         <v>1.08</v>
@@ -4570,13 +4574,13 @@
         <v>2.5</v>
       </c>
       <c r="R34" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S34" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="T34" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="U34" t="n">
         <v>8.5</v>
@@ -4600,7 +4604,7 @@
         <v>6.3</v>
       </c>
       <c r="AB34" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC34" t="n">
         <v>90</v>
@@ -4609,7 +4613,7 @@
         <v>800</v>
       </c>
       <c r="AE34" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AF34" t="n">
         <v>19.5</v>
@@ -4781,53 +4785,53 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H36" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I36" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M36" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="N36" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O36" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="S36" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="T36" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="U36" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="V36" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="W36" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="X36" t="n">
         <v>10.25</v>
       </c>
       <c r="Y36" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z36" t="n">
         <v>11.5</v>
@@ -4836,31 +4840,31 @@
         <v>6.4</v>
       </c>
       <c r="AB36" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC36" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AD36" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AE36" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AF36" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG36" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH36" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI36" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AJ36" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37">
@@ -4895,19 +4899,19 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I37" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J37" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K37" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L37" t="n">
         <v>1.5</v>
@@ -4922,16 +4926,16 @@
         <v>1.48</v>
       </c>
       <c r="P37" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="R37" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S37" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="T37" t="n">
         <v>7.5</v>
@@ -4940,19 +4944,19 @@
         <v>15</v>
       </c>
       <c r="V37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W37" t="n">
+        <v>41</v>
+      </c>
+      <c r="X37" t="n">
         <v>34</v>
-      </c>
-      <c r="X37" t="n">
-        <v>29</v>
       </c>
       <c r="Y37" t="n">
         <v>41</v>
       </c>
       <c r="Z37" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA37" t="n">
         <v>6</v>
@@ -4961,7 +4965,7 @@
         <v>19</v>
       </c>
       <c r="AC37" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD37" t="n">
         <v>351</v>
@@ -4970,7 +4974,7 @@
         <v>6</v>
       </c>
       <c r="AF37" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG37" t="n">
         <v>10</v>
@@ -5139,31 +5143,31 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H39" t="n">
         <v>3</v>
       </c>
       <c r="I39" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J39" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K39" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L39" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M39" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N39" t="n">
-        <v>1.99</v>
+        <v>2.03</v>
       </c>
       <c r="O39" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="P39" t="n">
         <v>1.4</v>
@@ -5172,16 +5176,16 @@
         <v>2.75</v>
       </c>
       <c r="R39" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S39" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T39" t="n">
         <v>7.5</v>
       </c>
       <c r="U39" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V39" t="n">
         <v>9</v>
@@ -5190,7 +5194,7 @@
         <v>17</v>
       </c>
       <c r="X39" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y39" t="n">
         <v>29</v>
@@ -5211,7 +5215,7 @@
         <v>201</v>
       </c>
       <c r="AE39" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF39" t="n">
         <v>21</v>
@@ -5261,13 +5265,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H40" t="n">
         <v>3.4</v>
       </c>
       <c r="I40" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J40" t="n">
         <v>1.04</v>
@@ -5306,7 +5310,7 @@
         <v>12</v>
       </c>
       <c r="V40" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W40" t="n">
         <v>21</v>
@@ -5333,19 +5337,19 @@
         <v>151</v>
       </c>
       <c r="AE40" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF40" t="n">
         <v>17</v>
       </c>
       <c r="AG40" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH40" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI40" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ40" t="n">
         <v>29</v>
@@ -5395,7 +5399,7 @@
         <v>1.04</v>
       </c>
       <c r="K41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L41" t="n">
         <v>1.22</v>
@@ -5508,28 +5512,28 @@
         <v>1.91</v>
       </c>
       <c r="H42" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I42" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J42" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K42" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L42" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M42" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N42" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="O42" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="P42" t="n">
         <v>1.36</v>
@@ -5562,7 +5566,7 @@
         <v>23</v>
       </c>
       <c r="Z42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA42" t="n">
         <v>6.5</v>
@@ -5627,19 +5631,19 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H43" t="n">
         <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J43" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K43" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L43" t="n">
         <v>1.36</v>
@@ -5696,16 +5700,16 @@
         <v>51</v>
       </c>
       <c r="AD43" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE43" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF43" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG43" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH43" t="n">
         <v>29</v>
@@ -5749,19 +5753,19 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H44" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I44" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J44" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K44" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L44" t="n">
         <v>1.5</v>
@@ -5770,10 +5774,10 @@
         <v>2.5</v>
       </c>
       <c r="N44" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O44" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P44" t="n">
         <v>1.57</v>
@@ -5782,25 +5786,25 @@
         <v>2.25</v>
       </c>
       <c r="R44" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S44" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T44" t="n">
         <v>6</v>
       </c>
       <c r="U44" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V44" t="n">
         <v>10</v>
       </c>
       <c r="W44" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X44" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y44" t="n">
         <v>41</v>
@@ -5824,7 +5828,7 @@
         <v>8</v>
       </c>
       <c r="AF44" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG44" t="n">
         <v>13</v>
@@ -5871,13 +5875,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H45" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I45" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="J45" t="n">
         <v>1.06</v>
@@ -5886,55 +5890,55 @@
         <v>10</v>
       </c>
       <c r="L45" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M45" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N45" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O45" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P45" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R45" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S45" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T45" t="n">
         <v>6</v>
       </c>
       <c r="U45" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V45" t="n">
         <v>8.5</v>
       </c>
       <c r="W45" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X45" t="n">
         <v>13</v>
       </c>
       <c r="Y45" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z45" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA45" t="n">
         <v>7.5</v>
       </c>
       <c r="AB45" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC45" t="n">
         <v>67</v>
@@ -5949,7 +5953,7 @@
         <v>29</v>
       </c>
       <c r="AG45" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH45" t="n">
         <v>67</v>
@@ -5993,13 +5997,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="H46" t="n">
         <v>3.35</v>
       </c>
       <c r="I46" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="J46" t="n">
         <v>1.07</v>
@@ -6014,7 +6018,7 @@
         <v>3.05</v>
       </c>
       <c r="N46" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O46" t="n">
         <v>1.75</v>
@@ -6026,7 +6030,7 @@
         <v>2.6</v>
       </c>
       <c r="R46" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S46" t="n">
         <v>1.88</v>
@@ -6056,7 +6060,7 @@
         <v>6.5</v>
       </c>
       <c r="AB46" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC46" t="n">
         <v>75</v>
@@ -6065,13 +6069,13 @@
         <v>600</v>
       </c>
       <c r="AE46" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AF46" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AG46" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH46" t="n">
         <v>50</v>
@@ -6115,37 +6119,37 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="H47" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="I47" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="J47" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K47" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="L47" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M47" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N47" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="O47" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="P47" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="R47" t="n">
         <v>2</v>
@@ -6154,31 +6158,31 @@
         <v>1.72</v>
       </c>
       <c r="T47" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="U47" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="V47" t="n">
         <v>8.25</v>
       </c>
       <c r="W47" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="X47" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y47" t="n">
         <v>30</v>
       </c>
       <c r="Z47" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AA47" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AB47" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC47" t="n">
         <v>100</v>
@@ -6187,22 +6191,22 @@
         <v>900</v>
       </c>
       <c r="AE47" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF47" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AG47" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH47" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AI47" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ47" t="n">
         <v>65</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>70</v>
       </c>
     </row>
     <row r="48">
@@ -6237,70 +6241,70 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="H48" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I48" t="n">
-        <v>2.77</v>
+        <v>2.85</v>
       </c>
       <c r="J48" t="n">
         <v>1.07</v>
       </c>
       <c r="K48" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="L48" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M48" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N48" t="n">
         <v>1.88</v>
       </c>
       <c r="O48" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="P48" t="n">
         <v>1.44</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="R48" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S48" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="T48" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="U48" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="V48" t="n">
         <v>9.25</v>
       </c>
       <c r="W48" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X48" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y48" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z48" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AA48" t="n">
         <v>5.8</v>
       </c>
       <c r="AB48" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AC48" t="n">
         <v>50</v>
@@ -6312,19 +6316,19 @@
         <v>9.25</v>
       </c>
       <c r="AF48" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG48" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AH48" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AI48" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AJ48" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49">
@@ -6481,19 +6485,19 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H50" t="n">
         <v>3.2</v>
       </c>
       <c r="I50" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J50" t="n">
         <v>1.07</v>
       </c>
       <c r="K50" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L50" t="n">
         <v>1.36</v>
@@ -6526,10 +6530,10 @@
         <v>13</v>
       </c>
       <c r="V50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W50" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X50" t="n">
         <v>23</v>
@@ -6556,7 +6560,7 @@
         <v>8</v>
       </c>
       <c r="AF50" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG50" t="n">
         <v>10</v>
@@ -6603,46 +6607,46 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H51" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I51" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J51" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K51" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L51" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="M51" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="N51" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="O51" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="P51" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R51" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S51" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T51" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U51" t="n">
         <v>17</v>
@@ -6654,34 +6658,34 @@
         <v>41</v>
       </c>
       <c r="X51" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y51" t="n">
         <v>41</v>
       </c>
       <c r="Z51" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA51" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB51" t="n">
         <v>17</v>
       </c>
       <c r="AC51" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD51" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="AE51" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF51" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG51" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>9</v>
       </c>
       <c r="AH51" t="n">
         <v>19</v>
@@ -6725,13 +6729,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="H52" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I52" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J52" t="n">
         <v>1.01</v>
@@ -6758,28 +6762,28 @@
         <v>4.33</v>
       </c>
       <c r="R52" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="S52" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="T52" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U52" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V52" t="n">
         <v>10</v>
       </c>
       <c r="W52" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X52" t="n">
         <v>10</v>
       </c>
       <c r="Y52" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z52" t="n">
         <v>26</v>
@@ -6788,28 +6792,28 @@
         <v>15</v>
       </c>
       <c r="AB52" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC52" t="n">
         <v>51</v>
       </c>
       <c r="AD52" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE52" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF52" t="n">
         <v>51</v>
       </c>
       <c r="AG52" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH52" t="n">
         <v>126</v>
       </c>
       <c r="AI52" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ52" t="n">
         <v>51</v>
@@ -7108,10 +7112,10 @@
         <v>2.63</v>
       </c>
       <c r="N55" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O55" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P55" t="n">
         <v>1.53</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-14.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H2" t="n">
         <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J2" t="n">
         <v>1.05</v>
@@ -689,16 +689,16 @@
         <v>10</v>
       </c>
       <c r="U2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V2" t="n">
         <v>10</v>
       </c>
       <c r="W2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y2" t="n">
         <v>26</v>
@@ -719,7 +719,7 @@
         <v>151</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
         <v>21</v>
@@ -790,10 +790,10 @@
         <v>3.75</v>
       </c>
       <c r="N3" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O3" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="P3" t="n">
         <v>1.4</v>
@@ -910,10 +910,10 @@
         <v>6</v>
       </c>
       <c r="N4" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O4" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="P4" t="n">
         <v>1.22</v>
@@ -1014,7 +1014,7 @@
         <v>3.8</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I5" t="n">
         <v>1.91</v>
@@ -1032,10 +1032,10 @@
         <v>3.5</v>
       </c>
       <c r="N5" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O5" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P5" t="n">
         <v>1.4</v>
@@ -1062,13 +1062,13 @@
         <v>41</v>
       </c>
       <c r="X5" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y5" t="n">
         <v>34</v>
       </c>
-      <c r="Y5" t="n">
-        <v>41</v>
-      </c>
       <c r="Z5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA5" t="n">
         <v>7</v>
@@ -1080,10 +1080,10 @@
         <v>51</v>
       </c>
       <c r="AD5" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF5" t="n">
         <v>9</v>
@@ -1133,13 +1133,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H6" t="n">
         <v>2.88</v>
       </c>
       <c r="I6" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J6" t="n">
         <v>1.14</v>
@@ -1217,7 +1217,7 @@
         <v>41</v>
       </c>
       <c r="AI6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ6" t="n">
         <v>51</v>
@@ -1288,10 +1288,10 @@
         <v>2.38</v>
       </c>
       <c r="R7" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T7" t="n">
         <v>6.5</v>
@@ -1392,10 +1392,10 @@
         <v>6.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="M8" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="N8" t="n">
         <v>2.7</v>
@@ -1508,10 +1508,10 @@
         <v>6</v>
       </c>
       <c r="J9" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L9" t="n">
         <v>1.5</v>
@@ -1621,13 +1621,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
         <v>2.8</v>
       </c>
       <c r="I10" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="J10" t="n">
         <v>1.14</v>
@@ -1663,7 +1663,7 @@
         <v>6.5</v>
       </c>
       <c r="U10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V10" t="n">
         <v>13</v>
@@ -1702,13 +1702,13 @@
         <v>12</v>
       </c>
       <c r="AH10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI10" t="n">
         <v>29</v>
       </c>
       <c r="AJ10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11">
@@ -1752,22 +1752,22 @@
         <v>5.25</v>
       </c>
       <c r="J11" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L11" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M11" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N11" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P11" t="n">
         <v>1.53</v>
@@ -1865,13 +1865,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H12" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I12" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J12" t="n">
         <v>1.13</v>
@@ -1904,22 +1904,22 @@
         <v>1.44</v>
       </c>
       <c r="T12" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="U12" t="n">
         <v>7</v>
       </c>
       <c r="V12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W12" t="n">
         <v>15</v>
       </c>
       <c r="X12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Z12" t="n">
         <v>5.5</v>
@@ -1937,7 +1937,7 @@
         <v>101</v>
       </c>
       <c r="AE12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF12" t="n">
         <v>21</v>
@@ -1999,19 +1999,19 @@
         <v>1.02</v>
       </c>
       <c r="K13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L13" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="M13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N13" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O13" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="P13" t="n">
         <v>1.22</v>
@@ -2109,40 +2109,40 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H14" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I14" t="n">
-        <v>4.55</v>
+        <v>4.75</v>
       </c>
       <c r="J14" t="n">
         <v>1.1</v>
       </c>
       <c r="K14" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="L14" t="n">
         <v>1.4</v>
       </c>
       <c r="M14" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="N14" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="O14" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P14" t="n">
         <v>1.47</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="R14" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S14" t="n">
         <v>1.87</v>
@@ -2151,28 +2151,28 @@
         <v>6.1</v>
       </c>
       <c r="U14" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="V14" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="W14" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="X14" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y14" t="n">
         <v>29</v>
       </c>
       <c r="Z14" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AA14" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC14" t="n">
         <v>70</v>
@@ -2181,19 +2181,19 @@
         <v>600</v>
       </c>
       <c r="AE14" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AF14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG14" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AI14" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ14" t="n">
         <v>50</v>
@@ -2353,13 +2353,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H16" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="I16" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="J16" t="n">
         <v>1.03</v>
@@ -2374,10 +2374,10 @@
         <v>4.33</v>
       </c>
       <c r="N16" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O16" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="P16" t="n">
         <v>1.3</v>
@@ -2386,55 +2386,55 @@
         <v>3.4</v>
       </c>
       <c r="R16" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="S16" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="T16" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="U16" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="V16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="W16" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="X16" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="Y16" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="Z16" t="n">
         <v>12</v>
       </c>
       <c r="AA16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC16" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD16" t="n">
         <v>1250</v>
       </c>
       <c r="AE16" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF16" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>12</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H17" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J17" t="n">
         <v>1.05</v>
@@ -2502,10 +2502,10 @@
         <v>1.83</v>
       </c>
       <c r="P17" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R17" t="n">
         <v>1.83</v>
@@ -2520,19 +2520,19 @@
         <v>8.5</v>
       </c>
       <c r="V17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W17" t="n">
         <v>15</v>
       </c>
       <c r="X17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z17" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA17" t="n">
         <v>7</v>
@@ -2544,13 +2544,13 @@
         <v>51</v>
       </c>
       <c r="AD17" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE17" t="n">
         <v>11</v>
       </c>
       <c r="AF17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG17" t="n">
         <v>13</v>
@@ -2612,16 +2612,16 @@
         <v>11</v>
       </c>
       <c r="L18" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N18" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O18" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P18" t="n">
         <v>1.36</v>
@@ -2728,10 +2728,10 @@
         <v>2.75</v>
       </c>
       <c r="J19" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L19" t="n">
         <v>1.22</v>
@@ -2740,10 +2740,10 @@
         <v>4</v>
       </c>
       <c r="N19" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O19" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P19" t="n">
         <v>1.36</v>
@@ -2841,31 +2841,31 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H20" t="n">
         <v>3.3</v>
       </c>
       <c r="I20" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J20" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L20" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N20" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O20" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P20" t="n">
         <v>1.5</v>
@@ -2886,7 +2886,7 @@
         <v>12</v>
       </c>
       <c r="V20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W20" t="n">
         <v>26</v>
@@ -2898,10 +2898,10 @@
         <v>34</v>
       </c>
       <c r="Z20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA20" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB20" t="n">
         <v>17</v>
@@ -2913,13 +2913,13 @@
         <v>351</v>
       </c>
       <c r="AE20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF20" t="n">
         <v>12</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH20" t="n">
         <v>26</v>
@@ -3081,13 +3081,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="H22" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I22" t="n">
-        <v>4.85</v>
+        <v>5.2</v>
       </c>
       <c r="J22" t="n">
         <v>1.11</v>
@@ -3096,13 +3096,13 @@
         <v>6</v>
       </c>
       <c r="L22" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="M22" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="N22" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="O22" t="n">
         <v>1.42</v>
@@ -3111,64 +3111,64 @@
         <v>1.57</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R22" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="S22" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T22" t="n">
-        <v>4.75</v>
+        <v>4.65</v>
       </c>
       <c r="U22" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="V22" t="n">
         <v>9.25</v>
       </c>
       <c r="W22" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="X22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y22" t="n">
         <v>50</v>
       </c>
       <c r="Z22" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AA22" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AB22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC22" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AD22" t="n">
         <v>101</v>
       </c>
       <c r="AE22" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AF22" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AG22" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AH22" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>100</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>90</v>
       </c>
     </row>
     <row r="23">
@@ -3325,31 +3325,31 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="H24" t="n">
         <v>3.4</v>
       </c>
       <c r="I24" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="J24" t="n">
         <v>1.06</v>
       </c>
       <c r="K24" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M24" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N24" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O24" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P24" t="n">
         <v>1.44</v>
@@ -3364,13 +3364,13 @@
         <v>1.83</v>
       </c>
       <c r="T24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W24" t="n">
         <v>41</v>
@@ -3382,7 +3382,7 @@
         <v>41</v>
       </c>
       <c r="Z24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA24" t="n">
         <v>6.5</v>
@@ -3400,16 +3400,16 @@
         <v>7</v>
       </c>
       <c r="AF24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ24" t="n">
         <v>29</v>
@@ -3459,7 +3459,7 @@
         <v>1.07</v>
       </c>
       <c r="K25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L25" t="n">
         <v>1.36</v>
@@ -3691,13 +3691,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H27" t="n">
         <v>3.5</v>
       </c>
       <c r="I27" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J27" t="n">
         <v>1.07</v>
@@ -3712,10 +3712,10 @@
         <v>3</v>
       </c>
       <c r="N27" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O27" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P27" t="n">
         <v>1.44</v>
@@ -3733,13 +3733,13 @@
         <v>6</v>
       </c>
       <c r="U27" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V27" t="n">
         <v>9</v>
       </c>
       <c r="W27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X27" t="n">
         <v>15</v>
@@ -3748,13 +3748,13 @@
         <v>34</v>
       </c>
       <c r="Z27" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA27" t="n">
         <v>7</v>
       </c>
       <c r="AB27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC27" t="n">
         <v>67</v>
@@ -3763,10 +3763,10 @@
         <v>101</v>
       </c>
       <c r="AE27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG27" t="n">
         <v>17</v>
@@ -3813,13 +3813,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.1</v>
+        <v>2.65</v>
       </c>
       <c r="H28" t="n">
         <v>3.85</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -3830,7 +3830,7 @@
         <v>5.6</v>
       </c>
       <c r="N28" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="O28" t="n">
         <v>2.92</v>
@@ -3839,7 +3839,7 @@
         <v>1.23</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="R28" t="n">
         <v>1.34</v>
@@ -3848,25 +3848,25 @@
         <v>3</v>
       </c>
       <c r="T28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U28" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V28" t="n">
-        <v>11.75</v>
+        <v>10.75</v>
       </c>
       <c r="W28" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="X28" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA28" t="n">
         <v>9</v>
@@ -3881,22 +3881,22 @@
         <v>110</v>
       </c>
       <c r="AE28" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF28" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ28" t="n">
         <v>16</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>15.5</v>
       </c>
     </row>
     <row r="29">
@@ -3931,10 +3931,10 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H29" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I29" t="n">
         <v>3.45</v>
@@ -3949,13 +3949,13 @@
         <v>1.12</v>
       </c>
       <c r="M29" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="N29" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="O29" t="n">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="P29" t="n">
         <v>1.24</v>
@@ -3964,31 +3964,31 @@
         <v>3.65</v>
       </c>
       <c r="R29" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S29" t="n">
-        <v>2.85</v>
+        <v>2.92</v>
       </c>
       <c r="T29" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="U29" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="V29" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X29" t="n">
         <v>13</v>
       </c>
       <c r="Y29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z29" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AA29" t="n">
         <v>8.5</v>
@@ -4003,10 +4003,10 @@
         <v>120</v>
       </c>
       <c r="AE29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF29" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AG29" t="n">
         <v>12.5</v>
@@ -4018,7 +4018,7 @@
         <v>25</v>
       </c>
       <c r="AJ29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30">
@@ -4062,10 +4062,10 @@
         <v>9.5</v>
       </c>
       <c r="J30" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K30" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L30" t="n">
         <v>1.29</v>
@@ -4080,7 +4080,7 @@
         <v>1.85</v>
       </c>
       <c r="P30" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q30" t="n">
         <v>2.75</v>
@@ -4175,13 +4175,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H31" t="n">
         <v>3.1</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J31" t="n">
         <v>1.05</v>
@@ -4202,10 +4202,10 @@
         <v>1.95</v>
       </c>
       <c r="P31" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R31" t="n">
         <v>1.67</v>
@@ -4214,10 +4214,10 @@
         <v>2.1</v>
       </c>
       <c r="T31" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V31" t="n">
         <v>9.5</v>
@@ -4235,10 +4235,10 @@
         <v>11</v>
       </c>
       <c r="AA31" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC31" t="n">
         <v>41</v>
@@ -4262,7 +4262,7 @@
         <v>23</v>
       </c>
       <c r="AJ31" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
@@ -4297,37 +4297,37 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="H32" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="I32" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J32" t="n">
         <v>1.03</v>
       </c>
       <c r="K32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L32" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M32" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="N32" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="O32" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="P32" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q32" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R32" t="n">
         <v>1.67</v>
@@ -4339,16 +4339,16 @@
         <v>9</v>
       </c>
       <c r="U32" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V32" t="n">
         <v>8.5</v>
       </c>
       <c r="W32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y32" t="n">
         <v>21</v>
@@ -4357,10 +4357,10 @@
         <v>15</v>
       </c>
       <c r="AA32" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AB32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC32" t="n">
         <v>41</v>
@@ -4369,22 +4369,22 @@
         <v>151</v>
       </c>
       <c r="AE32" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF32" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH32" t="n">
         <v>51</v>
       </c>
       <c r="AI32" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ32" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33">
@@ -4419,13 +4419,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="H33" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I33" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="J33" t="n">
         <v>1.02</v>
@@ -4440,10 +4440,10 @@
         <v>6</v>
       </c>
       <c r="N33" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="O33" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="P33" t="n">
         <v>1.25</v>
@@ -4452,25 +4452,25 @@
         <v>3.75</v>
       </c>
       <c r="R33" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S33" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T33" t="n">
         <v>11</v>
       </c>
       <c r="U33" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V33" t="n">
         <v>8.5</v>
       </c>
       <c r="W33" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X33" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y33" t="n">
         <v>19</v>
@@ -4479,10 +4479,10 @@
         <v>19</v>
       </c>
       <c r="AA33" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC33" t="n">
         <v>34</v>
@@ -4491,22 +4491,22 @@
         <v>101</v>
       </c>
       <c r="AE33" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF33" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG33" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH33" t="n">
         <v>51</v>
       </c>
       <c r="AI33" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ33" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34">
@@ -4547,22 +4547,22 @@
         <v>3.2</v>
       </c>
       <c r="I34" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J34" t="n">
         <v>1.08</v>
       </c>
       <c r="K34" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="L34" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M34" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="N34" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="O34" t="n">
         <v>1.65</v>
@@ -4574,31 +4574,31 @@
         <v>2.5</v>
       </c>
       <c r="R34" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="S34" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="T34" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="U34" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="V34" t="n">
         <v>8.5</v>
-      </c>
-      <c r="V34" t="n">
-        <v>8.75</v>
       </c>
       <c r="W34" t="n">
         <v>17</v>
       </c>
       <c r="X34" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z34" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AA34" t="n">
         <v>6.3</v>
@@ -4607,16 +4607,16 @@
         <v>16</v>
       </c>
       <c r="AC34" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD34" t="n">
         <v>800</v>
       </c>
       <c r="AE34" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF34" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG34" t="n">
         <v>13</v>
@@ -4625,10 +4625,10 @@
         <v>55</v>
       </c>
       <c r="AI34" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AJ34" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35">
@@ -4666,16 +4666,16 @@
         <v>1.44</v>
       </c>
       <c r="H35" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I35" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J35" t="n">
         <v>1.07</v>
       </c>
       <c r="K35" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="L35" t="n">
         <v>1.33</v>
@@ -4693,13 +4693,13 @@
         <v>1.44</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="R35" t="n">
         <v>2.18</v>
       </c>
       <c r="S35" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="T35" t="n">
         <v>5.6</v>
@@ -4720,10 +4720,10 @@
         <v>35</v>
       </c>
       <c r="Z35" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AA35" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AB35" t="n">
         <v>23</v>
@@ -4735,22 +4735,22 @@
         <v>1000</v>
       </c>
       <c r="AE35" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF35" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG35" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH35" t="n">
         <v>175</v>
       </c>
       <c r="AI35" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AJ35" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36">
@@ -4899,43 +4899,43 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H37" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I37" t="n">
         <v>2.2</v>
       </c>
       <c r="J37" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K37" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="L37" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="M37" t="n">
-        <v>2.27</v>
+        <v>2.37</v>
       </c>
       <c r="N37" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="O37" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="P37" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="R37" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="S37" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T37" t="n">
         <v>7.5</v>
@@ -4947,7 +4947,7 @@
         <v>13</v>
       </c>
       <c r="W37" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X37" t="n">
         <v>34</v>
@@ -4965,7 +4965,7 @@
         <v>19</v>
       </c>
       <c r="AC37" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD37" t="n">
         <v>351</v>
@@ -4983,7 +4983,7 @@
         <v>21</v>
       </c>
       <c r="AI37" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ37" t="n">
         <v>41</v>
@@ -5030,10 +5030,10 @@
         <v>1.8</v>
       </c>
       <c r="J38" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K38" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L38" t="n">
         <v>1.36</v>
@@ -5042,10 +5042,10 @@
         <v>3</v>
       </c>
       <c r="N38" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O38" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P38" t="n">
         <v>1.44</v>
@@ -5078,7 +5078,7 @@
         <v>41</v>
       </c>
       <c r="Z38" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA38" t="n">
         <v>7</v>
@@ -5087,7 +5087,7 @@
         <v>17</v>
       </c>
       <c r="AC38" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD38" t="n">
         <v>1000</v>
@@ -5152,22 +5152,22 @@
         <v>4.5</v>
       </c>
       <c r="J39" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K39" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L39" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M39" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N39" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O39" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P39" t="n">
         <v>1.4</v>
@@ -5265,31 +5265,31 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H40" t="n">
         <v>3.4</v>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="J40" t="n">
         <v>1.04</v>
       </c>
       <c r="K40" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L40" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N40" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="O40" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="P40" t="n">
         <v>1.36</v>
@@ -5298,22 +5298,22 @@
         <v>3</v>
       </c>
       <c r="R40" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S40" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T40" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="U40" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V40" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W40" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X40" t="n">
         <v>17</v>
@@ -5328,7 +5328,7 @@
         <v>6.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC40" t="n">
         <v>41</v>
@@ -5337,22 +5337,22 @@
         <v>151</v>
       </c>
       <c r="AE40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF40" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH40" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AI40" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AJ40" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41">
@@ -5387,13 +5387,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H41" t="n">
         <v>3.5</v>
       </c>
       <c r="I41" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="J41" t="n">
         <v>1.04</v>
@@ -5408,34 +5408,34 @@
         <v>4</v>
       </c>
       <c r="N41" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O41" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="P41" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q41" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R41" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S41" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T41" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U41" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V41" t="n">
         <v>9</v>
       </c>
       <c r="W41" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X41" t="n">
         <v>15</v>
@@ -5444,7 +5444,7 @@
         <v>23</v>
       </c>
       <c r="Z41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA41" t="n">
         <v>7</v>
@@ -5462,19 +5462,19 @@
         <v>12</v>
       </c>
       <c r="AF41" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH41" t="n">
         <v>41</v>
       </c>
       <c r="AI41" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ41" t="n">
         <v>29</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="42">
@@ -5509,13 +5509,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H42" t="n">
         <v>3.4</v>
       </c>
       <c r="I42" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="J42" t="n">
         <v>1.04</v>
@@ -5524,40 +5524,40 @@
         <v>13</v>
       </c>
       <c r="L42" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N42" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O42" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P42" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q42" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R42" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="S42" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="T42" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="U42" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V42" t="n">
         <v>9</v>
       </c>
       <c r="W42" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X42" t="n">
         <v>15</v>
@@ -5566,13 +5566,13 @@
         <v>23</v>
       </c>
       <c r="Z42" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB42" t="n">
         <v>12</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>13</v>
       </c>
       <c r="AC42" t="n">
         <v>41</v>
@@ -5584,19 +5584,19 @@
         <v>13</v>
       </c>
       <c r="AF42" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG42" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH42" t="n">
         <v>41</v>
       </c>
       <c r="AI42" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ42" t="n">
         <v>29</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="43">
@@ -5875,13 +5875,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="H45" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="I45" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J45" t="n">
         <v>1.06</v>
@@ -5896,37 +5896,37 @@
         <v>3.4</v>
       </c>
       <c r="N45" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O45" t="n">
         <v>1.8</v>
       </c>
       <c r="P45" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R45" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S45" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T45" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U45" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V45" t="n">
         <v>8.5</v>
       </c>
       <c r="W45" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="X45" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y45" t="n">
         <v>29</v>
@@ -5935,34 +5935,34 @@
         <v>9.5</v>
       </c>
       <c r="AA45" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB45" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC45" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD45" t="n">
         <v>351</v>
       </c>
       <c r="AE45" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF45" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AG45" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH45" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI45" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ45" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46">
@@ -6119,94 +6119,94 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="H47" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="I47" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="J47" t="n">
         <v>1.06</v>
       </c>
       <c r="K47" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="L47" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M47" t="n">
         <v>3.2</v>
       </c>
       <c r="N47" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="O47" t="n">
         <v>1.8</v>
       </c>
       <c r="P47" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="R47" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="S47" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="T47" t="n">
         <v>6.2</v>
       </c>
       <c r="U47" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="V47" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="W47" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="X47" t="n">
         <v>13</v>
       </c>
       <c r="Y47" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Z47" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AA47" t="n">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="AB47" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC47" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AD47" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AE47" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF47" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AG47" t="n">
         <v>18</v>
       </c>
       <c r="AH47" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AI47" t="n">
         <v>60</v>
       </c>
       <c r="AJ47" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48">
@@ -6369,7 +6369,7 @@
         <v>3.1</v>
       </c>
       <c r="I49" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J49" t="n">
         <v>1.11</v>
@@ -6378,10 +6378,10 @@
         <v>6.5</v>
       </c>
       <c r="L49" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="M49" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="N49" t="n">
         <v>2.7</v>
@@ -6396,13 +6396,13 @@
         <v>2.2</v>
       </c>
       <c r="R49" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S49" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T49" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U49" t="n">
         <v>8</v>
@@ -6435,7 +6435,7 @@
         <v>101</v>
       </c>
       <c r="AE49" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF49" t="n">
         <v>19</v>
@@ -6444,7 +6444,7 @@
         <v>15</v>
       </c>
       <c r="AH49" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI49" t="n">
         <v>41</v>
@@ -6485,13 +6485,13 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="H50" t="n">
         <v>3.2</v>
       </c>
       <c r="I50" t="n">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="J50" t="n">
         <v>1.07</v>
@@ -6506,10 +6506,10 @@
         <v>3</v>
       </c>
       <c r="N50" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O50" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P50" t="n">
         <v>1.44</v>
@@ -6524,10 +6524,10 @@
         <v>1.91</v>
       </c>
       <c r="T50" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U50" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V50" t="n">
         <v>11</v>
@@ -6536,7 +6536,7 @@
         <v>29</v>
       </c>
       <c r="X50" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y50" t="n">
         <v>34</v>
@@ -6557,19 +6557,19 @@
         <v>301</v>
       </c>
       <c r="AE50" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF50" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG50" t="n">
         <v>10</v>
       </c>
       <c r="AH50" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI50" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ50" t="n">
         <v>34</v>
@@ -6607,13 +6607,13 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="H51" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I51" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="J51" t="n">
         <v>1.08</v>
@@ -6622,10 +6622,10 @@
         <v>8</v>
       </c>
       <c r="L51" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M51" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N51" t="n">
         <v>2.35</v>
@@ -6634,10 +6634,10 @@
         <v>1.57</v>
       </c>
       <c r="P51" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R51" t="n">
         <v>2</v>
@@ -6646,31 +6646,31 @@
         <v>1.75</v>
       </c>
       <c r="T51" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="U51" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="V51" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W51" t="n">
         <v>41</v>
       </c>
       <c r="X51" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y51" t="n">
         <v>41</v>
       </c>
       <c r="Z51" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA51" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB51" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC51" t="n">
         <v>67</v>
@@ -6682,16 +6682,16 @@
         <v>6</v>
       </c>
       <c r="AF51" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG51" t="n">
         <v>9</v>
       </c>
-      <c r="AG51" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AH51" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AI51" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ51" t="n">
         <v>34</v>
@@ -6729,43 +6729,43 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="H52" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I52" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J52" t="n">
         <v>1.01</v>
       </c>
       <c r="K52" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L52" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="M52" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N52" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="O52" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P52" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="Q52" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="R52" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S52" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T52" t="n">
         <v>12</v>
@@ -6783,16 +6783,16 @@
         <v>10</v>
       </c>
       <c r="Y52" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z52" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA52" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB52" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC52" t="n">
         <v>51</v>
@@ -6801,19 +6801,19 @@
         <v>201</v>
       </c>
       <c r="AE52" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF52" t="n">
         <v>51</v>
       </c>
       <c r="AG52" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH52" t="n">
         <v>126</v>
       </c>
       <c r="AI52" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ52" t="n">
         <v>51</v>
@@ -6969,13 +6969,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H54" t="n">
         <v>3.2</v>
       </c>
       <c r="I54" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J54" t="n">
         <v>1.08</v>
@@ -7017,7 +7017,7 @@
         <v>11</v>
       </c>
       <c r="W54" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X54" t="n">
         <v>26</v>
@@ -7029,7 +7029,7 @@
         <v>7.5</v>
       </c>
       <c r="AA54" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB54" t="n">
         <v>19</v>
@@ -7053,7 +7053,7 @@
         <v>26</v>
       </c>
       <c r="AI54" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ54" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-14.xlsx
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
         <v>3.4</v>
@@ -662,34 +662,34 @@
         <v>11</v>
       </c>
       <c r="L2" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="M2" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="N2" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="O2" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S2" t="n">
         <v>2.1</v>
       </c>
-      <c r="P2" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.2</v>
-      </c>
       <c r="T2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V2" t="n">
         <v>10</v>
@@ -701,10 +701,10 @@
         <v>19</v>
       </c>
       <c r="Y2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA2" t="n">
         <v>7</v>
@@ -716,13 +716,13 @@
         <v>41</v>
       </c>
       <c r="AD2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE2" t="n">
         <v>13</v>
       </c>
       <c r="AF2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG2" t="n">
         <v>13</v>
@@ -769,31 +769,31 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="H3" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I3" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L3" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="M3" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N3" t="n">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="O3" t="n">
-        <v>1.97</v>
+        <v>1.86</v>
       </c>
       <c r="P3" t="n">
         <v>1.4</v>
@@ -802,59 +802,61 @@
         <v>2.75</v>
       </c>
       <c r="R3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T3" t="n">
         <v>6</v>
       </c>
       <c r="U3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W3" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="X3" t="n">
         <v>13</v>
       </c>
       <c r="Y3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z3" t="n">
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>501</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH3" t="n">
         <v>81</v>
       </c>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>101</v>
-      </c>
       <c r="AI3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -889,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I4" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J4" t="n">
         <v>1.02</v>
@@ -904,16 +906,16 @@
         <v>19</v>
       </c>
       <c r="L4" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="M4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N4" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="O4" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P4" t="n">
         <v>1.22</v>
@@ -922,40 +924,40 @@
         <v>4</v>
       </c>
       <c r="R4" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="S4" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="T4" t="n">
         <v>8.5</v>
       </c>
       <c r="U4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>13</v>
+      </c>
+      <c r="W4" t="n">
         <v>6</v>
       </c>
-      <c r="V4" t="n">
-        <v>11</v>
-      </c>
-      <c r="W4" t="n">
-        <v>6.5</v>
-      </c>
       <c r="X4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA4" t="n">
         <v>17</v>
       </c>
-      <c r="AA4" t="n">
-        <v>15</v>
-      </c>
       <c r="AB4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AD4" t="n">
         <v>501</v>
@@ -964,19 +966,19 @@
         <v>41</v>
       </c>
       <c r="AF4" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AG4" t="n">
         <v>51</v>
       </c>
       <c r="AH4" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AI4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>151</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="5">
@@ -1011,31 +1013,31 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="H5" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="J5" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L5" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N5" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="P5" t="n">
         <v>1.4</v>
@@ -1050,13 +1052,13 @@
         <v>1.95</v>
       </c>
       <c r="T5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W5" t="n">
         <v>41</v>
@@ -1068,7 +1070,7 @@
         <v>34</v>
       </c>
       <c r="Z5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA5" t="n">
         <v>7</v>
@@ -1086,16 +1088,16 @@
         <v>7.5</v>
       </c>
       <c r="AF5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG5" t="n">
         <v>9</v>
       </c>
-      <c r="AG5" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AH5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI5" t="n">
         <v>17</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>15</v>
       </c>
       <c r="AJ5" t="n">
         <v>26</v>
@@ -1133,64 +1135,64 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H6" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="J6" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="K6" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="L6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P6" t="n">
         <v>1.62</v>
       </c>
-      <c r="M6" t="n">
+      <c r="Q6" t="n">
         <v>2.2</v>
       </c>
-      <c r="N6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.1</v>
-      </c>
       <c r="R6" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="S6" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="T6" t="n">
         <v>5.5</v>
       </c>
       <c r="U6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V6" t="n">
         <v>10</v>
       </c>
-      <c r="V6" t="n">
-        <v>11</v>
-      </c>
       <c r="W6" t="n">
+        <v>21</v>
+      </c>
+      <c r="X6" t="n">
         <v>23</v>
-      </c>
-      <c r="X6" t="n">
-        <v>26</v>
       </c>
       <c r="Y6" t="n">
         <v>41</v>
       </c>
       <c r="Z6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AA6" t="n">
         <v>6</v>
@@ -1205,7 +1207,7 @@
         <v>501</v>
       </c>
       <c r="AE6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF6" t="n">
         <v>15</v>
@@ -1255,7 +1257,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="H7" t="n">
         <v>3.1</v>
@@ -1267,7 +1269,7 @@
         <v>1.08</v>
       </c>
       <c r="K7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L7" t="n">
         <v>1.4</v>
@@ -1276,10 +1278,10 @@
         <v>2.75</v>
       </c>
       <c r="N7" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O7" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P7" t="n">
         <v>1.53</v>
@@ -1291,7 +1293,7 @@
         <v>2</v>
       </c>
       <c r="S7" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T7" t="n">
         <v>6.5</v>
@@ -1383,7 +1385,7 @@
         <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J8" t="n">
         <v>1.11</v>
@@ -1392,10 +1394,10 @@
         <v>6.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="M8" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="N8" t="n">
         <v>2.7</v>
@@ -1499,43 +1501,43 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J9" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L9" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M9" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N9" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S9" t="n">
         <v>1.57</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.53</v>
       </c>
       <c r="T9" t="n">
         <v>5</v>
@@ -1544,7 +1546,7 @@
         <v>6.5</v>
       </c>
       <c r="V9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W9" t="n">
         <v>12</v>
@@ -1556,16 +1558,16 @@
         <v>41</v>
       </c>
       <c r="Z9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA9" t="n">
         <v>7</v>
       </c>
       <c r="AB9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC9" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD9" t="n">
         <v>101</v>
@@ -1574,10 +1576,10 @@
         <v>11</v>
       </c>
       <c r="AF9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH9" t="n">
         <v>67</v>
@@ -1586,7 +1588,7 @@
         <v>51</v>
       </c>
       <c r="AJ9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
@@ -1752,13 +1754,13 @@
         <v>5.25</v>
       </c>
       <c r="J11" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="K11" t="n">
         <v>7</v>
       </c>
       <c r="L11" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="M11" t="n">
         <v>2.5</v>
@@ -1865,7 +1867,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="H12" t="n">
         <v>3.3</v>
@@ -2008,10 +2010,10 @@
         <v>6.5</v>
       </c>
       <c r="N13" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="O13" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="P13" t="n">
         <v>1.22</v>
@@ -2020,16 +2022,16 @@
         <v>4</v>
       </c>
       <c r="R13" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S13" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T13" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="U13" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V13" t="n">
         <v>10</v>
@@ -2038,13 +2040,13 @@
         <v>8</v>
       </c>
       <c r="X13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA13" t="n">
         <v>12</v>
@@ -2056,7 +2058,7 @@
         <v>51</v>
       </c>
       <c r="AD13" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE13" t="n">
         <v>29</v>
@@ -2109,13 +2111,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H14" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="I14" t="n">
-        <v>4.75</v>
+        <v>4.9</v>
       </c>
       <c r="J14" t="n">
         <v>1.1</v>
@@ -2124,13 +2126,13 @@
         <v>5.8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M14" t="n">
         <v>2.75</v>
       </c>
       <c r="N14" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="O14" t="n">
         <v>1.62</v>
@@ -2145,22 +2147,22 @@
         <v>1.85</v>
       </c>
       <c r="S14" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="T14" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="U14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V14" t="n">
         <v>8</v>
       </c>
       <c r="W14" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="X14" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y14" t="n">
         <v>29</v>
@@ -2169,34 +2171,34 @@
         <v>5.8</v>
       </c>
       <c r="AA14" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AB14" t="n">
         <v>14</v>
       </c>
       <c r="AC14" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AD14" t="n">
         <v>600</v>
       </c>
       <c r="AE14" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AG14" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH14" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AI14" t="n">
         <v>55</v>
       </c>
       <c r="AJ14" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
@@ -2475,13 +2477,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H17" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I17" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J17" t="n">
         <v>1.05</v>
@@ -2496,10 +2498,10 @@
         <v>3.4</v>
       </c>
       <c r="N17" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="O17" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="P17" t="n">
         <v>1.4</v>
@@ -2517,19 +2519,19 @@
         <v>7</v>
       </c>
       <c r="U17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z17" t="n">
         <v>10</v>
@@ -2538,7 +2540,7 @@
         <v>7</v>
       </c>
       <c r="AB17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC17" t="n">
         <v>51</v>
@@ -2550,7 +2552,7 @@
         <v>11</v>
       </c>
       <c r="AF17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG17" t="n">
         <v>13</v>
@@ -2559,7 +2561,7 @@
         <v>41</v>
       </c>
       <c r="AI17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ17" t="n">
         <v>41</v>
@@ -2597,13 +2599,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H18" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J18" t="n">
         <v>1.05</v>
@@ -2618,10 +2620,10 @@
         <v>3.75</v>
       </c>
       <c r="N18" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="O18" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="P18" t="n">
         <v>1.36</v>
@@ -2630,10 +2632,10 @@
         <v>3</v>
       </c>
       <c r="R18" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S18" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T18" t="n">
         <v>9</v>
@@ -2642,7 +2644,7 @@
         <v>11</v>
       </c>
       <c r="V18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W18" t="n">
         <v>21</v>
@@ -2651,13 +2653,13 @@
         <v>17</v>
       </c>
       <c r="Y18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z18" t="n">
         <v>11</v>
       </c>
       <c r="AA18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB18" t="n">
         <v>12</v>
@@ -2672,7 +2674,7 @@
         <v>12</v>
       </c>
       <c r="AF18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG18" t="n">
         <v>12</v>
@@ -2684,7 +2686,7 @@
         <v>26</v>
       </c>
       <c r="AJ18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
@@ -2719,13 +2721,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H19" t="n">
         <v>3.2</v>
       </c>
       <c r="I19" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J19" t="n">
         <v>1.05</v>
@@ -2740,7 +2742,7 @@
         <v>4</v>
       </c>
       <c r="N19" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="O19" t="n">
         <v>2</v>
@@ -2841,19 +2843,19 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="H20" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I20" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="J20" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L20" t="n">
         <v>1.4</v>
@@ -2865,7 +2867,7 @@
         <v>2.25</v>
       </c>
       <c r="O20" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="P20" t="n">
         <v>1.5</v>
@@ -3203,19 +3205,19 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="H23" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I23" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="J23" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L23" t="n">
         <v>1.29</v>
@@ -3224,16 +3226,16 @@
         <v>3.5</v>
       </c>
       <c r="N23" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="O23" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="P23" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R23" t="n">
         <v>1.73</v>
@@ -3242,34 +3244,34 @@
         <v>2</v>
       </c>
       <c r="T23" t="n">
+        <v>10</v>
+      </c>
+      <c r="U23" t="n">
+        <v>17</v>
+      </c>
+      <c r="V23" t="n">
         <v>12</v>
       </c>
-      <c r="U23" t="n">
-        <v>19</v>
-      </c>
-      <c r="V23" t="n">
-        <v>13</v>
-      </c>
       <c r="W23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X23" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y23" t="n">
         <v>34</v>
       </c>
       <c r="Z23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA23" t="n">
         <v>6.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC23" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD23" t="n">
         <v>201</v>
@@ -3284,10 +3286,10 @@
         <v>9</v>
       </c>
       <c r="AH23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI23" t="n">
         <v>17</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>15</v>
       </c>
       <c r="AJ23" t="n">
         <v>26</v>
@@ -3337,7 +3339,7 @@
         <v>1.06</v>
       </c>
       <c r="K24" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L24" t="n">
         <v>1.3</v>
@@ -3447,25 +3449,25 @@
         </is>
       </c>
       <c r="G25" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H25" t="n">
         <v>3.25</v>
       </c>
-      <c r="H25" t="n">
-        <v>3.2</v>
-      </c>
       <c r="I25" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L25" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N25" t="n">
         <v>2.1</v>
@@ -3486,16 +3488,16 @@
         <v>1.83</v>
       </c>
       <c r="T25" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V25" t="n">
         <v>12</v>
       </c>
       <c r="W25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X25" t="n">
         <v>29</v>
@@ -3507,7 +3509,7 @@
         <v>8.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB25" t="n">
         <v>15</v>
@@ -3522,13 +3524,13 @@
         <v>7</v>
       </c>
       <c r="AF25" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI25" t="n">
         <v>19</v>
@@ -3590,10 +3592,10 @@
         <v>3.75</v>
       </c>
       <c r="N26" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="O26" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="P26" t="n">
         <v>1.4</v>
@@ -3626,7 +3628,7 @@
         <v>29</v>
       </c>
       <c r="Z26" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA26" t="n">
         <v>6</v>
@@ -3691,31 +3693,31 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="H27" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I27" t="n">
         <v>5</v>
       </c>
       <c r="J27" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L27" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N27" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O27" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="P27" t="n">
         <v>1.44</v>
@@ -3724,10 +3726,10 @@
         <v>2.63</v>
       </c>
       <c r="R27" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S27" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T27" t="n">
         <v>6</v>
@@ -3736,7 +3738,7 @@
         <v>7</v>
       </c>
       <c r="V27" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W27" t="n">
         <v>12</v>
@@ -3745,22 +3747,22 @@
         <v>15</v>
       </c>
       <c r="Y27" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z27" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC27" t="n">
         <v>67</v>
       </c>
       <c r="AD27" t="n">
-        <v>101</v>
+        <v>1000</v>
       </c>
       <c r="AE27" t="n">
         <v>12</v>
@@ -3813,13 +3815,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="H28" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I28" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -3827,19 +3829,19 @@
         <v>1.11</v>
       </c>
       <c r="M28" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="N28" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="O28" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="P28" t="n">
         <v>1.23</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="R28" t="n">
         <v>1.34</v>
@@ -3848,31 +3850,31 @@
         <v>3</v>
       </c>
       <c r="T28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U28" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="V28" t="n">
         <v>10.75</v>
       </c>
       <c r="W28" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X28" t="n">
         <v>18.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA28" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AB28" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AC28" t="n">
         <v>26</v>
@@ -3881,22 +3883,22 @@
         <v>110</v>
       </c>
       <c r="AE28" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF28" t="n">
         <v>16.5</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>18</v>
       </c>
       <c r="AG28" t="n">
         <v>9.75</v>
       </c>
       <c r="AH28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI28" t="n">
         <v>15</v>
       </c>
       <c r="AJ28" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="29">
@@ -3934,64 +3936,64 @@
         <v>1.9</v>
       </c>
       <c r="H29" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I29" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="J29" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K29" t="n">
         <v>9.75</v>
       </c>
       <c r="L29" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="M29" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="N29" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="O29" t="n">
-        <v>2.85</v>
+        <v>2.72</v>
       </c>
       <c r="P29" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="R29" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="S29" t="n">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="T29" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="U29" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="V29" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W29" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="X29" t="n">
         <v>13</v>
       </c>
       <c r="Y29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z29" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AA29" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AB29" t="n">
         <v>10.5</v>
@@ -4003,22 +4005,22 @@
         <v>120</v>
       </c>
       <c r="AE29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF29" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG29" t="n">
         <v>12.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30">
@@ -4059,13 +4061,13 @@
         <v>4.1</v>
       </c>
       <c r="I30" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="J30" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K30" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L30" t="n">
         <v>1.29</v>
@@ -4074,13 +4076,13 @@
         <v>3.5</v>
       </c>
       <c r="N30" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="O30" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="P30" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q30" t="n">
         <v>2.75</v>
@@ -4541,31 +4543,31 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="H34" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I34" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="J34" t="n">
         <v>1.08</v>
       </c>
       <c r="K34" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="L34" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M34" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="N34" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O34" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P34" t="n">
         <v>1.47</v>
@@ -4580,28 +4582,28 @@
         <v>1.82</v>
       </c>
       <c r="T34" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="U34" t="n">
         <v>8.75</v>
       </c>
       <c r="V34" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W34" t="n">
         <v>17</v>
       </c>
       <c r="X34" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y34" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z34" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AA34" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AB34" t="n">
         <v>16</v>
@@ -4610,25 +4612,25 @@
         <v>80</v>
       </c>
       <c r="AD34" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AE34" t="n">
         <v>9.5</v>
       </c>
       <c r="AF34" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AI34" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AJ34" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35">
@@ -4663,94 +4665,94 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="H35" t="n">
         <v>3.85</v>
       </c>
       <c r="I35" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="J35" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K35" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="L35" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="M35" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="N35" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="O35" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P35" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.57</v>
+        <v>2.67</v>
       </c>
       <c r="R35" t="n">
-        <v>2.18</v>
+        <v>2.05</v>
       </c>
       <c r="S35" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="T35" t="n">
-        <v>5.6</v>
+        <v>6.1</v>
       </c>
       <c r="U35" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V35" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W35" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="X35" t="n">
         <v>13</v>
       </c>
       <c r="Y35" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>900</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF35" t="n">
         <v>35</v>
       </c>
-      <c r="Z35" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>150</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>45</v>
-      </c>
       <c r="AG35" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AH35" t="n">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="AI35" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AJ35" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36">
@@ -5027,7 +5029,7 @@
         <v>3.5</v>
       </c>
       <c r="I38" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="J38" t="n">
         <v>1.07</v>
@@ -5045,7 +5047,7 @@
         <v>2.15</v>
       </c>
       <c r="O38" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="P38" t="n">
         <v>1.44</v>
@@ -5057,7 +5059,7 @@
         <v>2</v>
       </c>
       <c r="S38" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="T38" t="n">
         <v>11</v>
@@ -5143,43 +5145,43 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="I39" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J39" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K39" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L39" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M39" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N39" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="O39" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="P39" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R39" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S39" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="T39" t="n">
         <v>7.5</v>
@@ -5194,13 +5196,13 @@
         <v>17</v>
       </c>
       <c r="X39" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y39" t="n">
         <v>29</v>
       </c>
       <c r="Z39" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA39" t="n">
         <v>6</v>
@@ -5209,13 +5211,13 @@
         <v>13</v>
       </c>
       <c r="AC39" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD39" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE39" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF39" t="n">
         <v>21</v>
@@ -5631,13 +5633,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I43" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="J43" t="n">
         <v>1.07</v>
@@ -5664,22 +5666,22 @@
         <v>2.5</v>
       </c>
       <c r="R43" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S43" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T43" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U43" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V43" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W43" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X43" t="n">
         <v>21</v>
@@ -5703,19 +5705,19 @@
         <v>351</v>
       </c>
       <c r="AE43" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF43" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG43" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH43" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI43" t="n">
         <v>29</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>26</v>
       </c>
       <c r="AJ43" t="n">
         <v>41</v>
@@ -6363,19 +6365,19 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H49" t="n">
         <v>3.1</v>
       </c>
       <c r="I49" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J49" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K49" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L49" t="n">
         <v>1.57</v>
@@ -6402,7 +6404,7 @@
         <v>1.53</v>
       </c>
       <c r="T49" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="U49" t="n">
         <v>8</v>
@@ -6411,7 +6413,7 @@
         <v>10</v>
       </c>
       <c r="W49" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X49" t="n">
         <v>21</v>
@@ -6423,7 +6425,7 @@
         <v>6</v>
       </c>
       <c r="AA49" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB49" t="n">
         <v>21</v>
@@ -6444,7 +6446,7 @@
         <v>15</v>
       </c>
       <c r="AH49" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI49" t="n">
         <v>41</v>
@@ -6969,13 +6971,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="H54" t="n">
         <v>3.2</v>
       </c>
       <c r="I54" t="n">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="J54" t="n">
         <v>1.08</v>
@@ -6996,40 +6998,40 @@
         <v>1.53</v>
       </c>
       <c r="P54" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R54" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S54" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T54" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U54" t="n">
+        <v>15</v>
+      </c>
+      <c r="V54" t="n">
         <v>12</v>
       </c>
-      <c r="V54" t="n">
-        <v>11</v>
-      </c>
       <c r="W54" t="n">
+        <v>34</v>
+      </c>
+      <c r="X54" t="n">
         <v>29</v>
-      </c>
-      <c r="X54" t="n">
-        <v>26</v>
       </c>
       <c r="Y54" t="n">
         <v>41</v>
       </c>
       <c r="Z54" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA54" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB54" t="n">
         <v>19</v>
@@ -7041,19 +7043,19 @@
         <v>351</v>
       </c>
       <c r="AE54" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF54" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AG54" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH54" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AI54" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ54" t="n">
         <v>41</v>
@@ -7100,16 +7102,16 @@
         <v>5</v>
       </c>
       <c r="J55" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="K55" t="n">
         <v>7</v>
       </c>
       <c r="L55" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="M55" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N55" t="n">
         <v>2.5</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-14.xlsx
@@ -1141,46 +1141,46 @@
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J6" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="K6" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="M6" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="N6" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="O6" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S6" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T6" t="n">
         <v>5.5</v>
       </c>
       <c r="U6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W6" t="n">
         <v>21</v>
@@ -1192,7 +1192,7 @@
         <v>41</v>
       </c>
       <c r="Z6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA6" t="n">
         <v>6</v>
@@ -1213,13 +1213,13 @@
         <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
         <v>41</v>
       </c>
       <c r="AI6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ6" t="n">
         <v>51</v>
@@ -1257,31 +1257,31 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.32</v>
+        <v>2.6</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="J7" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M7" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N7" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="P7" t="n">
         <v>1.53</v>
@@ -1293,28 +1293,28 @@
         <v>2</v>
       </c>
       <c r="S7" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="T7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W7" t="n">
+        <v>26</v>
+      </c>
+      <c r="X7" t="n">
         <v>23</v>
       </c>
-      <c r="X7" t="n">
-        <v>21</v>
-      </c>
       <c r="Y7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA7" t="n">
         <v>6</v>
@@ -1323,22 +1323,22 @@
         <v>17</v>
       </c>
       <c r="AC7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD7" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI7" t="n">
         <v>29</v>
@@ -1379,13 +1379,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H8" t="n">
         <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="J8" t="n">
         <v>1.11</v>
@@ -1394,10 +1394,10 @@
         <v>6.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="M8" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="N8" t="n">
         <v>2.7</v>
@@ -1412,13 +1412,13 @@
         <v>2.2</v>
       </c>
       <c r="R8" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S8" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U8" t="n">
         <v>15</v>
@@ -1436,7 +1436,7 @@
         <v>51</v>
       </c>
       <c r="Z8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA8" t="n">
         <v>6</v>
@@ -1454,7 +1454,7 @@
         <v>5.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG8" t="n">
         <v>10</v>
@@ -1501,31 +1501,31 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L9" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M9" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N9" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P9" t="n">
         <v>1.53</v>
@@ -1549,7 +1549,7 @@
         <v>9</v>
       </c>
       <c r="W9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X9" t="n">
         <v>17</v>
@@ -1558,7 +1558,7 @@
         <v>41</v>
       </c>
       <c r="Z9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA9" t="n">
         <v>7</v>
@@ -1748,28 +1748,28 @@
         <v>1.7</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
         <v>5.25</v>
       </c>
       <c r="J11" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K11" t="n">
         <v>7</v>
       </c>
       <c r="L11" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="M11" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N11" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P11" t="n">
         <v>1.53</v>
@@ -1802,7 +1802,7 @@
         <v>41</v>
       </c>
       <c r="Z11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA11" t="n">
         <v>7</v>
@@ -1867,13 +1867,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="H12" t="n">
         <v>3.3</v>
       </c>
       <c r="I12" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J12" t="n">
         <v>1.13</v>
@@ -1906,7 +1906,7 @@
         <v>1.44</v>
       </c>
       <c r="T12" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="U12" t="n">
         <v>7</v>
@@ -1930,7 +1930,7 @@
         <v>7</v>
       </c>
       <c r="AB12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC12" t="n">
         <v>126</v>
@@ -1939,7 +1939,7 @@
         <v>101</v>
       </c>
       <c r="AE12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF12" t="n">
         <v>21</v>
@@ -1992,28 +1992,28 @@
         <v>1.22</v>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="I13" t="n">
         <v>12</v>
       </c>
       <c r="J13" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L13" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="M13" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="N13" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="O13" t="n">
-        <v>2.87</v>
+        <v>3.1</v>
       </c>
       <c r="P13" t="n">
         <v>1.22</v>
@@ -2111,13 +2111,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H14" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="I14" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J14" t="n">
         <v>1.1</v>
@@ -2126,7 +2126,7 @@
         <v>5.8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M14" t="n">
         <v>2.75</v>
@@ -2141,7 +2141,7 @@
         <v>1.47</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="R14" t="n">
         <v>1.85</v>
@@ -2162,7 +2162,7 @@
         <v>17.5</v>
       </c>
       <c r="X14" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y14" t="n">
         <v>29</v>
@@ -2599,31 +2599,31 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="H18" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I18" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="J18" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L18" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M18" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N18" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="O18" t="n">
-        <v>1.94</v>
+        <v>2.05</v>
       </c>
       <c r="P18" t="n">
         <v>1.36</v>
@@ -2632,34 +2632,34 @@
         <v>3</v>
       </c>
       <c r="R18" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S18" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T18" t="n">
         <v>9</v>
       </c>
       <c r="U18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W18" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="X18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB18" t="n">
         <v>12</v>
@@ -2671,19 +2671,19 @@
         <v>151</v>
       </c>
       <c r="AE18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF18" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ18" t="n">
         <v>34</v>
@@ -2721,19 +2721,19 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H19" t="n">
         <v>3.2</v>
       </c>
       <c r="I19" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J19" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K19" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L19" t="n">
         <v>1.22</v>
@@ -2742,10 +2742,10 @@
         <v>4</v>
       </c>
       <c r="N19" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="O19" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P19" t="n">
         <v>1.36</v>
@@ -2843,19 +2843,19 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="H20" t="n">
         <v>3.25</v>
       </c>
       <c r="I20" t="n">
-        <v>2.57</v>
+        <v>2.7</v>
       </c>
       <c r="J20" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L20" t="n">
         <v>1.4</v>
@@ -2867,7 +2867,7 @@
         <v>2.25</v>
       </c>
       <c r="O20" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="P20" t="n">
         <v>1.5</v>
@@ -2888,7 +2888,7 @@
         <v>12</v>
       </c>
       <c r="V20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W20" t="n">
         <v>26</v>
@@ -2921,7 +2921,7 @@
         <v>12</v>
       </c>
       <c r="AG20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH20" t="n">
         <v>26</v>
@@ -3083,13 +3083,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H22" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="I22" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J22" t="n">
         <v>1.11</v>
@@ -3098,79 +3098,79 @@
         <v>6</v>
       </c>
       <c r="L22" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M22" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="N22" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="O22" t="n">
         <v>1.42</v>
       </c>
       <c r="P22" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="R22" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="S22" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T22" t="n">
         <v>4.65</v>
       </c>
       <c r="U22" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="V22" t="n">
         <v>9.25</v>
       </c>
       <c r="W22" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="X22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y22" t="n">
         <v>50</v>
       </c>
       <c r="Z22" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AA22" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AB22" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AC22" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AD22" t="n">
         <v>101</v>
       </c>
       <c r="AE22" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AF22" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG22" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH22" t="n">
         <v>120</v>
       </c>
       <c r="AI22" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ22" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23">
@@ -3327,13 +3327,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="H24" t="n">
         <v>3.4</v>
       </c>
       <c r="I24" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="J24" t="n">
         <v>1.06</v>
@@ -3342,10 +3342,10 @@
         <v>10</v>
       </c>
       <c r="L24" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M24" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N24" t="n">
         <v>2.05</v>
@@ -3369,10 +3369,10 @@
         <v>11</v>
       </c>
       <c r="U24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W24" t="n">
         <v>41</v>
@@ -3402,16 +3402,16 @@
         <v>7</v>
       </c>
       <c r="AF24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ24" t="n">
         <v>29</v>
@@ -3449,25 +3449,25 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H25" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J25" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L25" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M25" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N25" t="n">
         <v>2.1</v>
@@ -3494,7 +3494,7 @@
         <v>17</v>
       </c>
       <c r="V25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W25" t="n">
         <v>41</v>
@@ -5023,31 +5023,31 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4.33</v>
+        <v>6.5</v>
       </c>
       <c r="H38" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="I38" t="n">
-        <v>1.77</v>
+        <v>1.45</v>
       </c>
       <c r="J38" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K38" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L38" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M38" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N38" t="n">
-        <v>2.15</v>
+        <v>2.03</v>
       </c>
       <c r="O38" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="P38" t="n">
         <v>1.44</v>
@@ -5056,61 +5056,61 @@
         <v>2.63</v>
       </c>
       <c r="R38" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S38" t="n">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="T38" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="U38" t="n">
+        <v>34</v>
+      </c>
+      <c r="V38" t="n">
         <v>21</v>
       </c>
-      <c r="V38" t="n">
-        <v>15</v>
-      </c>
       <c r="W38" t="n">
+        <v>81</v>
+      </c>
+      <c r="X38" t="n">
         <v>51</v>
       </c>
-      <c r="X38" t="n">
-        <v>41</v>
-      </c>
       <c r="Y38" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z38" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA38" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB38" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AC38" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD38" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AE38" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF38" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AG38" t="n">
         <v>9</v>
       </c>
       <c r="AH38" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="AI38" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AJ38" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39">
@@ -5148,16 +5148,16 @@
         <v>1.96</v>
       </c>
       <c r="H39" t="n">
-        <v>2.85</v>
+        <v>3.1</v>
       </c>
       <c r="I39" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="J39" t="n">
         <v>1.07</v>
       </c>
       <c r="K39" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L39" t="n">
         <v>1.33</v>
@@ -5166,10 +5166,10 @@
         <v>3.25</v>
       </c>
       <c r="N39" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="O39" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="P39" t="n">
         <v>1.44</v>
@@ -5178,16 +5178,16 @@
         <v>2.63</v>
       </c>
       <c r="R39" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="S39" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="T39" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U39" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V39" t="n">
         <v>9</v>
@@ -5208,7 +5208,7 @@
         <v>6</v>
       </c>
       <c r="AB39" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC39" t="n">
         <v>51</v>
@@ -5217,13 +5217,13 @@
         <v>251</v>
       </c>
       <c r="AE39" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF39" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH39" t="n">
         <v>41</v>
@@ -7093,22 +7093,22 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="H55" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I55" t="n">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="J55" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K55" t="n">
         <v>7</v>
       </c>
       <c r="L55" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M55" t="n">
         <v>2.5</v>
@@ -7126,22 +7126,22 @@
         <v>2.38</v>
       </c>
       <c r="R55" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S55" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T55" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U55" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V55" t="n">
         <v>9.5</v>
       </c>
       <c r="W55" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X55" t="n">
         <v>17</v>
@@ -7153,7 +7153,7 @@
         <v>6.5</v>
       </c>
       <c r="AA55" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB55" t="n">
         <v>21</v>
@@ -7165,19 +7165,19 @@
         <v>351</v>
       </c>
       <c r="AE55" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF55" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG55" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH55" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI55" t="n">
         <v>51</v>
-      </c>
-      <c r="AI55" t="n">
-        <v>41</v>
       </c>
       <c r="AJ55" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-14.xlsx
@@ -1379,13 +1379,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="H8" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J8" t="n">
         <v>1.11</v>
@@ -1394,16 +1394,16 @@
         <v>6.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="M8" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="N8" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="O8" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P8" t="n">
         <v>1.62</v>
@@ -1418,7 +1418,7 @@
         <v>1.57</v>
       </c>
       <c r="T8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U8" t="n">
         <v>15</v>
@@ -1430,7 +1430,7 @@
         <v>41</v>
       </c>
       <c r="X8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y8" t="n">
         <v>51</v>
@@ -1454,7 +1454,7 @@
         <v>5.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
         <v>10</v>
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>5.5</v>
+        <v>6.25</v>
       </c>
       <c r="J9" t="n">
         <v>1.1</v>
@@ -1528,16 +1528,16 @@
         <v>1.5</v>
       </c>
       <c r="P9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S9" t="n">
         <v>1.53</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.57</v>
       </c>
       <c r="T9" t="n">
         <v>5</v>
@@ -1546,10 +1546,10 @@
         <v>6.5</v>
       </c>
       <c r="V9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X9" t="n">
         <v>17</v>
@@ -1564,10 +1564,10 @@
         <v>7</v>
       </c>
       <c r="AB9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC9" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD9" t="n">
         <v>101</v>
@@ -1576,10 +1576,10 @@
         <v>11</v>
       </c>
       <c r="AF9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH9" t="n">
         <v>67</v>
@@ -1588,7 +1588,7 @@
         <v>51</v>
       </c>
       <c r="AJ9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
@@ -1867,13 +1867,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H12" t="n">
         <v>3.3</v>
       </c>
       <c r="I12" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J12" t="n">
         <v>1.13</v>
@@ -1882,16 +1882,16 @@
         <v>6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="M12" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N12" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="O12" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P12" t="n">
         <v>1.67</v>
@@ -1906,7 +1906,7 @@
         <v>1.44</v>
       </c>
       <c r="T12" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="U12" t="n">
         <v>7</v>
@@ -1930,7 +1930,7 @@
         <v>7</v>
       </c>
       <c r="AB12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC12" t="n">
         <v>126</v>
@@ -1939,7 +1939,7 @@
         <v>101</v>
       </c>
       <c r="AE12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF12" t="n">
         <v>21</v>
@@ -2111,25 +2111,25 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H14" t="n">
-        <v>2.82</v>
+        <v>2.95</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="J14" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="K14" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="L14" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M14" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="N14" t="n">
         <v>2.15</v>
@@ -2141,64 +2141,64 @@
         <v>1.47</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="R14" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="S14" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="T14" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="U14" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="V14" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="W14" t="n">
         <v>17.5</v>
       </c>
       <c r="X14" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y14" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z14" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AA14" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AB14" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC14" t="n">
         <v>75</v>
       </c>
       <c r="AD14" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AE14" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AJ14" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
@@ -2721,13 +2721,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I19" t="n">
         <v>3.2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.75</v>
       </c>
       <c r="J19" t="n">
         <v>1.04</v>
@@ -2754,28 +2754,28 @@
         <v>3</v>
       </c>
       <c r="R19" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S19" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W19" t="n">
+        <v>21</v>
+      </c>
+      <c r="X19" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y19" t="n">
         <v>23</v>
-      </c>
-      <c r="X19" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>26</v>
       </c>
       <c r="Z19" t="n">
         <v>12</v>
@@ -2793,22 +2793,22 @@
         <v>151</v>
       </c>
       <c r="AE19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>29</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="20">
@@ -2843,13 +2843,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="H20" t="n">
         <v>3.25</v>
       </c>
       <c r="I20" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="J20" t="n">
         <v>1.08</v>
@@ -2864,10 +2864,10 @@
         <v>2.75</v>
       </c>
       <c r="N20" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O20" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P20" t="n">
         <v>1.5</v>
@@ -2885,25 +2885,25 @@
         <v>7.5</v>
       </c>
       <c r="U20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X20" t="n">
         <v>23</v>
       </c>
       <c r="Y20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z20" t="n">
         <v>8</v>
       </c>
       <c r="AA20" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB20" t="n">
         <v>17</v>
@@ -2921,7 +2921,7 @@
         <v>12</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH20" t="n">
         <v>26</v>
@@ -3449,13 +3449,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H25" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I25" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
         <v>1.07</v>
@@ -3470,10 +3470,10 @@
         <v>3</v>
       </c>
       <c r="N25" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O25" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P25" t="n">
         <v>1.44</v>
@@ -3482,10 +3482,10 @@
         <v>2.63</v>
       </c>
       <c r="R25" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S25" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T25" t="n">
         <v>9.5</v>
@@ -3500,7 +3500,7 @@
         <v>41</v>
       </c>
       <c r="X25" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y25" t="n">
         <v>41</v>
@@ -3512,28 +3512,28 @@
         <v>6.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC25" t="n">
         <v>51</v>
       </c>
       <c r="AD25" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE25" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG25" t="n">
         <v>9</v>
       </c>
       <c r="AH25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ25" t="n">
         <v>29</v>
@@ -5145,13 +5145,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.96</v>
+        <v>2.2</v>
       </c>
       <c r="H39" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I39" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="J39" t="n">
         <v>1.07</v>
@@ -5178,25 +5178,25 @@
         <v>2.63</v>
       </c>
       <c r="R39" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S39" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T39" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U39" t="n">
+        <v>10</v>
+      </c>
+      <c r="V39" t="n">
         <v>9.5</v>
       </c>
-      <c r="V39" t="n">
-        <v>9</v>
-      </c>
       <c r="W39" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="X39" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y39" t="n">
         <v>29</v>
@@ -5208,7 +5208,7 @@
         <v>6</v>
       </c>
       <c r="AB39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC39" t="n">
         <v>51</v>
@@ -5217,10 +5217,10 @@
         <v>251</v>
       </c>
       <c r="AE39" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF39" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG39" t="n">
         <v>13</v>
@@ -5229,7 +5229,7 @@
         <v>41</v>
       </c>
       <c r="AI39" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ39" t="n">
         <v>41</v>
